--- a/BackTest/2020-01-14 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-14 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M186"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.07</v>
+        <v>12.28</v>
       </c>
       <c r="C2" t="n">
-        <v>12.26</v>
+        <v>12.28</v>
       </c>
       <c r="D2" t="n">
-        <v>12.26</v>
+        <v>12.28</v>
       </c>
       <c r="E2" t="n">
-        <v>12.07</v>
+        <v>12.28</v>
       </c>
       <c r="F2" t="n">
-        <v>154425.7514</v>
+        <v>40470.9269</v>
       </c>
       <c r="G2" t="n">
-        <v>12.7385</v>
+        <v>12.75233333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.26</v>
+        <v>12.07</v>
       </c>
       <c r="C3" t="n">
         <v>12.26</v>
@@ -477,13 +477,13 @@
         <v>12.26</v>
       </c>
       <c r="E3" t="n">
-        <v>12.26</v>
+        <v>12.07</v>
       </c>
       <c r="F3" t="n">
-        <v>61000</v>
+        <v>154425.7514</v>
       </c>
       <c r="G3" t="n">
-        <v>12.72616666666667</v>
+        <v>12.7385</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.22</v>
+        <v>12.26</v>
       </c>
       <c r="C4" t="n">
-        <v>12.32</v>
+        <v>12.26</v>
       </c>
       <c r="D4" t="n">
-        <v>12.32</v>
+        <v>12.26</v>
       </c>
       <c r="E4" t="n">
-        <v>12.22</v>
+        <v>12.26</v>
       </c>
       <c r="F4" t="n">
-        <v>74217.6409</v>
+        <v>61000</v>
       </c>
       <c r="G4" t="n">
-        <v>12.71483333333333</v>
+        <v>12.72616666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.32</v>
+        <v>12.22</v>
       </c>
       <c r="C5" t="n">
         <v>12.32</v>
@@ -547,13 +547,13 @@
         <v>12.32</v>
       </c>
       <c r="E5" t="n">
-        <v>12.32</v>
+        <v>12.22</v>
       </c>
       <c r="F5" t="n">
-        <v>3754.0731</v>
+        <v>74217.6409</v>
       </c>
       <c r="G5" t="n">
-        <v>12.70616666666667</v>
+        <v>12.71483333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>12.32</v>
       </c>
       <c r="C6" t="n">
-        <v>12.22</v>
+        <v>12.32</v>
       </c>
       <c r="D6" t="n">
         <v>12.32</v>
       </c>
       <c r="E6" t="n">
-        <v>12.22</v>
+        <v>12.32</v>
       </c>
       <c r="F6" t="n">
-        <v>14456.0132</v>
+        <v>3754.0731</v>
       </c>
       <c r="G6" t="n">
-        <v>12.6965</v>
+        <v>12.70616666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="C7" t="n">
         <v>12.22</v>
       </c>
-      <c r="C7" t="n">
-        <v>12.19</v>
-      </c>
       <c r="D7" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="E7" t="n">
         <v>12.22</v>
       </c>
-      <c r="E7" t="n">
-        <v>12.15</v>
-      </c>
       <c r="F7" t="n">
-        <v>17887.084</v>
+        <v>14456.0132</v>
       </c>
       <c r="G7" t="n">
-        <v>12.6875</v>
+        <v>12.6965</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.2</v>
+        <v>12.22</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>12.19</v>
       </c>
       <c r="D8" t="n">
-        <v>12.2</v>
+        <v>12.22</v>
       </c>
       <c r="E8" t="n">
-        <v>12.2</v>
+        <v>12.15</v>
       </c>
       <c r="F8" t="n">
-        <v>42090.6188</v>
+        <v>17887.084</v>
       </c>
       <c r="G8" t="n">
-        <v>12.67683333333334</v>
+        <v>12.6875</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.21</v>
+        <v>12.2</v>
       </c>
       <c r="C9" t="n">
-        <v>12.24</v>
+        <v>12.2</v>
       </c>
       <c r="D9" t="n">
-        <v>12.24</v>
+        <v>12.2</v>
       </c>
       <c r="E9" t="n">
-        <v>12.21</v>
+        <v>12.2</v>
       </c>
       <c r="F9" t="n">
-        <v>62.916</v>
+        <v>42090.6188</v>
       </c>
       <c r="G9" t="n">
-        <v>12.66683333333333</v>
+        <v>12.67683333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,35 +713,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.26</v>
+        <v>12.21</v>
       </c>
       <c r="C10" t="n">
-        <v>12.32</v>
+        <v>12.24</v>
       </c>
       <c r="D10" t="n">
-        <v>12.32</v>
+        <v>12.24</v>
       </c>
       <c r="E10" t="n">
-        <v>12.26</v>
+        <v>12.21</v>
       </c>
       <c r="F10" t="n">
-        <v>19362.01088701299</v>
+        <v>62.916</v>
       </c>
       <c r="G10" t="n">
-        <v>12.658</v>
+        <v>12.66683333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="K10" t="n">
-        <v>12.24</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
@@ -752,40 +748,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="C11" t="n">
         <v>12.32</v>
       </c>
-      <c r="C11" t="n">
-        <v>12.5</v>
-      </c>
       <c r="D11" t="n">
-        <v>12.5</v>
+        <v>12.32</v>
       </c>
       <c r="E11" t="n">
-        <v>12.32</v>
+        <v>12.26</v>
       </c>
       <c r="F11" t="n">
-        <v>13475.65591298701</v>
+        <v>19362.01088701299</v>
       </c>
       <c r="G11" t="n">
-        <v>12.65216666666667</v>
+        <v>12.658</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="K11" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -795,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.5</v>
+        <v>12.32</v>
       </c>
       <c r="C12" t="n">
         <v>12.5</v>
@@ -804,31 +792,23 @@
         <v>12.5</v>
       </c>
       <c r="E12" t="n">
-        <v>12.5</v>
+        <v>12.32</v>
       </c>
       <c r="F12" t="n">
-        <v>17346.0855</v>
+        <v>13475.65591298701</v>
       </c>
       <c r="G12" t="n">
-        <v>12.6465</v>
+        <v>12.65216666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -838,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.31</v>
+        <v>12.5</v>
       </c>
       <c r="C13" t="n">
-        <v>12.32</v>
+        <v>12.5</v>
       </c>
       <c r="D13" t="n">
-        <v>12.32</v>
+        <v>12.5</v>
       </c>
       <c r="E13" t="n">
-        <v>12.31</v>
+        <v>12.5</v>
       </c>
       <c r="F13" t="n">
-        <v>16811.5438</v>
+        <v>17346.0855</v>
       </c>
       <c r="G13" t="n">
-        <v>12.63933333333333</v>
+        <v>12.6465</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -873,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="C14" t="n">
         <v>12.32</v>
       </c>
-      <c r="C14" t="n">
-        <v>12.51</v>
-      </c>
       <c r="D14" t="n">
-        <v>12.51</v>
+        <v>12.32</v>
       </c>
       <c r="E14" t="n">
-        <v>12.32</v>
+        <v>12.31</v>
       </c>
       <c r="F14" t="n">
-        <v>58346.3118</v>
+        <v>16811.5438</v>
       </c>
       <c r="G14" t="n">
-        <v>12.6355</v>
+        <v>12.63933333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -908,38 +888,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="C15" t="n">
         <v>12.51</v>
-      </c>
-      <c r="C15" t="n">
-        <v>12.33</v>
       </c>
       <c r="D15" t="n">
         <v>12.51</v>
       </c>
       <c r="E15" t="n">
-        <v>12.33</v>
+        <v>12.32</v>
       </c>
       <c r="F15" t="n">
-        <v>8332.5242</v>
+        <v>58346.3118</v>
       </c>
       <c r="G15" t="n">
-        <v>12.62866666666667</v>
+        <v>12.6355</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>12.51</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -949,38 +923,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.47</v>
+        <v>12.51</v>
       </c>
       <c r="C16" t="n">
-        <v>12.5</v>
+        <v>12.33</v>
       </c>
       <c r="D16" t="n">
-        <v>12.5</v>
+        <v>12.51</v>
       </c>
       <c r="E16" t="n">
-        <v>12.47</v>
+        <v>12.33</v>
       </c>
       <c r="F16" t="n">
-        <v>9244.912</v>
+        <v>8332.5242</v>
       </c>
       <c r="G16" t="n">
-        <v>12.62683333333334</v>
+        <v>12.62866666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>12.33</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -990,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.44</v>
+        <v>12.47</v>
       </c>
       <c r="C17" t="n">
-        <v>12.44</v>
+        <v>12.5</v>
       </c>
       <c r="D17" t="n">
-        <v>12.44</v>
+        <v>12.5</v>
       </c>
       <c r="E17" t="n">
-        <v>12.44</v>
+        <v>12.47</v>
       </c>
       <c r="F17" t="n">
-        <v>950</v>
+        <v>9244.912</v>
       </c>
       <c r="G17" t="n">
-        <v>12.62416666666667</v>
+        <v>12.62683333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1015,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1029,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.5</v>
+        <v>12.44</v>
       </c>
       <c r="C18" t="n">
-        <v>12.5</v>
+        <v>12.44</v>
       </c>
       <c r="D18" t="n">
-        <v>12.5</v>
+        <v>12.44</v>
       </c>
       <c r="E18" t="n">
-        <v>12.5</v>
+        <v>12.44</v>
       </c>
       <c r="F18" t="n">
-        <v>2764.0004</v>
+        <v>950</v>
       </c>
       <c r="G18" t="n">
-        <v>12.61583333333334</v>
+        <v>12.62416666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1054,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1068,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.44</v>
+        <v>12.5</v>
       </c>
       <c r="C19" t="n">
-        <v>12.52</v>
+        <v>12.5</v>
       </c>
       <c r="D19" t="n">
-        <v>12.52</v>
+        <v>12.5</v>
       </c>
       <c r="E19" t="n">
-        <v>12.44</v>
+        <v>12.5</v>
       </c>
       <c r="F19" t="n">
-        <v>8441.794</v>
+        <v>2764.0004</v>
       </c>
       <c r="G19" t="n">
-        <v>12.61283333333333</v>
+        <v>12.61583333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1093,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1107,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.54</v>
+        <v>12.44</v>
       </c>
       <c r="C20" t="n">
-        <v>12.54</v>
+        <v>12.52</v>
       </c>
       <c r="D20" t="n">
-        <v>12.54</v>
+        <v>12.52</v>
       </c>
       <c r="E20" t="n">
-        <v>12.54</v>
+        <v>12.44</v>
       </c>
       <c r="F20" t="n">
-        <v>67.4957</v>
+        <v>8441.794</v>
       </c>
       <c r="G20" t="n">
-        <v>12.61183333333333</v>
+        <v>12.61283333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1132,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1146,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.52</v>
+        <v>12.54</v>
       </c>
       <c r="C21" t="n">
-        <v>12.56</v>
+        <v>12.54</v>
       </c>
       <c r="D21" t="n">
-        <v>12.56</v>
+        <v>12.54</v>
       </c>
       <c r="E21" t="n">
-        <v>12.52</v>
+        <v>12.54</v>
       </c>
       <c r="F21" t="n">
-        <v>18549.2008</v>
+        <v>67.4957</v>
       </c>
       <c r="G21" t="n">
-        <v>12.61216666666667</v>
+        <v>12.61183333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1171,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1185,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.57</v>
+        <v>12.52</v>
       </c>
       <c r="C22" t="n">
-        <v>12.58</v>
+        <v>12.56</v>
       </c>
       <c r="D22" t="n">
-        <v>12.58</v>
+        <v>12.56</v>
       </c>
       <c r="E22" t="n">
-        <v>12.57</v>
+        <v>12.52</v>
       </c>
       <c r="F22" t="n">
-        <v>1980.213</v>
+        <v>18549.2008</v>
       </c>
       <c r="G22" t="n">
-        <v>12.60783333333333</v>
+        <v>12.61216666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1210,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1224,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.59</v>
+        <v>12.57</v>
       </c>
       <c r="C23" t="n">
-        <v>12.59</v>
+        <v>12.58</v>
       </c>
       <c r="D23" t="n">
-        <v>12.59</v>
+        <v>12.58</v>
       </c>
       <c r="E23" t="n">
-        <v>12.59</v>
+        <v>12.57</v>
       </c>
       <c r="F23" t="n">
-        <v>2031.8031</v>
+        <v>1980.213</v>
       </c>
       <c r="G23" t="n">
-        <v>12.60316666666667</v>
+        <v>12.60783333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1249,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1263,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.6</v>
+        <v>12.59</v>
       </c>
       <c r="C24" t="n">
-        <v>12.61</v>
+        <v>12.59</v>
       </c>
       <c r="D24" t="n">
-        <v>12.61</v>
+        <v>12.59</v>
       </c>
       <c r="E24" t="n">
-        <v>12.6</v>
+        <v>12.59</v>
       </c>
       <c r="F24" t="n">
-        <v>2301.3054</v>
+        <v>2031.8031</v>
       </c>
       <c r="G24" t="n">
-        <v>12.60166666666667</v>
+        <v>12.60316666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1288,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.62</v>
+        <v>12.6</v>
       </c>
       <c r="C25" t="n">
-        <v>12.75</v>
+        <v>12.61</v>
       </c>
       <c r="D25" t="n">
-        <v>12.75</v>
+        <v>12.61</v>
       </c>
       <c r="E25" t="n">
-        <v>12.62</v>
+        <v>12.6</v>
       </c>
       <c r="F25" t="n">
-        <v>5462.551594117647</v>
+        <v>2301.3054</v>
       </c>
       <c r="G25" t="n">
-        <v>12.6025</v>
+        <v>12.60166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1327,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1341,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="C26" t="n">
         <v>12.75</v>
       </c>
-      <c r="C26" t="n">
-        <v>12.85</v>
-      </c>
       <c r="D26" t="n">
-        <v>12.85</v>
+        <v>12.75</v>
       </c>
       <c r="E26" t="n">
-        <v>12.75</v>
+        <v>12.62</v>
       </c>
       <c r="F26" t="n">
-        <v>497.8425268940261</v>
+        <v>5462.551594117647</v>
       </c>
       <c r="G26" t="n">
-        <v>12.601</v>
+        <v>12.6025</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1366,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1380,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.66</v>
+        <v>12.75</v>
       </c>
       <c r="C27" t="n">
-        <v>12.3</v>
+        <v>12.85</v>
       </c>
       <c r="D27" t="n">
-        <v>12.66</v>
+        <v>12.85</v>
       </c>
       <c r="E27" t="n">
-        <v>12.3</v>
+        <v>12.75</v>
       </c>
       <c r="F27" t="n">
-        <v>167628.6995</v>
+        <v>497.8425268940261</v>
       </c>
       <c r="G27" t="n">
-        <v>12.59433333333333</v>
+        <v>12.601</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1405,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1419,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.5</v>
+        <v>12.66</v>
       </c>
       <c r="C28" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D28" t="n">
-        <v>12.5</v>
+        <v>12.66</v>
       </c>
       <c r="E28" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F28" t="n">
-        <v>1530</v>
+        <v>167628.6995</v>
       </c>
       <c r="G28" t="n">
-        <v>12.591</v>
+        <v>12.59433333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1444,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1461,19 +1381,19 @@
         <v>12.5</v>
       </c>
       <c r="C29" t="n">
-        <v>12.31</v>
+        <v>12.5</v>
       </c>
       <c r="D29" t="n">
         <v>12.5</v>
       </c>
       <c r="E29" t="n">
-        <v>12.31</v>
+        <v>12.5</v>
       </c>
       <c r="F29" t="n">
-        <v>2867</v>
+        <v>1530</v>
       </c>
       <c r="G29" t="n">
-        <v>12.58183333333333</v>
+        <v>12.591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1483,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1497,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.49</v>
+        <v>12.5</v>
       </c>
       <c r="C30" t="n">
-        <v>12.32</v>
+        <v>12.31</v>
       </c>
       <c r="D30" t="n">
-        <v>12.49</v>
+        <v>12.5</v>
       </c>
       <c r="E30" t="n">
         <v>12.31</v>
       </c>
       <c r="F30" t="n">
-        <v>48695.6244</v>
+        <v>2867</v>
       </c>
       <c r="G30" t="n">
-        <v>12.57283333333333</v>
+        <v>12.58183333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1522,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1536,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.55</v>
+        <v>12.49</v>
       </c>
       <c r="C31" t="n">
-        <v>12.55</v>
+        <v>12.32</v>
       </c>
       <c r="D31" t="n">
-        <v>12.55</v>
+        <v>12.49</v>
       </c>
       <c r="E31" t="n">
-        <v>12.55</v>
+        <v>12.31</v>
       </c>
       <c r="F31" t="n">
-        <v>32874.8745</v>
+        <v>48695.6244</v>
       </c>
       <c r="G31" t="n">
-        <v>12.57049999999999</v>
+        <v>12.57283333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1561,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1575,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.45</v>
+        <v>12.55</v>
       </c>
       <c r="C32" t="n">
-        <v>12.83</v>
+        <v>12.55</v>
       </c>
       <c r="D32" t="n">
-        <v>12.83</v>
+        <v>12.55</v>
       </c>
       <c r="E32" t="n">
-        <v>12.45</v>
+        <v>12.55</v>
       </c>
       <c r="F32" t="n">
-        <v>179338.4237151988</v>
+        <v>32874.8745</v>
       </c>
       <c r="G32" t="n">
-        <v>12.57233333333333</v>
+        <v>12.57049999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1600,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1614,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.69</v>
+        <v>12.45</v>
       </c>
       <c r="C33" t="n">
-        <v>12.69</v>
+        <v>12.83</v>
       </c>
       <c r="D33" t="n">
-        <v>12.69</v>
+        <v>12.83</v>
       </c>
       <c r="E33" t="n">
-        <v>12.69</v>
+        <v>12.45</v>
       </c>
       <c r="F33" t="n">
-        <v>40</v>
+        <v>179338.4237151988</v>
       </c>
       <c r="G33" t="n">
-        <v>12.56966666666666</v>
+        <v>12.57233333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1639,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1653,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.6</v>
+        <v>12.69</v>
       </c>
       <c r="C34" t="n">
-        <v>12.42</v>
+        <v>12.69</v>
       </c>
       <c r="D34" t="n">
-        <v>12.6</v>
+        <v>12.69</v>
       </c>
       <c r="E34" t="n">
-        <v>12.42</v>
+        <v>12.69</v>
       </c>
       <c r="F34" t="n">
-        <v>45031.3926</v>
+        <v>40</v>
       </c>
       <c r="G34" t="n">
-        <v>12.56199999999999</v>
+        <v>12.56966666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1678,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1692,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.42</v>
+        <v>12.6</v>
       </c>
       <c r="C35" t="n">
         <v>12.42</v>
       </c>
       <c r="D35" t="n">
-        <v>12.42</v>
+        <v>12.6</v>
       </c>
       <c r="E35" t="n">
         <v>12.42</v>
       </c>
       <c r="F35" t="n">
-        <v>8661.1618</v>
+        <v>45031.3926</v>
       </c>
       <c r="G35" t="n">
-        <v>12.55333333333333</v>
+        <v>12.56199999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1717,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1731,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.41</v>
+        <v>12.42</v>
       </c>
       <c r="C36" t="n">
-        <v>12.41</v>
+        <v>12.42</v>
       </c>
       <c r="D36" t="n">
-        <v>12.41</v>
+        <v>12.42</v>
       </c>
       <c r="E36" t="n">
-        <v>12.41</v>
+        <v>12.42</v>
       </c>
       <c r="F36" t="n">
-        <v>15823</v>
+        <v>8661.1618</v>
       </c>
       <c r="G36" t="n">
-        <v>12.54466666666666</v>
+        <v>12.55333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1756,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.32</v>
+        <v>12.41</v>
       </c>
       <c r="C37" t="n">
-        <v>12.32</v>
+        <v>12.41</v>
       </c>
       <c r="D37" t="n">
-        <v>12.32</v>
+        <v>12.41</v>
       </c>
       <c r="E37" t="n">
-        <v>12.32</v>
+        <v>12.41</v>
       </c>
       <c r="F37" t="n">
-        <v>42331.0994</v>
+        <v>15823</v>
       </c>
       <c r="G37" t="n">
-        <v>12.5345</v>
+        <v>12.54466666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1795,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1809,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.5</v>
+        <v>12.32</v>
       </c>
       <c r="C38" t="n">
-        <v>12.85</v>
+        <v>12.32</v>
       </c>
       <c r="D38" t="n">
-        <v>12.85</v>
+        <v>12.32</v>
       </c>
       <c r="E38" t="n">
-        <v>12.5</v>
+        <v>12.32</v>
       </c>
       <c r="F38" t="n">
-        <v>134960.7203</v>
+        <v>42331.0994</v>
       </c>
       <c r="G38" t="n">
-        <v>12.53316666666666</v>
+        <v>12.5345</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1834,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1848,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.45</v>
+        <v>12.5</v>
       </c>
       <c r="C39" t="n">
-        <v>12.61</v>
+        <v>12.85</v>
       </c>
       <c r="D39" t="n">
-        <v>12.61</v>
+        <v>12.85</v>
       </c>
       <c r="E39" t="n">
-        <v>12.45</v>
+        <v>12.5</v>
       </c>
       <c r="F39" t="n">
-        <v>25835.6677</v>
+        <v>134960.7203</v>
       </c>
       <c r="G39" t="n">
-        <v>12.52783333333333</v>
+        <v>12.53316666666666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1873,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1887,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.54</v>
+        <v>12.45</v>
       </c>
       <c r="C40" t="n">
-        <v>12.54</v>
+        <v>12.61</v>
       </c>
       <c r="D40" t="n">
-        <v>12.54</v>
+        <v>12.61</v>
       </c>
       <c r="E40" t="n">
-        <v>12.54</v>
+        <v>12.45</v>
       </c>
       <c r="F40" t="n">
-        <v>42154.418</v>
+        <v>25835.6677</v>
       </c>
       <c r="G40" t="n">
-        <v>12.525</v>
+        <v>12.52783333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1912,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1926,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.64</v>
+        <v>12.54</v>
       </c>
       <c r="C41" t="n">
-        <v>12.64</v>
+        <v>12.54</v>
       </c>
       <c r="D41" t="n">
-        <v>12.64</v>
+        <v>12.54</v>
       </c>
       <c r="E41" t="n">
-        <v>12.64</v>
+        <v>12.54</v>
       </c>
       <c r="F41" t="n">
-        <v>40</v>
+        <v>42154.418</v>
       </c>
       <c r="G41" t="n">
-        <v>12.524</v>
+        <v>12.525</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1951,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1965,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.53</v>
+        <v>12.64</v>
       </c>
       <c r="C42" t="n">
-        <v>12.53</v>
+        <v>12.64</v>
       </c>
       <c r="D42" t="n">
-        <v>12.53</v>
+        <v>12.64</v>
       </c>
       <c r="E42" t="n">
-        <v>12.53</v>
+        <v>12.64</v>
       </c>
       <c r="F42" t="n">
-        <v>56359.8696</v>
+        <v>40</v>
       </c>
       <c r="G42" t="n">
-        <v>12.52116666666666</v>
+        <v>12.524</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1990,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2004,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.42</v>
+        <v>12.53</v>
       </c>
       <c r="C43" t="n">
-        <v>12.4</v>
+        <v>12.53</v>
       </c>
       <c r="D43" t="n">
-        <v>12.42</v>
+        <v>12.53</v>
       </c>
       <c r="E43" t="n">
-        <v>12.4</v>
+        <v>12.53</v>
       </c>
       <c r="F43" t="n">
-        <v>19596.9182</v>
+        <v>56359.8696</v>
       </c>
       <c r="G43" t="n">
-        <v>12.51283333333333</v>
+        <v>12.52116666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2029,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.51</v>
+        <v>12.42</v>
       </c>
       <c r="C44" t="n">
-        <v>12.51</v>
+        <v>12.4</v>
       </c>
       <c r="D44" t="n">
-        <v>12.51</v>
+        <v>12.42</v>
       </c>
       <c r="E44" t="n">
-        <v>12.51</v>
+        <v>12.4</v>
       </c>
       <c r="F44" t="n">
-        <v>3006</v>
+        <v>19596.9182</v>
       </c>
       <c r="G44" t="n">
-        <v>12.50583333333333</v>
+        <v>12.51283333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2068,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2082,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.42</v>
+        <v>12.51</v>
       </c>
       <c r="C45" t="n">
-        <v>12.33</v>
+        <v>12.51</v>
       </c>
       <c r="D45" t="n">
-        <v>12.42</v>
+        <v>12.51</v>
       </c>
       <c r="E45" t="n">
-        <v>12.33</v>
+        <v>12.51</v>
       </c>
       <c r="F45" t="n">
-        <v>26101.8488</v>
+        <v>3006</v>
       </c>
       <c r="G45" t="n">
-        <v>12.498</v>
+        <v>12.50583333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2107,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2121,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.5</v>
+        <v>12.42</v>
       </c>
       <c r="C46" t="n">
-        <v>12.5</v>
+        <v>12.33</v>
       </c>
       <c r="D46" t="n">
-        <v>12.5</v>
+        <v>12.42</v>
       </c>
       <c r="E46" t="n">
-        <v>12.5</v>
+        <v>12.33</v>
       </c>
       <c r="F46" t="n">
-        <v>41</v>
+        <v>26101.8488</v>
       </c>
       <c r="G46" t="n">
-        <v>12.493</v>
+        <v>12.498</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2146,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2172,10 +2020,10 @@
         <v>12.5</v>
       </c>
       <c r="F47" t="n">
-        <v>4424</v>
+        <v>41</v>
       </c>
       <c r="G47" t="n">
-        <v>12.488</v>
+        <v>12.493</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2185,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2199,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.43</v>
+        <v>12.5</v>
       </c>
       <c r="C48" t="n">
-        <v>12.43</v>
+        <v>12.5</v>
       </c>
       <c r="D48" t="n">
-        <v>12.43</v>
+        <v>12.5</v>
       </c>
       <c r="E48" t="n">
-        <v>12.43</v>
+        <v>12.5</v>
       </c>
       <c r="F48" t="n">
-        <v>26236.1405</v>
+        <v>4424</v>
       </c>
       <c r="G48" t="n">
-        <v>12.48183333333333</v>
+        <v>12.488</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2224,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.71</v>
+        <v>12.43</v>
       </c>
       <c r="C49" t="n">
-        <v>12.64</v>
+        <v>12.43</v>
       </c>
       <c r="D49" t="n">
-        <v>12.71</v>
+        <v>12.43</v>
       </c>
       <c r="E49" t="n">
-        <v>12.64</v>
+        <v>12.43</v>
       </c>
       <c r="F49" t="n">
-        <v>9170.9432</v>
+        <v>26236.1405</v>
       </c>
       <c r="G49" t="n">
-        <v>12.48083333333333</v>
+        <v>12.48183333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2263,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2277,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="C50" t="n">
         <v>12.64</v>
       </c>
-      <c r="C50" t="n">
-        <v>12.74</v>
-      </c>
       <c r="D50" t="n">
-        <v>12.74</v>
+        <v>12.71</v>
       </c>
       <c r="E50" t="n">
         <v>12.64</v>
       </c>
       <c r="F50" t="n">
-        <v>21845.5180533752</v>
+        <v>9170.9432</v>
       </c>
       <c r="G50" t="n">
-        <v>12.4815</v>
+        <v>12.48083333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2302,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2316,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.63</v>
+        <v>12.64</v>
       </c>
       <c r="C51" t="n">
-        <v>12.63</v>
+        <v>12.74</v>
       </c>
       <c r="D51" t="n">
-        <v>12.63</v>
+        <v>12.74</v>
       </c>
       <c r="E51" t="n">
-        <v>12.63</v>
+        <v>12.64</v>
       </c>
       <c r="F51" t="n">
-        <v>18253.1343</v>
+        <v>21845.5180533752</v>
       </c>
       <c r="G51" t="n">
-        <v>12.47733333333333</v>
+        <v>12.4815</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2341,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2367,10 +2195,10 @@
         <v>12.63</v>
       </c>
       <c r="F52" t="n">
-        <v>142.9932</v>
+        <v>18253.1343</v>
       </c>
       <c r="G52" t="n">
-        <v>12.4805</v>
+        <v>12.47733333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2380,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2394,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.64</v>
+        <v>12.63</v>
       </c>
       <c r="C53" t="n">
-        <v>12.64</v>
+        <v>12.63</v>
       </c>
       <c r="D53" t="n">
-        <v>12.64</v>
+        <v>12.63</v>
       </c>
       <c r="E53" t="n">
-        <v>12.64</v>
+        <v>12.63</v>
       </c>
       <c r="F53" t="n">
-        <v>3449</v>
+        <v>142.9932</v>
       </c>
       <c r="G53" t="n">
-        <v>12.47816666666666</v>
+        <v>12.4805</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2419,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2433,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.61</v>
+        <v>12.64</v>
       </c>
       <c r="C54" t="n">
-        <v>12.61</v>
+        <v>12.64</v>
       </c>
       <c r="D54" t="n">
-        <v>12.61</v>
+        <v>12.64</v>
       </c>
       <c r="E54" t="n">
-        <v>12.61</v>
+        <v>12.64</v>
       </c>
       <c r="F54" t="n">
-        <v>28516.6536</v>
+        <v>3449</v>
       </c>
       <c r="G54" t="n">
-        <v>12.47716666666666</v>
+        <v>12.47816666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2458,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2472,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.75</v>
+        <v>12.61</v>
       </c>
       <c r="C55" t="n">
-        <v>12.75</v>
+        <v>12.61</v>
       </c>
       <c r="D55" t="n">
-        <v>12.75</v>
+        <v>12.61</v>
       </c>
       <c r="E55" t="n">
-        <v>12.75</v>
+        <v>12.61</v>
       </c>
       <c r="F55" t="n">
-        <v>39.3</v>
+        <v>28516.6536</v>
       </c>
       <c r="G55" t="n">
-        <v>12.48066666666666</v>
+        <v>12.47716666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2497,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2514,19 +2326,19 @@
         <v>12.75</v>
       </c>
       <c r="C56" t="n">
-        <v>12.83</v>
+        <v>12.75</v>
       </c>
       <c r="D56" t="n">
-        <v>12.83</v>
+        <v>12.75</v>
       </c>
       <c r="E56" t="n">
         <v>12.75</v>
       </c>
       <c r="F56" t="n">
-        <v>16340.2153</v>
+        <v>39.3</v>
       </c>
       <c r="G56" t="n">
-        <v>12.4835</v>
+        <v>12.48066666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2536,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2550,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.73</v>
+        <v>12.75</v>
       </c>
       <c r="C57" t="n">
-        <v>12.73</v>
+        <v>12.83</v>
       </c>
       <c r="D57" t="n">
-        <v>12.73</v>
+        <v>12.83</v>
       </c>
       <c r="E57" t="n">
-        <v>12.73</v>
+        <v>12.75</v>
       </c>
       <c r="F57" t="n">
-        <v>508.4468</v>
+        <v>16340.2153</v>
       </c>
       <c r="G57" t="n">
-        <v>12.48833333333333</v>
+        <v>12.4835</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2575,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2589,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.63</v>
+        <v>12.73</v>
       </c>
       <c r="C58" t="n">
-        <v>12.63</v>
+        <v>12.73</v>
       </c>
       <c r="D58" t="n">
-        <v>12.63</v>
+        <v>12.73</v>
       </c>
       <c r="E58" t="n">
-        <v>12.63</v>
+        <v>12.73</v>
       </c>
       <c r="F58" t="n">
-        <v>3529</v>
+        <v>508.4468</v>
       </c>
       <c r="G58" t="n">
-        <v>12.49366666666666</v>
+        <v>12.48833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2614,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2628,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.56</v>
+        <v>12.63</v>
       </c>
       <c r="C59" t="n">
-        <v>12.56</v>
+        <v>12.63</v>
       </c>
       <c r="D59" t="n">
-        <v>12.56</v>
+        <v>12.63</v>
       </c>
       <c r="E59" t="n">
-        <v>12.56</v>
+        <v>12.63</v>
       </c>
       <c r="F59" t="n">
-        <v>38281.3417</v>
+        <v>3529</v>
       </c>
       <c r="G59" t="n">
-        <v>12.4965</v>
+        <v>12.49366666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2653,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2670,19 +2466,19 @@
         <v>12.56</v>
       </c>
       <c r="C60" t="n">
-        <v>12.5</v>
+        <v>12.56</v>
       </c>
       <c r="D60" t="n">
         <v>12.56</v>
       </c>
       <c r="E60" t="n">
-        <v>12.5</v>
+        <v>12.56</v>
       </c>
       <c r="F60" t="n">
-        <v>17939.3003</v>
+        <v>38281.3417</v>
       </c>
       <c r="G60" t="n">
-        <v>12.50016666666667</v>
+        <v>12.4965</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2692,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.45</v>
+        <v>12.56</v>
       </c>
       <c r="C61" t="n">
-        <v>12.43</v>
+        <v>12.5</v>
       </c>
       <c r="D61" t="n">
-        <v>12.45</v>
+        <v>12.56</v>
       </c>
       <c r="E61" t="n">
-        <v>12.43</v>
+        <v>12.5</v>
       </c>
       <c r="F61" t="n">
-        <v>45734.9763</v>
+        <v>17939.3003</v>
       </c>
       <c r="G61" t="n">
-        <v>12.50266666666666</v>
+        <v>12.50016666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2731,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2745,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.4</v>
+        <v>12.45</v>
       </c>
       <c r="C62" t="n">
-        <v>12.4</v>
+        <v>12.43</v>
       </c>
       <c r="D62" t="n">
-        <v>12.4</v>
+        <v>12.45</v>
       </c>
       <c r="E62" t="n">
-        <v>12.4</v>
+        <v>12.43</v>
       </c>
       <c r="F62" t="n">
-        <v>111514.9205</v>
+        <v>45734.9763</v>
       </c>
       <c r="G62" t="n">
-        <v>12.505</v>
+        <v>12.50266666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2770,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2784,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.71</v>
+        <v>12.4</v>
       </c>
       <c r="C63" t="n">
-        <v>12.71</v>
+        <v>12.4</v>
       </c>
       <c r="D63" t="n">
-        <v>12.71</v>
+        <v>12.4</v>
       </c>
       <c r="E63" t="n">
-        <v>12.71</v>
+        <v>12.4</v>
       </c>
       <c r="F63" t="n">
-        <v>198.3509</v>
+        <v>111514.9205</v>
       </c>
       <c r="G63" t="n">
-        <v>12.5125</v>
+        <v>12.505</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2809,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2823,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.4</v>
+        <v>12.71</v>
       </c>
       <c r="C64" t="n">
-        <v>12.36</v>
+        <v>12.71</v>
       </c>
       <c r="D64" t="n">
-        <v>12.4</v>
+        <v>12.71</v>
       </c>
       <c r="E64" t="n">
-        <v>12.36</v>
+        <v>12.71</v>
       </c>
       <c r="F64" t="n">
-        <v>80923.2945</v>
+        <v>198.3509</v>
       </c>
       <c r="G64" t="n">
-        <v>12.51316666666666</v>
+        <v>12.5125</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2848,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2862,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.35</v>
+        <v>12.4</v>
       </c>
       <c r="C65" t="n">
-        <v>12.35</v>
+        <v>12.36</v>
       </c>
       <c r="D65" t="n">
-        <v>12.35</v>
+        <v>12.4</v>
       </c>
       <c r="E65" t="n">
-        <v>12.35</v>
+        <v>12.36</v>
       </c>
       <c r="F65" t="n">
-        <v>23357.7501</v>
+        <v>80923.2945</v>
       </c>
       <c r="G65" t="n">
-        <v>12.51366666666666</v>
+        <v>12.51316666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2887,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2901,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.61</v>
+        <v>12.35</v>
       </c>
       <c r="C66" t="n">
-        <v>12.83</v>
+        <v>12.35</v>
       </c>
       <c r="D66" t="n">
-        <v>12.83</v>
+        <v>12.35</v>
       </c>
       <c r="E66" t="n">
-        <v>12.61</v>
+        <v>12.35</v>
       </c>
       <c r="F66" t="n">
-        <v>98507.2674</v>
+        <v>23357.7501</v>
       </c>
       <c r="G66" t="n">
-        <v>12.52383333333333</v>
+        <v>12.51366666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2926,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2940,7 +2708,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.83</v>
+        <v>12.61</v>
       </c>
       <c r="C67" t="n">
         <v>12.83</v>
@@ -2949,13 +2717,13 @@
         <v>12.83</v>
       </c>
       <c r="E67" t="n">
-        <v>12.83</v>
+        <v>12.61</v>
       </c>
       <c r="F67" t="n">
-        <v>170765.3038</v>
+        <v>98507.2674</v>
       </c>
       <c r="G67" t="n">
-        <v>12.5345</v>
+        <v>12.52383333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2965,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2991,10 +2755,10 @@
         <v>12.83</v>
       </c>
       <c r="F68" t="n">
-        <v>19095.3979</v>
+        <v>170765.3038</v>
       </c>
       <c r="G68" t="n">
-        <v>12.545</v>
+        <v>12.5345</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3004,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3018,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.85</v>
+        <v>12.83</v>
       </c>
       <c r="C69" t="n">
         <v>12.83</v>
       </c>
       <c r="D69" t="n">
-        <v>12.85</v>
+        <v>12.83</v>
       </c>
       <c r="E69" t="n">
         <v>12.83</v>
       </c>
       <c r="F69" t="n">
-        <v>32656.8913</v>
+        <v>19095.3979</v>
       </c>
       <c r="G69" t="n">
-        <v>12.55483333333333</v>
+        <v>12.545</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3043,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3057,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.73</v>
+        <v>12.85</v>
       </c>
       <c r="C70" t="n">
-        <v>12.73</v>
+        <v>12.83</v>
       </c>
       <c r="D70" t="n">
-        <v>12.73</v>
+        <v>12.85</v>
       </c>
       <c r="E70" t="n">
-        <v>12.73</v>
+        <v>12.83</v>
       </c>
       <c r="F70" t="n">
-        <v>3775</v>
+        <v>32656.8913</v>
       </c>
       <c r="G70" t="n">
-        <v>12.56166666666666</v>
+        <v>12.55483333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3082,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3096,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.74</v>
+        <v>12.73</v>
       </c>
       <c r="C71" t="n">
         <v>12.73</v>
       </c>
       <c r="D71" t="n">
-        <v>12.74</v>
+        <v>12.73</v>
       </c>
       <c r="E71" t="n">
         <v>12.73</v>
       </c>
       <c r="F71" t="n">
-        <v>9841.799499999999</v>
+        <v>3775</v>
       </c>
       <c r="G71" t="n">
-        <v>12.5655</v>
+        <v>12.56166666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3121,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3135,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.73</v>
+        <v>12.74</v>
       </c>
       <c r="C72" t="n">
         <v>12.73</v>
       </c>
       <c r="D72" t="n">
-        <v>12.73</v>
+        <v>12.74</v>
       </c>
       <c r="E72" t="n">
         <v>12.73</v>
       </c>
       <c r="F72" t="n">
-        <v>34625.9605</v>
+        <v>9841.799499999999</v>
       </c>
       <c r="G72" t="n">
-        <v>12.56933333333333</v>
+        <v>12.5655</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3160,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3174,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.63</v>
+        <v>12.73</v>
       </c>
       <c r="C73" t="n">
-        <v>12.63</v>
+        <v>12.73</v>
       </c>
       <c r="D73" t="n">
-        <v>12.63</v>
+        <v>12.73</v>
       </c>
       <c r="E73" t="n">
-        <v>12.63</v>
+        <v>12.73</v>
       </c>
       <c r="F73" t="n">
-        <v>6154.1253</v>
+        <v>34625.9605</v>
       </c>
       <c r="G73" t="n">
-        <v>12.5745</v>
+        <v>12.56933333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3199,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3213,19 +2953,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.61</v>
+        <v>12.63</v>
       </c>
       <c r="C74" t="n">
-        <v>12.51</v>
+        <v>12.63</v>
       </c>
       <c r="D74" t="n">
-        <v>12.61</v>
+        <v>12.63</v>
       </c>
       <c r="E74" t="n">
-        <v>12.51</v>
+        <v>12.63</v>
       </c>
       <c r="F74" t="n">
-        <v>3370.6526</v>
+        <v>6154.1253</v>
       </c>
       <c r="G74" t="n">
         <v>12.5745</v>
@@ -3238,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3252,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.52</v>
+        <v>12.61</v>
       </c>
       <c r="C75" t="n">
-        <v>12.41</v>
+        <v>12.51</v>
       </c>
       <c r="D75" t="n">
-        <v>12.52</v>
+        <v>12.61</v>
       </c>
       <c r="E75" t="n">
-        <v>12.41</v>
+        <v>12.51</v>
       </c>
       <c r="F75" t="n">
-        <v>274425.3091</v>
+        <v>3370.6526</v>
       </c>
       <c r="G75" t="n">
-        <v>12.57583333333333</v>
+        <v>12.5745</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3277,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3291,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.41</v>
+        <v>12.52</v>
       </c>
       <c r="C76" t="n">
         <v>12.41</v>
       </c>
       <c r="D76" t="n">
-        <v>12.41</v>
+        <v>12.52</v>
       </c>
       <c r="E76" t="n">
         <v>12.41</v>
       </c>
       <c r="F76" t="n">
-        <v>19741.9248</v>
+        <v>274425.3091</v>
       </c>
       <c r="G76" t="n">
-        <v>12.57433333333333</v>
+        <v>12.57583333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3316,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3342,10 +3070,10 @@
         <v>12.41</v>
       </c>
       <c r="F77" t="n">
-        <v>46506.8269</v>
+        <v>19741.9248</v>
       </c>
       <c r="G77" t="n">
-        <v>12.57383333333333</v>
+        <v>12.57433333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3355,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3381,10 +3105,10 @@
         <v>12.41</v>
       </c>
       <c r="F78" t="n">
-        <v>1810.5647</v>
+        <v>46506.8269</v>
       </c>
       <c r="G78" t="n">
-        <v>12.57233333333333</v>
+        <v>12.57383333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3394,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3411,19 +3131,19 @@
         <v>12.41</v>
       </c>
       <c r="C79" t="n">
-        <v>12.3</v>
+        <v>12.41</v>
       </c>
       <c r="D79" t="n">
         <v>12.41</v>
       </c>
       <c r="E79" t="n">
-        <v>12.3</v>
+        <v>12.41</v>
       </c>
       <c r="F79" t="n">
-        <v>140749.0019</v>
+        <v>1810.5647</v>
       </c>
       <c r="G79" t="n">
-        <v>12.56866666666666</v>
+        <v>12.57233333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3433,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3447,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.4</v>
+        <v>12.41</v>
       </c>
       <c r="C80" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D80" t="n">
-        <v>12.4</v>
+        <v>12.41</v>
       </c>
       <c r="E80" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F80" t="n">
-        <v>41</v>
+        <v>140749.0019</v>
       </c>
       <c r="G80" t="n">
-        <v>12.56633333333333</v>
+        <v>12.56866666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3472,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3486,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.55</v>
+        <v>12.4</v>
       </c>
       <c r="C81" t="n">
-        <v>12.55</v>
+        <v>12.4</v>
       </c>
       <c r="D81" t="n">
-        <v>12.55</v>
+        <v>12.4</v>
       </c>
       <c r="E81" t="n">
-        <v>12.55</v>
+        <v>12.4</v>
       </c>
       <c r="F81" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G81" t="n">
-        <v>12.56616666666666</v>
+        <v>12.56633333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3511,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3525,36 +3233,36 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.53</v>
+        <v>12.55</v>
       </c>
       <c r="C82" t="n">
-        <v>12.53</v>
+        <v>12.55</v>
       </c>
       <c r="D82" t="n">
-        <v>12.53</v>
+        <v>12.55</v>
       </c>
       <c r="E82" t="n">
-        <v>12.53</v>
+        <v>12.55</v>
       </c>
       <c r="F82" t="n">
-        <v>51.0961</v>
+        <v>40</v>
       </c>
       <c r="G82" t="n">
-        <v>12.56533333333332</v>
+        <v>12.56616666666666</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K82" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3564,34 +3272,38 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="C83" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="D83" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="E83" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="F83" t="n">
+        <v>51.0961</v>
+      </c>
+      <c r="G83" t="n">
+        <v>12.56533333333332</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="K83" t="n">
         <v>12.4</v>
       </c>
-      <c r="C83" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D83" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E83" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F83" t="n">
-        <v>638.7596</v>
-      </c>
-      <c r="G83" t="n">
-        <v>12.56216666666666</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M83" t="n">
@@ -3603,22 +3315,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.36</v>
+        <v>12.4</v>
       </c>
       <c r="C84" t="n">
-        <v>12.12</v>
+        <v>12.4</v>
       </c>
       <c r="D84" t="n">
-        <v>12.36</v>
+        <v>12.4</v>
       </c>
       <c r="E84" t="n">
-        <v>12.12</v>
+        <v>12.4</v>
       </c>
       <c r="F84" t="n">
-        <v>324511.0949</v>
+        <v>638.7596</v>
       </c>
       <c r="G84" t="n">
-        <v>12.55399999999999</v>
+        <v>12.56216666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3627,10 +3339,12 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>12.4</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -3642,22 +3356,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.2</v>
+        <v>12.36</v>
       </c>
       <c r="C85" t="n">
-        <v>12.19</v>
+        <v>12.12</v>
       </c>
       <c r="D85" t="n">
-        <v>12.2</v>
+        <v>12.36</v>
       </c>
       <c r="E85" t="n">
-        <v>12.19</v>
+        <v>12.12</v>
       </c>
       <c r="F85" t="n">
-        <v>88887.79610000001</v>
+        <v>324511.0949</v>
       </c>
       <c r="G85" t="n">
-        <v>12.54466666666666</v>
+        <v>12.55399999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3667,11 +3381,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3684,19 +3394,19 @@
         <v>12.2</v>
       </c>
       <c r="C86" t="n">
-        <v>12.2</v>
+        <v>12.19</v>
       </c>
       <c r="D86" t="n">
         <v>12.2</v>
       </c>
       <c r="E86" t="n">
-        <v>12.2</v>
+        <v>12.19</v>
       </c>
       <c r="F86" t="n">
-        <v>128136.9431</v>
+        <v>88887.79610000001</v>
       </c>
       <c r="G86" t="n">
-        <v>12.53383333333332</v>
+        <v>12.54466666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3706,11 +3416,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3720,22 +3426,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.22</v>
+        <v>12.2</v>
       </c>
       <c r="C87" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D87" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E87" t="n">
-        <v>12.22</v>
+        <v>12.2</v>
       </c>
       <c r="F87" t="n">
-        <v>169.9999</v>
+        <v>128136.9431</v>
       </c>
       <c r="G87" t="n">
-        <v>12.53549999999999</v>
+        <v>12.53383333333332</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3745,11 +3451,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3759,7 +3461,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.4</v>
+        <v>12.22</v>
       </c>
       <c r="C88" t="n">
         <v>12.4</v>
@@ -3768,13 +3470,13 @@
         <v>12.4</v>
       </c>
       <c r="E88" t="n">
-        <v>12.4</v>
+        <v>12.22</v>
       </c>
       <c r="F88" t="n">
-        <v>40.3226</v>
+        <v>169.9999</v>
       </c>
       <c r="G88" t="n">
-        <v>12.53383333333332</v>
+        <v>12.53549999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3784,11 +3486,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3798,22 +3496,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C89" t="n">
-        <v>12.63</v>
+        <v>12.4</v>
       </c>
       <c r="D89" t="n">
-        <v>12.63</v>
+        <v>12.4</v>
       </c>
       <c r="E89" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F89" t="n">
-        <v>131123.027</v>
+        <v>40.3226</v>
       </c>
       <c r="G89" t="n">
-        <v>12.53916666666666</v>
+        <v>12.53383333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3823,11 +3521,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3837,7 +3531,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.63</v>
+        <v>12.5</v>
       </c>
       <c r="C90" t="n">
         <v>12.63</v>
@@ -3846,13 +3540,13 @@
         <v>12.63</v>
       </c>
       <c r="E90" t="n">
-        <v>12.63</v>
+        <v>12.5</v>
       </c>
       <c r="F90" t="n">
-        <v>184457.0749</v>
+        <v>131123.027</v>
       </c>
       <c r="G90" t="n">
-        <v>12.54433333333333</v>
+        <v>12.53916666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3862,11 +3556,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3876,22 +3566,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.78</v>
+        <v>12.63</v>
       </c>
       <c r="C91" t="n">
-        <v>12.78</v>
+        <v>12.63</v>
       </c>
       <c r="D91" t="n">
-        <v>12.78</v>
+        <v>12.63</v>
       </c>
       <c r="E91" t="n">
-        <v>12.78</v>
+        <v>12.63</v>
       </c>
       <c r="F91" t="n">
-        <v>46295.8588</v>
+        <v>184457.0749</v>
       </c>
       <c r="G91" t="n">
-        <v>12.54816666666666</v>
+        <v>12.54433333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3901,11 +3591,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3918,19 +3604,19 @@
         <v>12.78</v>
       </c>
       <c r="C92" t="n">
-        <v>12.81</v>
+        <v>12.78</v>
       </c>
       <c r="D92" t="n">
-        <v>12.82</v>
+        <v>12.78</v>
       </c>
       <c r="E92" t="n">
         <v>12.78</v>
       </c>
       <c r="F92" t="n">
-        <v>221561.795</v>
+        <v>46295.8588</v>
       </c>
       <c r="G92" t="n">
-        <v>12.54783333333332</v>
+        <v>12.54816666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3940,11 +3626,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3954,22 +3636,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="C93" t="n">
         <v>12.81</v>
-      </c>
-      <c r="C93" t="n">
-        <v>12.82</v>
       </c>
       <c r="D93" t="n">
         <v>12.82</v>
       </c>
       <c r="E93" t="n">
-        <v>12.81</v>
+        <v>12.78</v>
       </c>
       <c r="F93" t="n">
-        <v>23829.6832</v>
+        <v>221561.795</v>
       </c>
       <c r="G93" t="n">
-        <v>12.54999999999999</v>
+        <v>12.54783333333332</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3979,11 +3661,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3996,19 +3674,19 @@
         <v>12.81</v>
       </c>
       <c r="C94" t="n">
-        <v>12.81</v>
+        <v>12.82</v>
       </c>
       <c r="D94" t="n">
-        <v>12.81</v>
+        <v>12.82</v>
       </c>
       <c r="E94" t="n">
         <v>12.81</v>
       </c>
       <c r="F94" t="n">
-        <v>8564.007</v>
+        <v>23829.6832</v>
       </c>
       <c r="G94" t="n">
-        <v>12.55649999999999</v>
+        <v>12.54999999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4018,11 +3696,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4032,22 +3706,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.78</v>
+        <v>12.81</v>
       </c>
       <c r="C95" t="n">
-        <v>12.78</v>
+        <v>12.81</v>
       </c>
       <c r="D95" t="n">
-        <v>12.78</v>
+        <v>12.81</v>
       </c>
       <c r="E95" t="n">
-        <v>12.78</v>
+        <v>12.81</v>
       </c>
       <c r="F95" t="n">
-        <v>27129</v>
+        <v>8564.007</v>
       </c>
       <c r="G95" t="n">
-        <v>12.56249999999999</v>
+        <v>12.55649999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4057,11 +3731,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4083,10 +3753,10 @@
         <v>12.78</v>
       </c>
       <c r="F96" t="n">
-        <v>8.6876</v>
+        <v>27129</v>
       </c>
       <c r="G96" t="n">
-        <v>12.56866666666666</v>
+        <v>12.56249999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4096,11 +3766,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4110,22 +3776,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.46</v>
+        <v>12.78</v>
       </c>
       <c r="C97" t="n">
-        <v>12.46</v>
+        <v>12.78</v>
       </c>
       <c r="D97" t="n">
-        <v>12.46</v>
+        <v>12.78</v>
       </c>
       <c r="E97" t="n">
-        <v>12.46</v>
+        <v>12.78</v>
       </c>
       <c r="F97" t="n">
-        <v>20779</v>
+        <v>8.6876</v>
       </c>
       <c r="G97" t="n">
-        <v>12.57099999999999</v>
+        <v>12.56866666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4135,11 +3801,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4149,22 +3811,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.68</v>
+        <v>12.46</v>
       </c>
       <c r="C98" t="n">
-        <v>12.68</v>
+        <v>12.46</v>
       </c>
       <c r="D98" t="n">
-        <v>12.68</v>
+        <v>12.46</v>
       </c>
       <c r="E98" t="n">
-        <v>12.68</v>
+        <v>12.46</v>
       </c>
       <c r="F98" t="n">
-        <v>2125.8614</v>
+        <v>20779</v>
       </c>
       <c r="G98" t="n">
-        <v>12.56816666666666</v>
+        <v>12.57099999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4174,11 +3836,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4188,22 +3846,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.37</v>
+        <v>12.68</v>
       </c>
       <c r="C99" t="n">
-        <v>12.45</v>
+        <v>12.68</v>
       </c>
       <c r="D99" t="n">
-        <v>12.45</v>
+        <v>12.68</v>
       </c>
       <c r="E99" t="n">
-        <v>12.37</v>
+        <v>12.68</v>
       </c>
       <c r="F99" t="n">
-        <v>40779.0097</v>
+        <v>2125.8614</v>
       </c>
       <c r="G99" t="n">
-        <v>12.56549999999999</v>
+        <v>12.56816666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4213,11 +3871,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4227,7 +3881,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.45</v>
+        <v>12.37</v>
       </c>
       <c r="C100" t="n">
         <v>12.45</v>
@@ -4236,13 +3890,13 @@
         <v>12.45</v>
       </c>
       <c r="E100" t="n">
-        <v>12.45</v>
+        <v>12.37</v>
       </c>
       <c r="F100" t="n">
-        <v>3780</v>
+        <v>40779.0097</v>
       </c>
       <c r="G100" t="n">
-        <v>12.56399999999999</v>
+        <v>12.56549999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4252,11 +3906,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4266,22 +3916,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.59</v>
+        <v>12.45</v>
       </c>
       <c r="C101" t="n">
-        <v>12.59</v>
+        <v>12.45</v>
       </c>
       <c r="D101" t="n">
-        <v>12.59</v>
+        <v>12.45</v>
       </c>
       <c r="E101" t="n">
-        <v>12.59</v>
+        <v>12.45</v>
       </c>
       <c r="F101" t="n">
-        <v>4435.9706</v>
+        <v>3780</v>
       </c>
       <c r="G101" t="n">
-        <v>12.56316666666666</v>
+        <v>12.56399999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4291,11 +3941,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4305,22 +3951,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.45</v>
+        <v>12.59</v>
       </c>
       <c r="C102" t="n">
-        <v>12.56</v>
+        <v>12.59</v>
       </c>
       <c r="D102" t="n">
-        <v>12.67</v>
+        <v>12.59</v>
       </c>
       <c r="E102" t="n">
-        <v>12.45</v>
+        <v>12.59</v>
       </c>
       <c r="F102" t="n">
-        <v>21484.0306</v>
+        <v>4435.9706</v>
       </c>
       <c r="G102" t="n">
-        <v>12.56366666666666</v>
+        <v>12.56316666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4330,11 +3976,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4344,22 +3986,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.55</v>
+        <v>12.45</v>
       </c>
       <c r="C103" t="n">
-        <v>12.55</v>
+        <v>12.56</v>
       </c>
       <c r="D103" t="n">
-        <v>12.55</v>
+        <v>12.67</v>
       </c>
       <c r="E103" t="n">
-        <v>12.55</v>
+        <v>12.45</v>
       </c>
       <c r="F103" t="n">
-        <v>5034.6609</v>
+        <v>21484.0306</v>
       </c>
       <c r="G103" t="n">
-        <v>12.56616666666666</v>
+        <v>12.56366666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4369,11 +4011,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4395,10 +4033,10 @@
         <v>12.55</v>
       </c>
       <c r="F104" t="n">
-        <v>3145</v>
+        <v>5034.6609</v>
       </c>
       <c r="G104" t="n">
-        <v>12.56683333333332</v>
+        <v>12.56616666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4408,11 +4046,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4422,22 +4056,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.66</v>
+        <v>12.55</v>
       </c>
       <c r="C105" t="n">
         <v>12.55</v>
       </c>
       <c r="D105" t="n">
-        <v>12.67</v>
+        <v>12.55</v>
       </c>
       <c r="E105" t="n">
         <v>12.55</v>
       </c>
       <c r="F105" t="n">
-        <v>3039.2925</v>
+        <v>3145</v>
       </c>
       <c r="G105" t="n">
-        <v>12.57049999999999</v>
+        <v>12.56683333333332</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4447,11 +4081,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4461,22 +4091,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.45</v>
+        <v>12.66</v>
       </c>
       <c r="C106" t="n">
-        <v>12.35</v>
+        <v>12.55</v>
       </c>
       <c r="D106" t="n">
-        <v>12.45</v>
+        <v>12.67</v>
       </c>
       <c r="E106" t="n">
-        <v>12.35</v>
+        <v>12.55</v>
       </c>
       <c r="F106" t="n">
-        <v>21164.3356</v>
+        <v>3039.2925</v>
       </c>
       <c r="G106" t="n">
-        <v>12.56799999999999</v>
+        <v>12.57049999999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4486,11 +4116,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4500,22 +4126,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.3</v>
+        <v>12.45</v>
       </c>
       <c r="C107" t="n">
-        <v>12.45</v>
+        <v>12.35</v>
       </c>
       <c r="D107" t="n">
         <v>12.45</v>
       </c>
       <c r="E107" t="n">
-        <v>12.3</v>
+        <v>12.35</v>
       </c>
       <c r="F107" t="n">
-        <v>63981.6344</v>
+        <v>21164.3356</v>
       </c>
       <c r="G107" t="n">
-        <v>12.56716666666666</v>
+        <v>12.56799999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4525,11 +4151,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4539,22 +4161,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.55</v>
+        <v>12.3</v>
       </c>
       <c r="C108" t="n">
-        <v>12.54</v>
+        <v>12.45</v>
       </c>
       <c r="D108" t="n">
-        <v>12.55</v>
+        <v>12.45</v>
       </c>
       <c r="E108" t="n">
-        <v>12.54</v>
+        <v>12.3</v>
       </c>
       <c r="F108" t="n">
-        <v>1348.1938</v>
+        <v>63981.6344</v>
       </c>
       <c r="G108" t="n">
-        <v>12.56899999999999</v>
+        <v>12.56716666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4564,11 +4186,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4578,22 +4196,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.32</v>
+        <v>12.55</v>
       </c>
       <c r="C109" t="n">
-        <v>12.32</v>
+        <v>12.54</v>
       </c>
       <c r="D109" t="n">
-        <v>12.32</v>
+        <v>12.55</v>
       </c>
       <c r="E109" t="n">
-        <v>12.32</v>
+        <v>12.54</v>
       </c>
       <c r="F109" t="n">
-        <v>40006.9297</v>
+        <v>1348.1938</v>
       </c>
       <c r="G109" t="n">
-        <v>12.56366666666666</v>
+        <v>12.56899999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4603,11 +4221,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4617,22 +4231,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.54</v>
+        <v>12.32</v>
       </c>
       <c r="C110" t="n">
-        <v>12.54</v>
+        <v>12.32</v>
       </c>
       <c r="D110" t="n">
-        <v>12.54</v>
+        <v>12.32</v>
       </c>
       <c r="E110" t="n">
-        <v>12.54</v>
+        <v>12.32</v>
       </c>
       <c r="F110" t="n">
-        <v>397.9189</v>
+        <v>40006.9297</v>
       </c>
       <c r="G110" t="n">
-        <v>12.56033333333332</v>
+        <v>12.56366666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4642,11 +4256,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4656,22 +4266,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.49</v>
+        <v>12.54</v>
       </c>
       <c r="C111" t="n">
-        <v>12.49</v>
+        <v>12.54</v>
       </c>
       <c r="D111" t="n">
-        <v>12.49</v>
+        <v>12.54</v>
       </c>
       <c r="E111" t="n">
-        <v>12.49</v>
+        <v>12.54</v>
       </c>
       <c r="F111" t="n">
-        <v>20000</v>
+        <v>397.9189</v>
       </c>
       <c r="G111" t="n">
-        <v>12.55799999999999</v>
+        <v>12.56033333333332</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4681,11 +4291,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4707,10 +4313,10 @@
         <v>12.49</v>
       </c>
       <c r="F112" t="n">
-        <v>941.6427</v>
+        <v>20000</v>
       </c>
       <c r="G112" t="n">
-        <v>12.55566666666666</v>
+        <v>12.55799999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4720,11 +4326,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4734,22 +4336,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.33</v>
+        <v>12.49</v>
       </c>
       <c r="C113" t="n">
-        <v>12.33</v>
+        <v>12.49</v>
       </c>
       <c r="D113" t="n">
-        <v>12.33</v>
+        <v>12.49</v>
       </c>
       <c r="E113" t="n">
-        <v>12.33</v>
+        <v>12.49</v>
       </c>
       <c r="F113" t="n">
-        <v>5807.7614</v>
+        <v>941.6427</v>
       </c>
       <c r="G113" t="n">
-        <v>12.55049999999999</v>
+        <v>12.55566666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4759,11 +4361,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4773,22 +4371,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.43</v>
+        <v>12.33</v>
       </c>
       <c r="C114" t="n">
-        <v>12.43</v>
+        <v>12.33</v>
       </c>
       <c r="D114" t="n">
-        <v>12.43</v>
+        <v>12.33</v>
       </c>
       <c r="E114" t="n">
-        <v>12.43</v>
+        <v>12.33</v>
       </c>
       <c r="F114" t="n">
-        <v>558.1106</v>
+        <v>5807.7614</v>
       </c>
       <c r="G114" t="n">
-        <v>12.54749999999999</v>
+        <v>12.55049999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4798,11 +4396,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4812,22 +4406,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.31</v>
+        <v>12.43</v>
       </c>
       <c r="C115" t="n">
-        <v>12.3</v>
+        <v>12.43</v>
       </c>
       <c r="D115" t="n">
-        <v>12.31</v>
+        <v>12.43</v>
       </c>
       <c r="E115" t="n">
-        <v>12.3</v>
+        <v>12.43</v>
       </c>
       <c r="F115" t="n">
-        <v>9893.3799</v>
+        <v>558.1106</v>
       </c>
       <c r="G115" t="n">
-        <v>12.53999999999999</v>
+        <v>12.54749999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4837,11 +4431,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4851,22 +4441,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.42</v>
+        <v>12.31</v>
       </c>
       <c r="C116" t="n">
-        <v>12.42</v>
+        <v>12.3</v>
       </c>
       <c r="D116" t="n">
-        <v>12.42</v>
+        <v>12.31</v>
       </c>
       <c r="E116" t="n">
-        <v>12.42</v>
+        <v>12.3</v>
       </c>
       <c r="F116" t="n">
-        <v>502.8266</v>
+        <v>9893.3799</v>
       </c>
       <c r="G116" t="n">
-        <v>12.53316666666666</v>
+        <v>12.53999999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4876,11 +4466,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4902,10 +4488,10 @@
         <v>12.42</v>
       </c>
       <c r="F117" t="n">
-        <v>54365.3004</v>
+        <v>502.8266</v>
       </c>
       <c r="G117" t="n">
-        <v>12.52799999999999</v>
+        <v>12.53316666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4915,11 +4501,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4929,22 +4511,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.43</v>
+        <v>12.42</v>
       </c>
       <c r="C118" t="n">
-        <v>12.43</v>
+        <v>12.42</v>
       </c>
       <c r="D118" t="n">
-        <v>12.43</v>
+        <v>12.42</v>
       </c>
       <c r="E118" t="n">
-        <v>12.43</v>
+        <v>12.42</v>
       </c>
       <c r="F118" t="n">
-        <v>452.2901</v>
+        <v>54365.3004</v>
       </c>
       <c r="G118" t="n">
-        <v>12.52466666666665</v>
+        <v>12.52799999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4954,11 +4536,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4968,7 +4546,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.31</v>
+        <v>12.43</v>
       </c>
       <c r="C119" t="n">
         <v>12.43</v>
@@ -4977,13 +4555,13 @@
         <v>12.43</v>
       </c>
       <c r="E119" t="n">
-        <v>12.31</v>
+        <v>12.43</v>
       </c>
       <c r="F119" t="n">
-        <v>3943.4794</v>
+        <v>452.2901</v>
       </c>
       <c r="G119" t="n">
-        <v>12.52249999999999</v>
+        <v>12.52466666666665</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4993,11 +4571,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5007,19 +4581,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.5</v>
+        <v>12.31</v>
       </c>
       <c r="C120" t="n">
-        <v>12.5</v>
+        <v>12.43</v>
       </c>
       <c r="D120" t="n">
-        <v>12.51</v>
+        <v>12.43</v>
       </c>
       <c r="E120" t="n">
-        <v>12.5</v>
+        <v>12.31</v>
       </c>
       <c r="F120" t="n">
-        <v>59618.8741</v>
+        <v>3943.4794</v>
       </c>
       <c r="G120" t="n">
         <v>12.52249999999999</v>
@@ -5032,11 +4606,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5046,22 +4616,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12.31</v>
+        <v>12.5</v>
       </c>
       <c r="C121" t="n">
-        <v>12.31</v>
+        <v>12.5</v>
       </c>
       <c r="D121" t="n">
-        <v>12.31</v>
+        <v>12.51</v>
       </c>
       <c r="E121" t="n">
-        <v>12.31</v>
+        <v>12.5</v>
       </c>
       <c r="F121" t="n">
-        <v>1927.2921</v>
+        <v>59618.8741</v>
       </c>
       <c r="G121" t="n">
-        <v>12.52049999999999</v>
+        <v>12.52249999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5071,11 +4641,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5085,22 +4651,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12.49</v>
+        <v>12.31</v>
       </c>
       <c r="C122" t="n">
-        <v>12.49</v>
+        <v>12.31</v>
       </c>
       <c r="D122" t="n">
-        <v>12.5</v>
+        <v>12.31</v>
       </c>
       <c r="E122" t="n">
-        <v>12.49</v>
+        <v>12.31</v>
       </c>
       <c r="F122" t="n">
-        <v>692.626</v>
+        <v>1927.2921</v>
       </c>
       <c r="G122" t="n">
-        <v>12.52199999999999</v>
+        <v>12.52049999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5110,11 +4676,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5124,22 +4686,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="C123" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="D123" t="n">
         <v>12.5</v>
       </c>
       <c r="E123" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="F123" t="n">
-        <v>44.8095</v>
+        <v>692.626</v>
       </c>
       <c r="G123" t="n">
-        <v>12.51849999999999</v>
+        <v>12.52199999999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5149,11 +4711,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5163,22 +4721,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.43</v>
+        <v>12.5</v>
       </c>
       <c r="C124" t="n">
-        <v>12.31</v>
+        <v>12.5</v>
       </c>
       <c r="D124" t="n">
-        <v>12.43</v>
+        <v>12.5</v>
       </c>
       <c r="E124" t="n">
-        <v>12.31</v>
+        <v>12.5</v>
       </c>
       <c r="F124" t="n">
-        <v>1416</v>
+        <v>44.8095</v>
       </c>
       <c r="G124" t="n">
-        <v>12.51766666666665</v>
+        <v>12.51849999999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5188,11 +4746,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5202,22 +4756,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>12.5</v>
+        <v>12.43</v>
       </c>
       <c r="C125" t="n">
-        <v>12.5</v>
+        <v>12.31</v>
       </c>
       <c r="D125" t="n">
-        <v>12.5</v>
+        <v>12.43</v>
       </c>
       <c r="E125" t="n">
-        <v>12.5</v>
+        <v>12.31</v>
       </c>
       <c r="F125" t="n">
-        <v>1064.356</v>
+        <v>1416</v>
       </c>
       <c r="G125" t="n">
-        <v>12.52016666666665</v>
+        <v>12.51766666666665</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5227,11 +4781,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5253,10 +4803,10 @@
         <v>12.5</v>
       </c>
       <c r="F126" t="n">
-        <v>23000</v>
+        <v>1064.356</v>
       </c>
       <c r="G126" t="n">
-        <v>12.51466666666665</v>
+        <v>12.52016666666665</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5266,11 +4816,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5280,22 +4826,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>12.53</v>
+        <v>12.5</v>
       </c>
       <c r="C127" t="n">
-        <v>12.53</v>
+        <v>12.5</v>
       </c>
       <c r="D127" t="n">
-        <v>12.53</v>
+        <v>12.5</v>
       </c>
       <c r="E127" t="n">
-        <v>12.53</v>
+        <v>12.5</v>
       </c>
       <c r="F127" t="n">
-        <v>24419.3196</v>
+        <v>23000</v>
       </c>
       <c r="G127" t="n">
-        <v>12.50966666666665</v>
+        <v>12.51466666666665</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5305,11 +4851,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5319,22 +4861,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>12.41</v>
+        <v>12.53</v>
       </c>
       <c r="C128" t="n">
-        <v>12.31</v>
+        <v>12.53</v>
       </c>
       <c r="D128" t="n">
-        <v>12.41</v>
+        <v>12.53</v>
       </c>
       <c r="E128" t="n">
-        <v>12.31</v>
+        <v>12.53</v>
       </c>
       <c r="F128" t="n">
-        <v>38473.2111</v>
+        <v>24419.3196</v>
       </c>
       <c r="G128" t="n">
-        <v>12.50099999999998</v>
+        <v>12.50966666666665</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5344,11 +4886,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5358,22 +4896,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>12.32</v>
+        <v>12.41</v>
       </c>
       <c r="C129" t="n">
-        <v>12.32</v>
+        <v>12.31</v>
       </c>
       <c r="D129" t="n">
-        <v>12.32</v>
+        <v>12.41</v>
       </c>
       <c r="E129" t="n">
-        <v>12.32</v>
+        <v>12.31</v>
       </c>
       <c r="F129" t="n">
-        <v>23220.044</v>
+        <v>38473.2111</v>
       </c>
       <c r="G129" t="n">
-        <v>12.49249999999998</v>
+        <v>12.50099999999998</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5383,11 +4921,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5409,10 +4943,10 @@
         <v>12.32</v>
       </c>
       <c r="F130" t="n">
-        <v>52.3211</v>
+        <v>23220.044</v>
       </c>
       <c r="G130" t="n">
-        <v>12.48566666666665</v>
+        <v>12.49249999999998</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5422,11 +4956,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5448,10 +4978,10 @@
         <v>12.32</v>
       </c>
       <c r="F131" t="n">
-        <v>4786.1998</v>
+        <v>52.3211</v>
       </c>
       <c r="G131" t="n">
-        <v>12.47883333333332</v>
+        <v>12.48566666666665</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5461,11 +4991,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5475,22 +5001,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>12.36</v>
+        <v>12.32</v>
       </c>
       <c r="C132" t="n">
-        <v>12.36</v>
+        <v>12.32</v>
       </c>
       <c r="D132" t="n">
-        <v>12.36</v>
+        <v>12.32</v>
       </c>
       <c r="E132" t="n">
-        <v>12.36</v>
+        <v>12.32</v>
       </c>
       <c r="F132" t="n">
-        <v>9474</v>
+        <v>4786.1998</v>
       </c>
       <c r="G132" t="n">
-        <v>12.47266666666665</v>
+        <v>12.47883333333332</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5500,11 +5026,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5517,19 +5039,19 @@
         <v>12.36</v>
       </c>
       <c r="C133" t="n">
-        <v>12.35</v>
+        <v>12.36</v>
       </c>
       <c r="D133" t="n">
         <v>12.36</v>
       </c>
       <c r="E133" t="n">
-        <v>12.35</v>
+        <v>12.36</v>
       </c>
       <c r="F133" t="n">
-        <v>8044.2857</v>
+        <v>9474</v>
       </c>
       <c r="G133" t="n">
-        <v>12.46799999999998</v>
+        <v>12.47266666666665</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5539,11 +5061,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5553,22 +5071,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>12.37</v>
+        <v>12.36</v>
       </c>
       <c r="C134" t="n">
-        <v>12.37</v>
+        <v>12.35</v>
       </c>
       <c r="D134" t="n">
-        <v>12.37</v>
+        <v>12.36</v>
       </c>
       <c r="E134" t="n">
-        <v>12.37</v>
+        <v>12.35</v>
       </c>
       <c r="F134" t="n">
-        <v>10560</v>
+        <v>8044.2857</v>
       </c>
       <c r="G134" t="n">
-        <v>12.46566666666665</v>
+        <v>12.46799999999998</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5578,11 +5096,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5592,22 +5106,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>12.47</v>
+        <v>12.37</v>
       </c>
       <c r="C135" t="n">
-        <v>12.48</v>
+        <v>12.37</v>
       </c>
       <c r="D135" t="n">
-        <v>12.48</v>
+        <v>12.37</v>
       </c>
       <c r="E135" t="n">
-        <v>12.47</v>
+        <v>12.37</v>
       </c>
       <c r="F135" t="n">
-        <v>3152.3211</v>
+        <v>10560</v>
       </c>
       <c r="G135" t="n">
-        <v>12.46683333333332</v>
+        <v>12.46566666666665</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5617,11 +5131,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5631,22 +5141,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>12.51</v>
+        <v>12.47</v>
       </c>
       <c r="C136" t="n">
-        <v>12.51</v>
+        <v>12.48</v>
       </c>
       <c r="D136" t="n">
-        <v>12.51</v>
+        <v>12.48</v>
       </c>
       <c r="E136" t="n">
-        <v>12.51</v>
+        <v>12.47</v>
       </c>
       <c r="F136" t="n">
-        <v>2912</v>
+        <v>3152.3211</v>
       </c>
       <c r="G136" t="n">
-        <v>12.46849999999998</v>
+        <v>12.46683333333332</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5656,11 +5166,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5682,10 +5188,10 @@
         <v>12.51</v>
       </c>
       <c r="F137" t="n">
-        <v>21043.9237</v>
+        <v>2912</v>
       </c>
       <c r="G137" t="n">
-        <v>12.47016666666665</v>
+        <v>12.46849999999998</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5695,11 +5201,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5709,22 +5211,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>12.52</v>
+        <v>12.51</v>
       </c>
       <c r="C138" t="n">
-        <v>12.52</v>
+        <v>12.51</v>
       </c>
       <c r="D138" t="n">
-        <v>12.52</v>
+        <v>12.51</v>
       </c>
       <c r="E138" t="n">
-        <v>12.52</v>
+        <v>12.51</v>
       </c>
       <c r="F138" t="n">
-        <v>265.4996</v>
+        <v>21043.9237</v>
       </c>
       <c r="G138" t="n">
-        <v>12.47199999999999</v>
+        <v>12.47016666666665</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5734,11 +5236,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5748,22 +5246,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>12.51</v>
+        <v>12.52</v>
       </c>
       <c r="C139" t="n">
-        <v>12.51</v>
+        <v>12.52</v>
       </c>
       <c r="D139" t="n">
-        <v>12.51</v>
+        <v>12.52</v>
       </c>
       <c r="E139" t="n">
-        <v>12.51</v>
+        <v>12.52</v>
       </c>
       <c r="F139" t="n">
-        <v>1078</v>
+        <v>265.4996</v>
       </c>
       <c r="G139" t="n">
-        <v>12.47549999999999</v>
+        <v>12.47199999999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5773,11 +5271,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5799,10 +5293,10 @@
         <v>12.51</v>
       </c>
       <c r="F140" t="n">
-        <v>7873.7625</v>
+        <v>1078</v>
       </c>
       <c r="G140" t="n">
-        <v>12.47733333333332</v>
+        <v>12.47549999999999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5812,11 +5306,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5826,22 +5316,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>12.47</v>
+        <v>12.51</v>
       </c>
       <c r="C141" t="n">
-        <v>12.37</v>
+        <v>12.51</v>
       </c>
       <c r="D141" t="n">
-        <v>12.47</v>
+        <v>12.51</v>
       </c>
       <c r="E141" t="n">
-        <v>12.37</v>
+        <v>12.51</v>
       </c>
       <c r="F141" t="n">
-        <v>91667.9332</v>
+        <v>7873.7625</v>
       </c>
       <c r="G141" t="n">
-        <v>12.47433333333332</v>
+        <v>12.47733333333332</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5851,11 +5341,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5865,22 +5351,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>12.3</v>
+        <v>12.47</v>
       </c>
       <c r="C142" t="n">
-        <v>12.3</v>
+        <v>12.37</v>
       </c>
       <c r="D142" t="n">
-        <v>12.3</v>
+        <v>12.47</v>
       </c>
       <c r="E142" t="n">
-        <v>12.3</v>
+        <v>12.37</v>
       </c>
       <c r="F142" t="n">
-        <v>1000</v>
+        <v>91667.9332</v>
       </c>
       <c r="G142" t="n">
-        <v>12.47049999999999</v>
+        <v>12.47433333333332</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5890,11 +5376,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5904,22 +5386,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>12.37</v>
+        <v>12.3</v>
       </c>
       <c r="C143" t="n">
-        <v>12.37</v>
+        <v>12.3</v>
       </c>
       <c r="D143" t="n">
-        <v>12.37</v>
+        <v>12.3</v>
       </c>
       <c r="E143" t="n">
-        <v>12.37</v>
+        <v>12.3</v>
       </c>
       <c r="F143" t="n">
-        <v>241.9061</v>
+        <v>1000</v>
       </c>
       <c r="G143" t="n">
-        <v>12.46999999999999</v>
+        <v>12.47049999999999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5929,11 +5411,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5955,10 +5433,10 @@
         <v>12.37</v>
       </c>
       <c r="F144" t="n">
-        <v>15820.5527</v>
+        <v>241.9061</v>
       </c>
       <c r="G144" t="n">
-        <v>12.47416666666665</v>
+        <v>12.46999999999999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5968,11 +5446,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5982,22 +5456,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>12.51</v>
+        <v>12.37</v>
       </c>
       <c r="C145" t="n">
-        <v>12.59</v>
+        <v>12.37</v>
       </c>
       <c r="D145" t="n">
-        <v>12.59</v>
+        <v>12.37</v>
       </c>
       <c r="E145" t="n">
-        <v>12.51</v>
+        <v>12.37</v>
       </c>
       <c r="F145" t="n">
-        <v>232.8093</v>
+        <v>15820.5527</v>
       </c>
       <c r="G145" t="n">
-        <v>12.48083333333332</v>
+        <v>12.47416666666665</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6007,11 +5481,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6024,19 +5494,19 @@
         <v>12.51</v>
       </c>
       <c r="C146" t="n">
-        <v>12.51</v>
+        <v>12.59</v>
       </c>
       <c r="D146" t="n">
-        <v>12.51</v>
+        <v>12.59</v>
       </c>
       <c r="E146" t="n">
         <v>12.51</v>
       </c>
       <c r="F146" t="n">
-        <v>134.3939</v>
+        <v>232.8093</v>
       </c>
       <c r="G146" t="n">
-        <v>12.48599999999999</v>
+        <v>12.48083333333332</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6046,11 +5516,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6060,22 +5526,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>12.38</v>
+        <v>12.51</v>
       </c>
       <c r="C147" t="n">
-        <v>12.38</v>
+        <v>12.51</v>
       </c>
       <c r="D147" t="n">
-        <v>12.38</v>
+        <v>12.51</v>
       </c>
       <c r="E147" t="n">
-        <v>12.38</v>
+        <v>12.51</v>
       </c>
       <c r="F147" t="n">
-        <v>69.8036</v>
+        <v>134.3939</v>
       </c>
       <c r="G147" t="n">
-        <v>12.48566666666665</v>
+        <v>12.48599999999999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6085,11 +5551,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6099,22 +5561,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>12.37</v>
+        <v>12.38</v>
       </c>
       <c r="C148" t="n">
-        <v>12.37</v>
+        <v>12.38</v>
       </c>
       <c r="D148" t="n">
-        <v>12.37</v>
+        <v>12.38</v>
       </c>
       <c r="E148" t="n">
-        <v>12.37</v>
+        <v>12.38</v>
       </c>
       <c r="F148" t="n">
-        <v>48690.7639</v>
+        <v>69.8036</v>
       </c>
       <c r="G148" t="n">
-        <v>12.48516666666665</v>
+        <v>12.48566666666665</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6124,11 +5586,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6138,22 +5596,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>12.31</v>
+        <v>12.37</v>
       </c>
       <c r="C149" t="n">
-        <v>12.31</v>
+        <v>12.37</v>
       </c>
       <c r="D149" t="n">
-        <v>12.31</v>
+        <v>12.37</v>
       </c>
       <c r="E149" t="n">
-        <v>12.31</v>
+        <v>12.37</v>
       </c>
       <c r="F149" t="n">
-        <v>52.6891</v>
+        <v>48690.7639</v>
       </c>
       <c r="G149" t="n">
-        <v>12.47983333333332</v>
+        <v>12.48516666666665</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6163,11 +5621,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6189,10 +5643,10 @@
         <v>12.31</v>
       </c>
       <c r="F150" t="n">
-        <v>30748.0305</v>
+        <v>52.6891</v>
       </c>
       <c r="G150" t="n">
-        <v>12.47449999999998</v>
+        <v>12.47983333333332</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6202,11 +5656,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6219,19 +5669,19 @@
         <v>12.31</v>
       </c>
       <c r="C151" t="n">
-        <v>12.29</v>
+        <v>12.31</v>
       </c>
       <c r="D151" t="n">
         <v>12.31</v>
       </c>
       <c r="E151" t="n">
-        <v>12.29</v>
+        <v>12.31</v>
       </c>
       <c r="F151" t="n">
-        <v>78409.8692</v>
+        <v>30748.0305</v>
       </c>
       <c r="G151" t="n">
-        <v>12.46633333333332</v>
+        <v>12.47449999999998</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6241,11 +5691,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6255,22 +5701,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>12.25</v>
+        <v>12.31</v>
       </c>
       <c r="C152" t="n">
-        <v>12.25</v>
+        <v>12.29</v>
       </c>
       <c r="D152" t="n">
-        <v>12.25</v>
+        <v>12.31</v>
       </c>
       <c r="E152" t="n">
-        <v>12.25</v>
+        <v>12.29</v>
       </c>
       <c r="F152" t="n">
-        <v>27359.2148</v>
+        <v>78409.8692</v>
       </c>
       <c r="G152" t="n">
-        <v>12.45699999999999</v>
+        <v>12.46633333333332</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6280,11 +5726,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6297,19 +5739,19 @@
         <v>12.25</v>
       </c>
       <c r="C153" t="n">
-        <v>12.11</v>
+        <v>12.25</v>
       </c>
       <c r="D153" t="n">
         <v>12.25</v>
       </c>
       <c r="E153" t="n">
-        <v>12.11</v>
+        <v>12.25</v>
       </c>
       <c r="F153" t="n">
-        <v>219843.5411</v>
+        <v>27359.2148</v>
       </c>
       <c r="G153" t="n">
-        <v>12.44516666666665</v>
+        <v>12.45699999999999</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6319,11 +5761,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6336,19 +5774,19 @@
         <v>12.25</v>
       </c>
       <c r="C154" t="n">
-        <v>12.25</v>
+        <v>12.11</v>
       </c>
       <c r="D154" t="n">
         <v>12.25</v>
       </c>
       <c r="E154" t="n">
-        <v>12.25</v>
+        <v>12.11</v>
       </c>
       <c r="F154" t="n">
-        <v>159.9075</v>
+        <v>219843.5411</v>
       </c>
       <c r="G154" t="n">
-        <v>12.43583333333332</v>
+        <v>12.44516666666665</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6358,11 +5796,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6372,22 +5806,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>12.22</v>
+        <v>12.25</v>
       </c>
       <c r="C155" t="n">
-        <v>12.19</v>
+        <v>12.25</v>
       </c>
       <c r="D155" t="n">
-        <v>12.22</v>
+        <v>12.25</v>
       </c>
       <c r="E155" t="n">
-        <v>12.19</v>
+        <v>12.25</v>
       </c>
       <c r="F155" t="n">
-        <v>88232.5822</v>
+        <v>159.9075</v>
       </c>
       <c r="G155" t="n">
-        <v>12.42599999999999</v>
+        <v>12.43583333333332</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6397,11 +5831,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6411,22 +5841,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>12.2</v>
+        <v>12.22</v>
       </c>
       <c r="C156" t="n">
-        <v>12.18</v>
+        <v>12.19</v>
       </c>
       <c r="D156" t="n">
-        <v>12.2</v>
+        <v>12.22</v>
       </c>
       <c r="E156" t="n">
-        <v>12.18</v>
+        <v>12.19</v>
       </c>
       <c r="F156" t="n">
-        <v>26904.8946</v>
+        <v>88232.5822</v>
       </c>
       <c r="G156" t="n">
-        <v>12.41599999999999</v>
+        <v>12.42599999999999</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6436,11 +5866,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6450,22 +5876,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>12.16</v>
+        <v>12.2</v>
       </c>
       <c r="C157" t="n">
-        <v>12.1</v>
+        <v>12.18</v>
       </c>
       <c r="D157" t="n">
-        <v>12.16</v>
+        <v>12.2</v>
       </c>
       <c r="E157" t="n">
-        <v>12.1</v>
+        <v>12.18</v>
       </c>
       <c r="F157" t="n">
-        <v>100000</v>
+        <v>26904.8946</v>
       </c>
       <c r="G157" t="n">
-        <v>12.40999999999999</v>
+        <v>12.41599999999999</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6475,11 +5901,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6489,22 +5911,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>12.17</v>
+        <v>12.16</v>
       </c>
       <c r="C158" t="n">
-        <v>12.17</v>
+        <v>12.1</v>
       </c>
       <c r="D158" t="n">
-        <v>12.17</v>
+        <v>12.16</v>
       </c>
       <c r="E158" t="n">
-        <v>12.17</v>
+        <v>12.1</v>
       </c>
       <c r="F158" t="n">
-        <v>497296.0281</v>
+        <v>100000</v>
       </c>
       <c r="G158" t="n">
-        <v>12.40149999999999</v>
+        <v>12.40999999999999</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6514,11 +5936,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6528,22 +5946,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>12.34</v>
+        <v>12.17</v>
       </c>
       <c r="C159" t="n">
-        <v>12.35</v>
+        <v>12.17</v>
       </c>
       <c r="D159" t="n">
-        <v>12.35</v>
+        <v>12.17</v>
       </c>
       <c r="E159" t="n">
-        <v>12.34</v>
+        <v>12.17</v>
       </c>
       <c r="F159" t="n">
-        <v>208.7387</v>
+        <v>497296.0281</v>
       </c>
       <c r="G159" t="n">
-        <v>12.39983333333332</v>
+        <v>12.40149999999999</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6553,11 +5971,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6570,19 +5984,19 @@
         <v>12.34</v>
       </c>
       <c r="C160" t="n">
-        <v>12.34</v>
+        <v>12.35</v>
       </c>
       <c r="D160" t="n">
-        <v>12.34</v>
+        <v>12.35</v>
       </c>
       <c r="E160" t="n">
         <v>12.34</v>
       </c>
       <c r="F160" t="n">
-        <v>63.6646</v>
+        <v>208.7387</v>
       </c>
       <c r="G160" t="n">
-        <v>12.39799999999999</v>
+        <v>12.39983333333332</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6592,11 +6006,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6606,22 +6016,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>12.17</v>
+        <v>12.34</v>
       </c>
       <c r="C161" t="n">
-        <v>12.14</v>
+        <v>12.34</v>
       </c>
       <c r="D161" t="n">
-        <v>12.17</v>
+        <v>12.34</v>
       </c>
       <c r="E161" t="n">
-        <v>12.14</v>
+        <v>12.34</v>
       </c>
       <c r="F161" t="n">
-        <v>219843.5412</v>
+        <v>63.6646</v>
       </c>
       <c r="G161" t="n">
-        <v>12.39049999999999</v>
+        <v>12.39799999999999</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6631,11 +6041,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6645,22 +6051,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>12.35</v>
+        <v>12.17</v>
       </c>
       <c r="C162" t="n">
-        <v>12.4</v>
+        <v>12.14</v>
       </c>
       <c r="D162" t="n">
-        <v>12.4</v>
+        <v>12.17</v>
       </c>
       <c r="E162" t="n">
-        <v>12.35</v>
+        <v>12.14</v>
       </c>
       <c r="F162" t="n">
-        <v>1000</v>
+        <v>219843.5412</v>
       </c>
       <c r="G162" t="n">
-        <v>12.38783333333332</v>
+        <v>12.39049999999999</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6670,11 +6076,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6684,22 +6086,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>12.3</v>
+        <v>12.35</v>
       </c>
       <c r="C163" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D163" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E163" t="n">
-        <v>12.3</v>
+        <v>12.35</v>
       </c>
       <c r="F163" t="n">
-        <v>21000</v>
+        <v>1000</v>
       </c>
       <c r="G163" t="n">
-        <v>12.38366666666665</v>
+        <v>12.38783333333332</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6709,11 +6111,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6735,10 +6133,10 @@
         <v>12.3</v>
       </c>
       <c r="F164" t="n">
-        <v>2869.7289</v>
+        <v>21000</v>
       </c>
       <c r="G164" t="n">
-        <v>12.37949999999999</v>
+        <v>12.38366666666665</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6748,11 +6146,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6762,22 +6156,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>12.15</v>
+        <v>12.3</v>
       </c>
       <c r="C165" t="n">
-        <v>12.14</v>
+        <v>12.3</v>
       </c>
       <c r="D165" t="n">
-        <v>12.15</v>
+        <v>12.3</v>
       </c>
       <c r="E165" t="n">
-        <v>12.14</v>
+        <v>12.3</v>
       </c>
       <c r="F165" t="n">
-        <v>37595.6954</v>
+        <v>2869.7289</v>
       </c>
       <c r="G165" t="n">
-        <v>12.37266666666665</v>
+        <v>12.37949999999999</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6787,11 +6181,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6801,22 +6191,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>12.29</v>
+        <v>12.15</v>
       </c>
       <c r="C166" t="n">
-        <v>12.29</v>
+        <v>12.14</v>
       </c>
       <c r="D166" t="n">
-        <v>12.29</v>
+        <v>12.15</v>
       </c>
       <c r="E166" t="n">
-        <v>12.29</v>
+        <v>12.14</v>
       </c>
       <c r="F166" t="n">
-        <v>116.702</v>
+        <v>37595.6954</v>
       </c>
       <c r="G166" t="n">
-        <v>12.37166666666665</v>
+        <v>12.37266666666665</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6826,11 +6216,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6843,19 +6229,19 @@
         <v>12.29</v>
       </c>
       <c r="C167" t="n">
-        <v>12.3</v>
+        <v>12.29</v>
       </c>
       <c r="D167" t="n">
-        <v>12.3</v>
+        <v>12.29</v>
       </c>
       <c r="E167" t="n">
         <v>12.29</v>
       </c>
       <c r="F167" t="n">
-        <v>55962.9157</v>
+        <v>116.702</v>
       </c>
       <c r="G167" t="n">
-        <v>12.36916666666665</v>
+        <v>12.37166666666665</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6865,11 +6251,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6879,22 +6261,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>12.4</v>
+        <v>12.29</v>
       </c>
       <c r="C168" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D168" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E168" t="n">
-        <v>12.4</v>
+        <v>12.29</v>
       </c>
       <c r="F168" t="n">
-        <v>16956</v>
+        <v>55962.9157</v>
       </c>
       <c r="G168" t="n">
-        <v>12.36683333333332</v>
+        <v>12.36916666666665</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6904,11 +6286,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6918,22 +6296,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C169" t="n">
-        <v>12.52</v>
+        <v>12.4</v>
       </c>
       <c r="D169" t="n">
-        <v>12.62</v>
+        <v>12.4</v>
       </c>
       <c r="E169" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F169" t="n">
-        <v>44613.6255</v>
+        <v>16956</v>
       </c>
       <c r="G169" t="n">
-        <v>12.37016666666665</v>
+        <v>12.36683333333332</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6943,11 +6321,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6963,16 +6337,16 @@
         <v>12.52</v>
       </c>
       <c r="D170" t="n">
-        <v>12.52</v>
+        <v>12.62</v>
       </c>
       <c r="E170" t="n">
         <v>12.5</v>
       </c>
       <c r="F170" t="n">
-        <v>10100</v>
+        <v>44613.6255</v>
       </c>
       <c r="G170" t="n">
-        <v>12.36983333333332</v>
+        <v>12.37016666666665</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6982,11 +6356,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6999,19 +6369,19 @@
         <v>12.5</v>
       </c>
       <c r="C171" t="n">
-        <v>12.5</v>
+        <v>12.52</v>
       </c>
       <c r="D171" t="n">
-        <v>12.5</v>
+        <v>12.52</v>
       </c>
       <c r="E171" t="n">
         <v>12.5</v>
       </c>
       <c r="F171" t="n">
-        <v>7578</v>
+        <v>10100</v>
       </c>
       <c r="G171" t="n">
-        <v>12.36999999999998</v>
+        <v>12.36983333333332</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7021,11 +6391,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7047,10 +6413,10 @@
         <v>12.5</v>
       </c>
       <c r="F172" t="n">
-        <v>2422</v>
+        <v>7578</v>
       </c>
       <c r="G172" t="n">
-        <v>12.37016666666665</v>
+        <v>12.36999999999998</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7060,11 +6426,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7074,36 +6436,32 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>12.51</v>
+        <v>12.5</v>
       </c>
       <c r="C173" t="n">
-        <v>12.51</v>
+        <v>12.5</v>
       </c>
       <c r="D173" t="n">
-        <v>12.51</v>
+        <v>12.5</v>
       </c>
       <c r="E173" t="n">
-        <v>12.51</v>
+        <v>12.5</v>
       </c>
       <c r="F173" t="n">
-        <v>31316</v>
+        <v>2422</v>
       </c>
       <c r="G173" t="n">
-        <v>12.37316666666665</v>
+        <v>12.37016666666665</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7113,36 +6471,32 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>12.58</v>
+        <v>12.51</v>
       </c>
       <c r="C174" t="n">
-        <v>12.61</v>
+        <v>12.51</v>
       </c>
       <c r="D174" t="n">
-        <v>12.61</v>
+        <v>12.51</v>
       </c>
       <c r="E174" t="n">
-        <v>12.58</v>
+        <v>12.51</v>
       </c>
       <c r="F174" t="n">
-        <v>38728.2531</v>
+        <v>31316</v>
       </c>
       <c r="G174" t="n">
-        <v>12.37616666666665</v>
+        <v>12.37316666666665</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7152,59 +6506,57 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>12.51</v>
+        <v>12.58</v>
       </c>
       <c r="C175" t="n">
-        <v>12.51</v>
+        <v>12.61</v>
       </c>
       <c r="D175" t="n">
-        <v>12.51</v>
+        <v>12.61</v>
       </c>
       <c r="E175" t="n">
-        <v>12.51</v>
+        <v>12.58</v>
       </c>
       <c r="F175" t="n">
-        <v>29065</v>
+        <v>38728.2531</v>
       </c>
       <c r="G175" t="n">
-        <v>12.37966666666665</v>
+        <v>12.37616666666665</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>12.53</v>
+        <v>12.51</v>
       </c>
       <c r="C176" t="n">
-        <v>12.53</v>
+        <v>12.51</v>
       </c>
       <c r="D176" t="n">
-        <v>12.53</v>
+        <v>12.51</v>
       </c>
       <c r="E176" t="n">
-        <v>12.53</v>
+        <v>12.51</v>
       </c>
       <c r="F176" t="n">
-        <v>2583</v>
+        <v>29065</v>
       </c>
       <c r="G176" t="n">
-        <v>12.38149999999998</v>
+        <v>12.37966666666665</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7224,28 +6576,28 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>12.44</v>
+        <v>12.53</v>
       </c>
       <c r="C177" t="n">
-        <v>12.44</v>
+        <v>12.53</v>
       </c>
       <c r="D177" t="n">
-        <v>12.44</v>
+        <v>12.53</v>
       </c>
       <c r="E177" t="n">
-        <v>12.44</v>
+        <v>12.53</v>
       </c>
       <c r="F177" t="n">
-        <v>9583.4953</v>
+        <v>2583</v>
       </c>
       <c r="G177" t="n">
-        <v>12.38183333333332</v>
+        <v>12.38149999999998</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -7271,16 +6623,16 @@
         <v>12.44</v>
       </c>
       <c r="F178" t="n">
-        <v>1771.0054</v>
+        <v>9583.4953</v>
       </c>
       <c r="G178" t="n">
-        <v>12.38199999999999</v>
+        <v>12.38183333333332</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -7294,22 +6646,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>12.53</v>
+        <v>12.44</v>
       </c>
       <c r="C179" t="n">
-        <v>12.57</v>
+        <v>12.44</v>
       </c>
       <c r="D179" t="n">
-        <v>12.62</v>
+        <v>12.44</v>
       </c>
       <c r="E179" t="n">
-        <v>12.53</v>
+        <v>12.44</v>
       </c>
       <c r="F179" t="n">
-        <v>62653.3827</v>
+        <v>1771.0054</v>
       </c>
       <c r="G179" t="n">
-        <v>12.38433333333332</v>
+        <v>12.38199999999999</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7329,22 +6681,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="C180" t="n">
         <v>12.57</v>
       </c>
-      <c r="C180" t="n">
-        <v>12.63</v>
-      </c>
       <c r="D180" t="n">
-        <v>12.63</v>
+        <v>12.62</v>
       </c>
       <c r="E180" t="n">
-        <v>12.57</v>
+        <v>12.53</v>
       </c>
       <c r="F180" t="n">
-        <v>11095.142</v>
+        <v>62653.3827</v>
       </c>
       <c r="G180" t="n">
-        <v>12.38649999999999</v>
+        <v>12.38433333333332</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7367,19 +6719,19 @@
         <v>12.57</v>
       </c>
       <c r="C181" t="n">
-        <v>12.57</v>
+        <v>12.63</v>
       </c>
       <c r="D181" t="n">
-        <v>12.57</v>
+        <v>12.63</v>
       </c>
       <c r="E181" t="n">
         <v>12.57</v>
       </c>
       <c r="F181" t="n">
-        <v>24399.7423</v>
+        <v>11095.142</v>
       </c>
       <c r="G181" t="n">
-        <v>12.39083333333332</v>
+        <v>12.38649999999999</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7399,22 +6751,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>12.5</v>
+        <v>12.57</v>
       </c>
       <c r="C182" t="n">
-        <v>12.5</v>
+        <v>12.57</v>
       </c>
       <c r="D182" t="n">
-        <v>12.5</v>
+        <v>12.57</v>
       </c>
       <c r="E182" t="n">
-        <v>12.5</v>
+        <v>12.57</v>
       </c>
       <c r="F182" t="n">
-        <v>645.408</v>
+        <v>24399.7423</v>
       </c>
       <c r="G182" t="n">
-        <v>12.39099999999999</v>
+        <v>12.39083333333332</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7434,22 +6786,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>12.57</v>
+        <v>12.5</v>
       </c>
       <c r="C183" t="n">
-        <v>12.57</v>
+        <v>12.5</v>
       </c>
       <c r="D183" t="n">
-        <v>12.57</v>
+        <v>12.5</v>
       </c>
       <c r="E183" t="n">
-        <v>12.57</v>
+        <v>12.5</v>
       </c>
       <c r="F183" t="n">
-        <v>187.4583</v>
+        <v>645.408</v>
       </c>
       <c r="G183" t="n">
-        <v>12.39216666666666</v>
+        <v>12.39099999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7481,10 +6833,10 @@
         <v>12.57</v>
       </c>
       <c r="F184" t="n">
-        <v>5412.7994</v>
+        <v>187.4583</v>
       </c>
       <c r="G184" t="n">
-        <v>12.39649999999999</v>
+        <v>12.39216666666666</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7504,22 +6856,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>12.63</v>
+        <v>12.57</v>
       </c>
       <c r="C185" t="n">
-        <v>12.63</v>
+        <v>12.57</v>
       </c>
       <c r="D185" t="n">
-        <v>12.63</v>
+        <v>12.57</v>
       </c>
       <c r="E185" t="n">
-        <v>12.63</v>
+        <v>12.57</v>
       </c>
       <c r="F185" t="n">
-        <v>105.0979</v>
+        <v>5412.7994</v>
       </c>
       <c r="G185" t="n">
-        <v>12.39866666666666</v>
+        <v>12.39649999999999</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7539,22 +6891,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>12.64</v>
+        <v>12.63</v>
       </c>
       <c r="C186" t="n">
-        <v>12.64</v>
+        <v>12.63</v>
       </c>
       <c r="D186" t="n">
-        <v>12.64</v>
+        <v>12.63</v>
       </c>
       <c r="E186" t="n">
-        <v>12.64</v>
+        <v>12.63</v>
       </c>
       <c r="F186" t="n">
-        <v>78.81870000000001</v>
+        <v>105.0979</v>
       </c>
       <c r="G186" t="n">
-        <v>12.40099999999999</v>
+        <v>12.39866666666666</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7569,6 +6921,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="C187" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="D187" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="E187" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="F187" t="n">
+        <v>78.81870000000001</v>
+      </c>
+      <c r="G187" t="n">
+        <v>12.40099999999999</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-14 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-14 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:N197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>40470.9269</v>
       </c>
       <c r="G2" t="n">
+        <v>12.578</v>
+      </c>
+      <c r="H2" t="n">
         <v>12.75233333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>154425.7514</v>
       </c>
       <c r="G3" t="n">
+        <v>12.542</v>
+      </c>
+      <c r="H3" t="n">
         <v>12.7385</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>61000</v>
       </c>
       <c r="G4" t="n">
+        <v>12.50599999999999</v>
+      </c>
+      <c r="H4" t="n">
         <v>12.72616666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>74217.6409</v>
       </c>
       <c r="G5" t="n">
+        <v>12.48066666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>12.71483333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>3754.0731</v>
       </c>
       <c r="G6" t="n">
+        <v>12.45533333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>12.70616666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>14456.0132</v>
       </c>
       <c r="G7" t="n">
+        <v>12.41133333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>12.6965</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>17887.084</v>
       </c>
       <c r="G8" t="n">
+        <v>12.39466666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>12.6875</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>42090.6188</v>
       </c>
       <c r="G9" t="n">
+        <v>12.35599999999999</v>
+      </c>
+      <c r="H9" t="n">
         <v>12.67683333333334</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>62.916</v>
       </c>
       <c r="G10" t="n">
+        <v>12.32733333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>12.66683333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>19362.01088701299</v>
       </c>
       <c r="G11" t="n">
+        <v>12.31266666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>12.658</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>13475.65591298701</v>
       </c>
       <c r="G12" t="n">
+        <v>12.302</v>
+      </c>
+      <c r="H12" t="n">
         <v>12.65216666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>17346.0855</v>
       </c>
       <c r="G13" t="n">
+        <v>12.306</v>
+      </c>
+      <c r="H13" t="n">
         <v>12.6465</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>16811.5438</v>
       </c>
       <c r="G14" t="n">
+        <v>12.30666666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>12.63933333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>58346.3118</v>
       </c>
       <c r="G15" t="n">
+        <v>12.31466666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>12.6355</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>8332.5242</v>
       </c>
       <c r="G16" t="n">
+        <v>12.31799999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>12.62866666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>9244.912</v>
       </c>
       <c r="G17" t="n">
+        <v>12.33266666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>12.62683333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>950</v>
       </c>
       <c r="G18" t="n">
+        <v>12.34466666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>12.62416666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>2764.0004</v>
       </c>
       <c r="G19" t="n">
+        <v>12.36066666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>12.61583333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>8441.794</v>
       </c>
       <c r="G20" t="n">
+        <v>12.374</v>
+      </c>
+      <c r="H20" t="n">
         <v>12.61283333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>67.4957</v>
       </c>
       <c r="G21" t="n">
+        <v>12.38866666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>12.61183333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>18549.2008</v>
       </c>
       <c r="G22" t="n">
+        <v>12.41133333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>12.61216666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>1980.213</v>
       </c>
       <c r="G23" t="n">
+        <v>12.43733333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>12.60783333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>2031.8031</v>
       </c>
       <c r="G24" t="n">
+        <v>12.46333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>12.60316666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>2301.3054</v>
       </c>
       <c r="G25" t="n">
+        <v>12.488</v>
+      </c>
+      <c r="H25" t="n">
         <v>12.60166666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>5462.551594117647</v>
       </c>
       <c r="G26" t="n">
+        <v>12.51666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>12.6025</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>497.8425268940261</v>
       </c>
       <c r="G27" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="H27" t="n">
         <v>12.601</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>167628.6995</v>
       </c>
       <c r="G28" t="n">
+        <v>12.52666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>12.59433333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>1530</v>
       </c>
       <c r="G29" t="n">
+        <v>12.53866666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>12.591</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>2867</v>
       </c>
       <c r="G30" t="n">
+        <v>12.52533333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>12.58183333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>48695.6244</v>
       </c>
       <c r="G31" t="n">
+        <v>12.52466666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>12.57283333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>32874.8745</v>
       </c>
       <c r="G32" t="n">
+        <v>12.528</v>
+      </c>
+      <c r="H32" t="n">
         <v>12.57049999999999</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>179338.4237151988</v>
       </c>
       <c r="G33" t="n">
+        <v>12.554</v>
+      </c>
+      <c r="H33" t="n">
         <v>12.57233333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>40</v>
       </c>
       <c r="G34" t="n">
+        <v>12.56666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>12.56966666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>45031.3926</v>
       </c>
       <c r="G35" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="H35" t="n">
         <v>12.56199999999999</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>8661.1618</v>
       </c>
       <c r="G36" t="n">
+        <v>12.552</v>
+      </c>
+      <c r="H36" t="n">
         <v>12.55333333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>15823</v>
       </c>
       <c r="G37" t="n">
+        <v>12.542</v>
+      </c>
+      <c r="H37" t="n">
         <v>12.54466666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>42331.0994</v>
       </c>
       <c r="G38" t="n">
+        <v>12.52466666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>12.5345</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>134960.7203</v>
       </c>
       <c r="G39" t="n">
+        <v>12.542</v>
+      </c>
+      <c r="H39" t="n">
         <v>12.53316666666666</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>25835.6677</v>
       </c>
       <c r="G40" t="n">
+        <v>12.542</v>
+      </c>
+      <c r="H40" t="n">
         <v>12.52783333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>42154.418</v>
       </c>
       <c r="G41" t="n">
+        <v>12.528</v>
+      </c>
+      <c r="H41" t="n">
         <v>12.525</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>40</v>
       </c>
       <c r="G42" t="n">
+        <v>12.514</v>
+      </c>
+      <c r="H42" t="n">
         <v>12.524</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>56359.8696</v>
       </c>
       <c r="G43" t="n">
+        <v>12.52933333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>12.52116666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>19596.9182</v>
       </c>
       <c r="G44" t="n">
+        <v>12.52266666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>12.51283333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>3006</v>
       </c>
       <c r="G45" t="n">
+        <v>12.536</v>
+      </c>
+      <c r="H45" t="n">
         <v>12.50583333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>26101.8488</v>
       </c>
       <c r="G46" t="n">
+        <v>12.53666666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>12.498</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>41</v>
       </c>
       <c r="G47" t="n">
+        <v>12.53333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>12.493</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>4424</v>
       </c>
       <c r="G48" t="n">
+        <v>12.51133333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>12.488</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>26236.1405</v>
       </c>
       <c r="G49" t="n">
+        <v>12.494</v>
+      </c>
+      <c r="H49" t="n">
         <v>12.48183333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>9170.9432</v>
       </c>
       <c r="G50" t="n">
+        <v>12.50866666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>12.48083333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>21845.5180533752</v>
       </c>
       <c r="G51" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="H51" t="n">
         <v>12.4815</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>18253.1343</v>
       </c>
       <c r="G52" t="n">
+        <v>12.54466666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>12.47733333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>142.9932</v>
       </c>
       <c r="G53" t="n">
+        <v>12.56533333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>12.4805</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>3449</v>
       </c>
       <c r="G54" t="n">
+        <v>12.55133333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>12.47816666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>28516.6536</v>
       </c>
       <c r="G55" t="n">
+        <v>12.55133333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>12.47716666666666</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>39.3</v>
       </c>
       <c r="G56" t="n">
+        <v>12.56533333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>12.48066666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>16340.2153</v>
       </c>
       <c r="G57" t="n">
+        <v>12.578</v>
+      </c>
+      <c r="H57" t="n">
         <v>12.4835</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>508.4468</v>
       </c>
       <c r="G58" t="n">
+        <v>12.59133333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>12.48833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>3529</v>
       </c>
       <c r="G59" t="n">
+        <v>12.60666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>12.49366666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>38281.3417</v>
       </c>
       <c r="G60" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="H60" t="n">
         <v>12.4965</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>17939.3003</v>
       </c>
       <c r="G61" t="n">
+        <v>12.62133333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>12.50016666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>45734.9763</v>
       </c>
       <c r="G62" t="n">
+        <v>12.61666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>12.50266666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>111514.9205</v>
       </c>
       <c r="G63" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="H63" t="n">
         <v>12.505</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>198.3509</v>
       </c>
       <c r="G64" t="n">
+        <v>12.62866666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>12.5125</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>80923.2945</v>
       </c>
       <c r="G65" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="H65" t="n">
         <v>12.51316666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>23357.7501</v>
       </c>
       <c r="G66" t="n">
+        <v>12.584</v>
+      </c>
+      <c r="H66" t="n">
         <v>12.51366666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>98507.2674</v>
       </c>
       <c r="G67" t="n">
+        <v>12.59733333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>12.52383333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>170765.3038</v>
       </c>
       <c r="G68" t="n">
+        <v>12.61066666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>12.5345</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>19095.3979</v>
       </c>
       <c r="G69" t="n">
+        <v>12.62333333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>12.545</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>32656.8913</v>
       </c>
       <c r="G70" t="n">
+        <v>12.63800000000001</v>
+      </c>
+      <c r="H70" t="n">
         <v>12.55483333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>3775</v>
       </c>
       <c r="G71" t="n">
+        <v>12.63666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>12.56166666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>9841.799499999999</v>
       </c>
       <c r="G72" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="H72" t="n">
         <v>12.5655</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>34625.9605</v>
       </c>
       <c r="G73" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="H73" t="n">
         <v>12.56933333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>6154.1253</v>
       </c>
       <c r="G74" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="H74" t="n">
         <v>12.5745</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>3370.6526</v>
       </c>
       <c r="G75" t="n">
+        <v>12.62666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>12.5745</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>274425.3091</v>
       </c>
       <c r="G76" t="n">
+        <v>12.62066666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>12.57583333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>19741.9248</v>
       </c>
       <c r="G77" t="n">
+        <v>12.61933333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>12.57433333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>46506.8269</v>
       </c>
       <c r="G78" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="H78" t="n">
         <v>12.57383333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>1810.5647</v>
       </c>
       <c r="G79" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H79" t="n">
         <v>12.57233333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>140749.0019</v>
       </c>
       <c r="G80" t="n">
+        <v>12.596</v>
+      </c>
+      <c r="H80" t="n">
         <v>12.56866666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>41</v>
       </c>
       <c r="G81" t="n">
+        <v>12.59933333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>12.56633333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,22 +3493,21 @@
         <v>40</v>
       </c>
       <c r="G82" t="n">
+        <v>12.58066666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>12.56616666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K82" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3287,277 +3531,305 @@
         <v>51.0961</v>
       </c>
       <c r="G83" t="n">
+        <v>12.56066666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>12.56533333333332</v>
       </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
         <v>12.4</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="C84" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D84" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E84" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F84" t="n">
+        <v>638.7596</v>
+      </c>
+      <c r="G84" t="n">
+        <v>12.532</v>
+      </c>
+      <c r="H84" t="n">
+        <v>12.56216666666666</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="C85" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D85" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="E85" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F85" t="n">
+        <v>324511.0949</v>
+      </c>
+      <c r="G85" t="n">
+        <v>12.48466666666667</v>
+      </c>
+      <c r="H85" t="n">
+        <v>12.55399999999999</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C86" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="D86" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E86" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="F86" t="n">
+        <v>88887.79610000001</v>
+      </c>
+      <c r="G86" t="n">
+        <v>12.44866666666667</v>
+      </c>
+      <c r="H86" t="n">
+        <v>12.54466666666666</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C87" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D87" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E87" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F87" t="n">
+        <v>128136.9431</v>
+      </c>
+      <c r="G87" t="n">
+        <v>12.41333333333334</v>
+      </c>
+      <c r="H87" t="n">
+        <v>12.53383333333332</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="C88" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D88" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E88" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F88" t="n">
+        <v>169.9999</v>
+      </c>
+      <c r="G88" t="n">
+        <v>12.39133333333334</v>
+      </c>
+      <c r="H88" t="n">
+        <v>12.53549999999999</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L88" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C89" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D89" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E89" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F89" t="n">
+        <v>40.3226</v>
+      </c>
+      <c r="G89" t="n">
+        <v>12.376</v>
+      </c>
+      <c r="H89" t="n">
+        <v>12.53383333333332</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L89" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C84" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D84" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E84" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F84" t="n">
-        <v>638.7596</v>
-      </c>
-      <c r="G84" t="n">
-        <v>12.56216666666666</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="D90" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="E90" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>131123.027</v>
+      </c>
+      <c r="G90" t="n">
+        <v>12.38400000000001</v>
+      </c>
+      <c r="H90" t="n">
+        <v>12.53916666666666</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="C85" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D85" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="E85" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="F85" t="n">
-        <v>324511.0949</v>
-      </c>
-      <c r="G85" t="n">
-        <v>12.55399999999999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C86" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="D86" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E86" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="F86" t="n">
-        <v>88887.79610000001</v>
-      </c>
-      <c r="G86" t="n">
-        <v>12.54466666666666</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C87" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D87" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E87" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F87" t="n">
-        <v>128136.9431</v>
-      </c>
-      <c r="G87" t="n">
-        <v>12.53383333333332</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="C88" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D88" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E88" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="F88" t="n">
-        <v>169.9999</v>
-      </c>
-      <c r="G88" t="n">
-        <v>12.53549999999999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C89" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D89" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E89" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F89" t="n">
-        <v>40.3226</v>
-      </c>
-      <c r="G89" t="n">
-        <v>12.53383333333332</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C90" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="D90" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="E90" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F90" t="n">
-        <v>131123.027</v>
-      </c>
-      <c r="G90" t="n">
-        <v>12.53916666666666</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,18 +3853,21 @@
         <v>184457.0749</v>
       </c>
       <c r="G91" t="n">
+        <v>12.39866666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>12.54433333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3616,18 +3891,21 @@
         <v>46295.8588</v>
       </c>
       <c r="G92" t="n">
+        <v>12.42333333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>12.54816666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,18 +3929,21 @@
         <v>221561.795</v>
       </c>
       <c r="G93" t="n">
+        <v>12.45000000000001</v>
+      </c>
+      <c r="H93" t="n">
         <v>12.54783333333332</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,18 +3967,21 @@
         <v>23829.6832</v>
       </c>
       <c r="G94" t="n">
+        <v>12.47733333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>12.54999999999999</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,18 +4005,21 @@
         <v>8564.007</v>
       </c>
       <c r="G95" t="n">
+        <v>12.51133333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>12.55649999999999</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3756,18 +4043,21 @@
         <v>27129</v>
       </c>
       <c r="G96" t="n">
+        <v>12.53666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>12.56249999999999</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3791,18 +4081,21 @@
         <v>8.6876</v>
       </c>
       <c r="G97" t="n">
+        <v>12.552</v>
+      </c>
+      <c r="H97" t="n">
         <v>12.56866666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,18 +4119,21 @@
         <v>20779</v>
       </c>
       <c r="G98" t="n">
+        <v>12.54733333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>12.57099999999999</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,18 +4157,21 @@
         <v>2125.8614</v>
       </c>
       <c r="G99" t="n">
+        <v>12.566</v>
+      </c>
+      <c r="H99" t="n">
         <v>12.56816666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,18 +4195,21 @@
         <v>40779.0097</v>
       </c>
       <c r="G100" t="n">
+        <v>12.588</v>
+      </c>
+      <c r="H100" t="n">
         <v>12.56549999999999</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,18 +4233,21 @@
         <v>3780</v>
       </c>
       <c r="G101" t="n">
+        <v>12.60533333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>12.56399999999999</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,18 +4271,21 @@
         <v>4435.9706</v>
       </c>
       <c r="G102" t="n">
+        <v>12.63133333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>12.56316666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,18 +4309,21 @@
         <v>21484.0306</v>
       </c>
       <c r="G103" t="n">
+        <v>12.642</v>
+      </c>
+      <c r="H103" t="n">
         <v>12.56366666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,18 +4347,21 @@
         <v>5034.6609</v>
       </c>
       <c r="G104" t="n">
+        <v>12.652</v>
+      </c>
+      <c r="H104" t="n">
         <v>12.56616666666666</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4071,18 +4385,21 @@
         <v>3145</v>
       </c>
       <c r="G105" t="n">
+        <v>12.64666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>12.56683333333332</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,18 +4423,21 @@
         <v>3039.2925</v>
       </c>
       <c r="G106" t="n">
+        <v>12.64133333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>12.57049999999999</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4141,18 +4461,21 @@
         <v>21164.3356</v>
       </c>
       <c r="G107" t="n">
+        <v>12.61266666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>12.56799999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,18 +4499,21 @@
         <v>63981.6344</v>
       </c>
       <c r="G108" t="n">
+        <v>12.58866666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>12.56716666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,18 +4537,21 @@
         <v>1348.1938</v>
       </c>
       <c r="G109" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="H109" t="n">
         <v>12.56899999999999</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,18 +4575,21 @@
         <v>40006.9297</v>
       </c>
       <c r="G110" t="n">
+        <v>12.53733333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>12.56366666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,18 +4613,21 @@
         <v>397.9189</v>
       </c>
       <c r="G111" t="n">
+        <v>12.52133333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>12.56033333333332</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,18 +4651,21 @@
         <v>20000</v>
       </c>
       <c r="G112" t="n">
+        <v>12.502</v>
+      </c>
+      <c r="H112" t="n">
         <v>12.55799999999999</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,18 +4689,21 @@
         <v>941.6427</v>
       </c>
       <c r="G113" t="n">
+        <v>12.504</v>
+      </c>
+      <c r="H113" t="n">
         <v>12.55566666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,18 +4727,21 @@
         <v>5807.7614</v>
       </c>
       <c r="G114" t="n">
+        <v>12.48066666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>12.55049999999999</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4421,18 +4765,21 @@
         <v>558.1106</v>
       </c>
       <c r="G115" t="n">
+        <v>12.47933333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>12.54749999999999</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,18 +4803,21 @@
         <v>9893.3799</v>
       </c>
       <c r="G116" t="n">
+        <v>12.46933333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>12.53999999999999</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,18 +4841,21 @@
         <v>502.8266</v>
       </c>
       <c r="G117" t="n">
+        <v>12.45800000000001</v>
+      </c>
+      <c r="H117" t="n">
         <v>12.53316666666666</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,18 +4879,21 @@
         <v>54365.3004</v>
       </c>
       <c r="G118" t="n">
+        <v>12.44866666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>12.52799999999999</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,18 +4917,21 @@
         <v>452.2901</v>
       </c>
       <c r="G119" t="n">
+        <v>12.44066666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>12.52466666666665</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,18 +4955,21 @@
         <v>3943.4794</v>
       </c>
       <c r="G120" t="n">
+        <v>12.43266666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>12.52249999999999</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4631,18 +4993,21 @@
         <v>59618.8741</v>
       </c>
       <c r="G121" t="n">
+        <v>12.42933333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>12.52249999999999</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,18 +5031,21 @@
         <v>1927.2921</v>
       </c>
       <c r="G122" t="n">
+        <v>12.42666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>12.52049999999999</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4701,18 +5069,21 @@
         <v>692.626</v>
       </c>
       <c r="G123" t="n">
+        <v>12.42933333333334</v>
+      </c>
+      <c r="H123" t="n">
         <v>12.52199999999999</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,18 +5107,21 @@
         <v>44.8095</v>
       </c>
       <c r="G124" t="n">
+        <v>12.42666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>12.51849999999999</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4771,18 +5145,21 @@
         <v>1416</v>
       </c>
       <c r="G125" t="n">
+        <v>12.42600000000001</v>
+      </c>
+      <c r="H125" t="n">
         <v>12.51766666666665</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,18 +5183,21 @@
         <v>1064.356</v>
       </c>
       <c r="G126" t="n">
+        <v>12.42333333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>12.52016666666665</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,18 +5221,21 @@
         <v>23000</v>
       </c>
       <c r="G127" t="n">
+        <v>12.42400000000001</v>
+      </c>
+      <c r="H127" t="n">
         <v>12.51466666666665</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,18 +5259,21 @@
         <v>24419.3196</v>
       </c>
       <c r="G128" t="n">
+        <v>12.42666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>12.50966666666665</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,18 +5297,21 @@
         <v>38473.2111</v>
       </c>
       <c r="G129" t="n">
+        <v>12.42533333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>12.50099999999998</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,18 +5335,21 @@
         <v>23220.044</v>
       </c>
       <c r="G130" t="n">
+        <v>12.418</v>
+      </c>
+      <c r="H130" t="n">
         <v>12.49249999999998</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,18 +5373,21 @@
         <v>52.3211</v>
       </c>
       <c r="G131" t="n">
+        <v>12.41933333333334</v>
+      </c>
+      <c r="H131" t="n">
         <v>12.48566666666665</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,18 +5411,21 @@
         <v>4786.1998</v>
       </c>
       <c r="G132" t="n">
+        <v>12.41266666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>12.47883333333332</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,18 +5449,21 @@
         <v>9474</v>
       </c>
       <c r="G133" t="n">
+        <v>12.40866666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>12.47266666666665</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,18 +5487,27 @@
         <v>8044.2857</v>
       </c>
       <c r="G134" t="n">
+        <v>12.40333333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>12.46799999999998</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>12.36</v>
+      </c>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,18 +5531,25 @@
         <v>10560</v>
       </c>
       <c r="G135" t="n">
+        <v>12.39933333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>12.46566666666665</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,18 +5573,25 @@
         <v>3152.3211</v>
       </c>
       <c r="G136" t="n">
+        <v>12.398</v>
+      </c>
+      <c r="H136" t="n">
         <v>12.46683333333332</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,18 +5615,25 @@
         <v>2912</v>
       </c>
       <c r="G137" t="n">
+        <v>12.41133333333334</v>
+      </c>
+      <c r="H137" t="n">
         <v>12.46849999999998</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,18 +5657,25 @@
         <v>21043.9237</v>
       </c>
       <c r="G138" t="n">
+        <v>12.41266666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>12.47016666666665</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5261,18 +5699,25 @@
         <v>265.4996</v>
       </c>
       <c r="G139" t="n">
+        <v>12.414</v>
+      </c>
+      <c r="H139" t="n">
         <v>12.47199999999999</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,18 +5741,25 @@
         <v>1078</v>
       </c>
       <c r="G140" t="n">
+        <v>12.42733333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>12.47549999999999</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5331,18 +5783,25 @@
         <v>7873.7625</v>
       </c>
       <c r="G141" t="n">
+        <v>12.428</v>
+      </c>
+      <c r="H141" t="n">
         <v>12.47733333333332</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,18 +5825,25 @@
         <v>91667.9332</v>
       </c>
       <c r="G142" t="n">
+        <v>12.41933333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>12.47433333333332</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5401,18 +5867,25 @@
         <v>1000</v>
       </c>
       <c r="G143" t="n">
+        <v>12.404</v>
+      </c>
+      <c r="H143" t="n">
         <v>12.47049999999999</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,18 +5909,25 @@
         <v>241.9061</v>
       </c>
       <c r="G144" t="n">
+        <v>12.408</v>
+      </c>
+      <c r="H144" t="n">
         <v>12.46999999999999</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5471,18 +5951,25 @@
         <v>15820.5527</v>
       </c>
       <c r="G145" t="n">
+        <v>12.41133333333334</v>
+      </c>
+      <c r="H145" t="n">
         <v>12.47416666666665</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5506,18 +5993,25 @@
         <v>232.8093</v>
       </c>
       <c r="G146" t="n">
+        <v>12.42933333333334</v>
+      </c>
+      <c r="H146" t="n">
         <v>12.48083333333332</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5541,18 +6035,25 @@
         <v>134.3939</v>
       </c>
       <c r="G147" t="n">
+        <v>12.442</v>
+      </c>
+      <c r="H147" t="n">
         <v>12.48599999999999</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5576,18 +6077,25 @@
         <v>69.8036</v>
       </c>
       <c r="G148" t="n">
+        <v>12.44333333333334</v>
+      </c>
+      <c r="H148" t="n">
         <v>12.48566666666665</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5611,18 +6119,25 @@
         <v>48690.7639</v>
       </c>
       <c r="G149" t="n">
+        <v>12.44466666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>12.48516666666665</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,18 +6161,25 @@
         <v>52.6891</v>
       </c>
       <c r="G150" t="n">
+        <v>12.44066666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>12.47983333333332</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5681,18 +6203,25 @@
         <v>30748.0305</v>
       </c>
       <c r="G151" t="n">
+        <v>12.42933333333334</v>
+      </c>
+      <c r="H151" t="n">
         <v>12.47449999999998</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5716,18 +6245,25 @@
         <v>78409.8692</v>
       </c>
       <c r="G152" t="n">
+        <v>12.41466666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>12.46633333333332</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5751,18 +6287,27 @@
         <v>27359.2148</v>
       </c>
       <c r="G153" t="n">
+        <v>12.39733333333334</v>
+      </c>
+      <c r="H153" t="n">
         <v>12.45699999999999</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>12.29</v>
+      </c>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5786,18 +6331,27 @@
         <v>219843.5411</v>
       </c>
       <c r="G154" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="H154" t="n">
         <v>12.44516666666665</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>12.25</v>
+      </c>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5821,18 +6375,25 @@
         <v>159.9075</v>
       </c>
       <c r="G155" t="n">
+        <v>12.35266666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>12.43583333333332</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5856,18 +6417,27 @@
         <v>88232.5822</v>
       </c>
       <c r="G156" t="n">
+        <v>12.33133333333334</v>
+      </c>
+      <c r="H156" t="n">
         <v>12.42599999999999</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>12.25</v>
+      </c>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5891,18 +6461,25 @@
         <v>26904.8946</v>
       </c>
       <c r="G157" t="n">
+        <v>12.31866666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>12.41599999999999</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,18 +6503,27 @@
         <v>100000</v>
       </c>
       <c r="G158" t="n">
+        <v>12.30533333333334</v>
+      </c>
+      <c r="H158" t="n">
         <v>12.40999999999999</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>12.18</v>
+      </c>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5961,18 +6547,25 @@
         <v>497296.0281</v>
       </c>
       <c r="G159" t="n">
+        <v>12.292</v>
+      </c>
+      <c r="H159" t="n">
         <v>12.40149999999999</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5996,18 +6589,25 @@
         <v>208.7387</v>
       </c>
       <c r="G160" t="n">
+        <v>12.29066666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>12.39983333333332</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6031,18 +6631,25 @@
         <v>63.6646</v>
       </c>
       <c r="G161" t="n">
+        <v>12.274</v>
+      </c>
+      <c r="H161" t="n">
         <v>12.39799999999999</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,18 +6673,25 @@
         <v>219843.5412</v>
       </c>
       <c r="G162" t="n">
+        <v>12.24933333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>12.39049999999999</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6101,18 +6715,25 @@
         <v>1000</v>
       </c>
       <c r="G163" t="n">
+        <v>12.25066666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>12.38783333333332</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6136,18 +6757,25 @@
         <v>21000</v>
       </c>
       <c r="G164" t="n">
+        <v>12.246</v>
+      </c>
+      <c r="H164" t="n">
         <v>12.38366666666665</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6171,18 +6799,25 @@
         <v>2869.7289</v>
       </c>
       <c r="G165" t="n">
+        <v>12.24533333333334</v>
+      </c>
+      <c r="H165" t="n">
         <v>12.37949999999999</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6206,18 +6841,27 @@
         <v>37595.6954</v>
       </c>
       <c r="G166" t="n">
+        <v>12.234</v>
+      </c>
+      <c r="H166" t="n">
         <v>12.37266666666665</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>12.3</v>
+      </c>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6241,18 +6885,27 @@
         <v>116.702</v>
       </c>
       <c r="G167" t="n">
+        <v>12.234</v>
+      </c>
+      <c r="H167" t="n">
         <v>12.37166666666665</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>12.14</v>
+      </c>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6276,18 +6929,27 @@
         <v>55962.9157</v>
       </c>
       <c r="G168" t="n">
+        <v>12.23733333333334</v>
+      </c>
+      <c r="H168" t="n">
         <v>12.36916666666665</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>12.29</v>
+      </c>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6311,18 +6973,25 @@
         <v>16956</v>
       </c>
       <c r="G169" t="n">
+        <v>12.25666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>12.36683333333332</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6346,18 +7015,25 @@
         <v>44613.6255</v>
       </c>
       <c r="G170" t="n">
+        <v>12.27466666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>12.37016666666665</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6381,18 +7057,25 @@
         <v>10100</v>
       </c>
       <c r="G171" t="n">
+        <v>12.29666666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>12.36983333333332</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6416,18 +7099,25 @@
         <v>7578</v>
       </c>
       <c r="G172" t="n">
+        <v>12.31800000000001</v>
+      </c>
+      <c r="H172" t="n">
         <v>12.36999999999998</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6451,18 +7141,25 @@
         <v>2422</v>
       </c>
       <c r="G173" t="n">
+        <v>12.34466666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>12.37016666666665</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6486,18 +7183,25 @@
         <v>31316</v>
       </c>
       <c r="G174" t="n">
+        <v>12.36733333333334</v>
+      </c>
+      <c r="H174" t="n">
         <v>12.37316666666665</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6521,18 +7225,25 @@
         <v>38728.2531</v>
       </c>
       <c r="G175" t="n">
+        <v>12.38466666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>12.37616666666665</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,18 +7267,25 @@
         <v>29065</v>
       </c>
       <c r="G176" t="n">
+        <v>12.39600000000001</v>
+      </c>
+      <c r="H176" t="n">
         <v>12.37966666666665</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6591,18 +7309,25 @@
         <v>2583</v>
       </c>
       <c r="G177" t="n">
+        <v>12.42200000000001</v>
+      </c>
+      <c r="H177" t="n">
         <v>12.38149999999998</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6626,18 +7351,25 @@
         <v>9583.4953</v>
       </c>
       <c r="G178" t="n">
+        <v>12.42466666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>12.38183333333332</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6661,18 +7393,25 @@
         <v>1771.0054</v>
       </c>
       <c r="G179" t="n">
+        <v>12.434</v>
+      </c>
+      <c r="H179" t="n">
         <v>12.38199999999999</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6696,18 +7435,25 @@
         <v>62653.3827</v>
       </c>
       <c r="G180" t="n">
+        <v>12.452</v>
+      </c>
+      <c r="H180" t="n">
         <v>12.38433333333332</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6731,18 +7477,25 @@
         <v>11095.142</v>
       </c>
       <c r="G181" t="n">
+        <v>12.48466666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>12.38649999999999</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6766,18 +7519,25 @@
         <v>24399.7423</v>
       </c>
       <c r="G182" t="n">
+        <v>12.50333333333334</v>
+      </c>
+      <c r="H182" t="n">
         <v>12.39083333333332</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6801,18 +7561,25 @@
         <v>645.408</v>
       </c>
       <c r="G183" t="n">
+        <v>12.51666666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>12.39099999999999</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6836,18 +7603,25 @@
         <v>187.4583</v>
       </c>
       <c r="G184" t="n">
+        <v>12.528</v>
+      </c>
+      <c r="H184" t="n">
         <v>12.39216666666666</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,18 +7645,25 @@
         <v>5412.7994</v>
       </c>
       <c r="G185" t="n">
+        <v>12.53133333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>12.39649999999999</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6906,18 +7687,25 @@
         <v>105.0979</v>
       </c>
       <c r="G186" t="n">
+        <v>12.53866666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>12.39866666666666</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6941,18 +7729,445 @@
         <v>78.81870000000001</v>
       </c>
       <c r="G187" t="n">
+        <v>12.548</v>
+      </c>
+      <c r="H187" t="n">
         <v>12.40099999999999</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="C188" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="D188" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="E188" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="F188" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G188" t="n">
+        <v>12.55266666666666</v>
+      </c>
+      <c r="H188" t="n">
+        <v>12.40166666666666</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="C189" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="D189" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="E189" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="F189" t="n">
+        <v>6412.1765</v>
+      </c>
+      <c r="G189" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="H189" t="n">
+        <v>12.40683333333333</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C190" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D190" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E190" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F190" t="n">
+        <v>34646.8019</v>
+      </c>
+      <c r="G190" t="n">
+        <v>12.55266666666666</v>
+      </c>
+      <c r="H190" t="n">
+        <v>12.40983333333333</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="C191" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="D191" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="E191" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="F191" t="n">
+        <v>89.02070000000001</v>
+      </c>
+      <c r="G191" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="H191" t="n">
+        <v>12.41483333333333</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C192" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D192" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E192" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F192" t="n">
+        <v>10914</v>
+      </c>
+      <c r="G192" t="n">
+        <v>12.55866666666666</v>
+      </c>
+      <c r="H192" t="n">
+        <v>12.41799999999999</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C193" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D193" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E193" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F193" t="n">
+        <v>7536.63</v>
+      </c>
+      <c r="G193" t="n">
+        <v>12.56333333333333</v>
+      </c>
+      <c r="H193" t="n">
+        <v>12.42049999999999</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C194" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D194" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E194" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F194" t="n">
+        <v>3950.231774260591</v>
+      </c>
+      <c r="G194" t="n">
+        <v>12.568</v>
+      </c>
+      <c r="H194" t="n">
+        <v>12.42316666666666</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C195" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D195" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E195" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F195" t="n">
+        <v>9568.121999999999</v>
+      </c>
+      <c r="G195" t="n">
+        <v>12.564</v>
+      </c>
+      <c r="H195" t="n">
+        <v>12.42549999999999</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C196" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D196" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E196" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F196" t="n">
+        <v>3311.8299</v>
+      </c>
+      <c r="G196" t="n">
+        <v>12.556</v>
+      </c>
+      <c r="H196" t="n">
+        <v>12.42599999999999</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="C197" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E197" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F197" t="n">
+        <v>9638.2886</v>
+      </c>
+      <c r="G197" t="n">
+        <v>12.55133333333333</v>
+      </c>
+      <c r="H197" t="n">
+        <v>12.42583333333332</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-14 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M226"/>
+  <dimension ref="A1:N184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.71</v>
+        <v>12.32</v>
       </c>
       <c r="C2" t="n">
-        <v>12.72</v>
+        <v>12.51</v>
       </c>
       <c r="D2" t="n">
-        <v>12.72</v>
+        <v>12.51</v>
       </c>
       <c r="E2" t="n">
-        <v>12.71</v>
+        <v>12.32</v>
       </c>
       <c r="F2" t="n">
-        <v>31908.6196</v>
+        <v>58346.3118</v>
       </c>
       <c r="G2" t="n">
-        <v>-1175622.444655312</v>
+        <v>-1946149.816655312</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.85</v>
+        <v>12.51</v>
       </c>
       <c r="C3" t="n">
-        <v>12.85</v>
+        <v>12.33</v>
       </c>
       <c r="D3" t="n">
-        <v>12.85</v>
+        <v>12.51</v>
       </c>
       <c r="E3" t="n">
-        <v>12.85</v>
+        <v>12.33</v>
       </c>
       <c r="F3" t="n">
-        <v>87.86069999999999</v>
+        <v>8332.5242</v>
       </c>
       <c r="G3" t="n">
-        <v>-1175534.583955311</v>
+        <v>-1954482.340855312</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.86</v>
+        <v>12.47</v>
       </c>
       <c r="C4" t="n">
-        <v>12.88</v>
+        <v>12.5</v>
       </c>
       <c r="D4" t="n">
-        <v>12.88</v>
+        <v>12.5</v>
       </c>
       <c r="E4" t="n">
-        <v>12.86</v>
+        <v>12.47</v>
       </c>
       <c r="F4" t="n">
-        <v>23128.6139</v>
+        <v>9244.912</v>
       </c>
       <c r="G4" t="n">
-        <v>-1152405.970055311</v>
+        <v>-1945237.428855312</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.93</v>
+        <v>12.44</v>
       </c>
       <c r="C5" t="n">
-        <v>12.94</v>
+        <v>12.44</v>
       </c>
       <c r="D5" t="n">
-        <v>12.94</v>
+        <v>12.44</v>
       </c>
       <c r="E5" t="n">
-        <v>12.93</v>
+        <v>12.44</v>
       </c>
       <c r="F5" t="n">
-        <v>37595.6954</v>
+        <v>950</v>
       </c>
       <c r="G5" t="n">
-        <v>-1114810.274655311</v>
+        <v>-1946187.428855312</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.93</v>
+        <v>12.5</v>
       </c>
       <c r="C6" t="n">
-        <v>12.93</v>
+        <v>12.5</v>
       </c>
       <c r="D6" t="n">
-        <v>12.93</v>
+        <v>12.5</v>
       </c>
       <c r="E6" t="n">
-        <v>12.93</v>
+        <v>12.5</v>
       </c>
       <c r="F6" t="n">
-        <v>27292.0112</v>
+        <v>2764.0004</v>
       </c>
       <c r="G6" t="n">
-        <v>-1142102.285855311</v>
+        <v>-1943423.428455312</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.93</v>
+        <v>12.44</v>
       </c>
       <c r="C7" t="n">
-        <v>12.93</v>
+        <v>12.52</v>
       </c>
       <c r="D7" t="n">
-        <v>12.93</v>
+        <v>12.52</v>
       </c>
       <c r="E7" t="n">
-        <v>12.93</v>
+        <v>12.44</v>
       </c>
       <c r="F7" t="n">
-        <v>8786.111999999999</v>
+        <v>8441.794</v>
       </c>
       <c r="G7" t="n">
-        <v>-1142102.285855311</v>
+        <v>-1934981.634455312</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.93</v>
+        <v>12.54</v>
       </c>
       <c r="C8" t="n">
-        <v>12.93</v>
+        <v>12.54</v>
       </c>
       <c r="D8" t="n">
-        <v>12.93</v>
+        <v>12.54</v>
       </c>
       <c r="E8" t="n">
-        <v>12.93</v>
+        <v>12.54</v>
       </c>
       <c r="F8" t="n">
-        <v>11310.5921</v>
+        <v>67.4957</v>
       </c>
       <c r="G8" t="n">
-        <v>-1142102.285855311</v>
+        <v>-1934914.138755311</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.93</v>
+        <v>12.52</v>
       </c>
       <c r="C9" t="n">
-        <v>12.93</v>
+        <v>12.56</v>
       </c>
       <c r="D9" t="n">
-        <v>12.93</v>
+        <v>12.56</v>
       </c>
       <c r="E9" t="n">
-        <v>12.93</v>
+        <v>12.52</v>
       </c>
       <c r="F9" t="n">
-        <v>5000</v>
+        <v>18549.2008</v>
       </c>
       <c r="G9" t="n">
-        <v>-1142102.285855311</v>
+        <v>-1916364.937955311</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.83</v>
+        <v>12.57</v>
       </c>
       <c r="C10" t="n">
-        <v>12.71</v>
+        <v>12.58</v>
       </c>
       <c r="D10" t="n">
-        <v>12.83</v>
+        <v>12.58</v>
       </c>
       <c r="E10" t="n">
-        <v>12.71</v>
+        <v>12.57</v>
       </c>
       <c r="F10" t="n">
-        <v>7549</v>
+        <v>1980.213</v>
       </c>
       <c r="G10" t="n">
-        <v>-1149651.285855311</v>
+        <v>-1914384.724955312</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.7</v>
+        <v>12.59</v>
       </c>
       <c r="C11" t="n">
-        <v>12.7</v>
+        <v>12.59</v>
       </c>
       <c r="D11" t="n">
-        <v>12.7</v>
+        <v>12.59</v>
       </c>
       <c r="E11" t="n">
-        <v>12.7</v>
+        <v>12.59</v>
       </c>
       <c r="F11" t="n">
-        <v>12178.9832</v>
+        <v>2031.8031</v>
       </c>
       <c r="G11" t="n">
-        <v>-1161830.269055311</v>
+        <v>-1912352.921855312</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.72</v>
+        <v>12.6</v>
       </c>
       <c r="C12" t="n">
-        <v>12.7</v>
+        <v>12.61</v>
       </c>
       <c r="D12" t="n">
-        <v>12.72</v>
+        <v>12.61</v>
       </c>
       <c r="E12" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F12" t="n">
-        <v>20096.7041</v>
+        <v>2301.3054</v>
       </c>
       <c r="G12" t="n">
-        <v>-1161830.269055311</v>
+        <v>-1910051.616455312</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.9</v>
+        <v>12.62</v>
       </c>
       <c r="C13" t="n">
-        <v>12.9</v>
+        <v>12.75</v>
       </c>
       <c r="D13" t="n">
-        <v>12.9</v>
+        <v>12.75</v>
       </c>
       <c r="E13" t="n">
-        <v>12.9</v>
+        <v>12.62</v>
       </c>
       <c r="F13" t="n">
-        <v>39</v>
+        <v>5462.551594117647</v>
       </c>
       <c r="G13" t="n">
-        <v>-1161791.269055311</v>
+        <v>-1904589.064861194</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.9</v>
+        <v>12.75</v>
       </c>
       <c r="C14" t="n">
-        <v>12.93</v>
+        <v>12.85</v>
       </c>
       <c r="D14" t="n">
-        <v>12.93</v>
+        <v>12.85</v>
       </c>
       <c r="E14" t="n">
-        <v>12.9</v>
+        <v>12.75</v>
       </c>
       <c r="F14" t="n">
-        <v>29100</v>
+        <v>497.8425268940261</v>
       </c>
       <c r="G14" t="n">
-        <v>-1132691.269055311</v>
+        <v>-1904091.2223343</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.8</v>
+        <v>12.66</v>
       </c>
       <c r="C15" t="n">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="D15" t="n">
-        <v>12.8</v>
+        <v>12.66</v>
       </c>
       <c r="E15" t="n">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="F15" t="n">
-        <v>2257</v>
+        <v>167628.6995</v>
       </c>
       <c r="G15" t="n">
-        <v>-1134948.269055311</v>
+        <v>-2071719.9218343</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.71</v>
+        <v>12.5</v>
       </c>
       <c r="C16" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="D16" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="E16" t="n">
-        <v>12.71</v>
+        <v>12.5</v>
       </c>
       <c r="F16" t="n">
-        <v>81188.1741</v>
+        <v>1530</v>
       </c>
       <c r="G16" t="n">
-        <v>-1134948.269055311</v>
+        <v>-2070189.9218343</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="C17" t="n">
-        <v>12.8</v>
+        <v>12.31</v>
       </c>
       <c r="D17" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="E17" t="n">
-        <v>12.8</v>
+        <v>12.31</v>
       </c>
       <c r="F17" t="n">
-        <v>55270.7969</v>
+        <v>2867</v>
       </c>
       <c r="G17" t="n">
-        <v>-1134948.269055311</v>
+        <v>-2073056.9218343</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.8</v>
+        <v>12.49</v>
       </c>
       <c r="C18" t="n">
-        <v>12.8</v>
+        <v>12.32</v>
       </c>
       <c r="D18" t="n">
-        <v>12.8</v>
+        <v>12.49</v>
       </c>
       <c r="E18" t="n">
-        <v>12.8</v>
+        <v>12.31</v>
       </c>
       <c r="F18" t="n">
-        <v>6054</v>
+        <v>48695.6244</v>
       </c>
       <c r="G18" t="n">
-        <v>-1134948.269055311</v>
+        <v>-2024361.2974343</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.71</v>
+        <v>12.55</v>
       </c>
       <c r="C19" t="n">
-        <v>12.7</v>
+        <v>12.55</v>
       </c>
       <c r="D19" t="n">
-        <v>12.71</v>
+        <v>12.55</v>
       </c>
       <c r="E19" t="n">
-        <v>12.7</v>
+        <v>12.55</v>
       </c>
       <c r="F19" t="n">
-        <v>38157.1824</v>
+        <v>32874.8745</v>
       </c>
       <c r="G19" t="n">
-        <v>-1173105.451455311</v>
+        <v>-1991486.4229343</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,34 +1079,35 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.7</v>
+        <v>12.45</v>
       </c>
       <c r="C20" t="n">
-        <v>12.7</v>
+        <v>12.83</v>
       </c>
       <c r="D20" t="n">
-        <v>12.7</v>
+        <v>12.83</v>
       </c>
       <c r="E20" t="n">
-        <v>12.7</v>
+        <v>12.45</v>
       </c>
       <c r="F20" t="n">
-        <v>38675.2031</v>
+        <v>179338.4237151988</v>
       </c>
       <c r="G20" t="n">
-        <v>-1173105.451455311</v>
+        <v>-1812147.999219101</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.88</v>
+        <v>12.69</v>
       </c>
       <c r="C21" t="n">
-        <v>12.88</v>
+        <v>12.69</v>
       </c>
       <c r="D21" t="n">
-        <v>12.88</v>
+        <v>12.69</v>
       </c>
       <c r="E21" t="n">
-        <v>12.88</v>
+        <v>12.69</v>
       </c>
       <c r="F21" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>-1173066.451455311</v>
+        <v>-1812187.999219101</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C22" t="n">
-        <v>12.44</v>
+        <v>12.42</v>
       </c>
       <c r="D22" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E22" t="n">
-        <v>12.44</v>
+        <v>12.42</v>
       </c>
       <c r="F22" t="n">
-        <v>380692.5293</v>
+        <v>45031.3926</v>
       </c>
       <c r="G22" t="n">
-        <v>-1553758.980755311</v>
+        <v>-1857219.391819101</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.78</v>
+        <v>12.42</v>
       </c>
       <c r="C23" t="n">
-        <v>12.78</v>
+        <v>12.42</v>
       </c>
       <c r="D23" t="n">
-        <v>12.78</v>
+        <v>12.42</v>
       </c>
       <c r="E23" t="n">
-        <v>12.78</v>
+        <v>12.42</v>
       </c>
       <c r="F23" t="n">
-        <v>40</v>
+        <v>8661.1618</v>
       </c>
       <c r="G23" t="n">
-        <v>-1553718.980755311</v>
+        <v>-1857219.391819101</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.67</v>
+        <v>12.41</v>
       </c>
       <c r="C24" t="n">
-        <v>12.67</v>
+        <v>12.41</v>
       </c>
       <c r="D24" t="n">
-        <v>12.67</v>
+        <v>12.41</v>
       </c>
       <c r="E24" t="n">
-        <v>12.67</v>
+        <v>12.41</v>
       </c>
       <c r="F24" t="n">
-        <v>3852</v>
+        <v>15823</v>
       </c>
       <c r="G24" t="n">
-        <v>-1557570.980755311</v>
+        <v>-1873042.391819101</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.54</v>
+        <v>12.32</v>
       </c>
       <c r="C25" t="n">
-        <v>12.54</v>
+        <v>12.32</v>
       </c>
       <c r="D25" t="n">
-        <v>12.54</v>
+        <v>12.32</v>
       </c>
       <c r="E25" t="n">
-        <v>12.54</v>
+        <v>12.32</v>
       </c>
       <c r="F25" t="n">
-        <v>30000</v>
+        <v>42331.0994</v>
       </c>
       <c r="G25" t="n">
-        <v>-1587570.980755311</v>
+        <v>-1915373.491219101</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.66</v>
+        <v>12.5</v>
       </c>
       <c r="C26" t="n">
-        <v>12.66</v>
+        <v>12.85</v>
       </c>
       <c r="D26" t="n">
-        <v>12.66</v>
+        <v>12.85</v>
       </c>
       <c r="E26" t="n">
-        <v>12.66</v>
+        <v>12.5</v>
       </c>
       <c r="F26" t="n">
-        <v>40</v>
+        <v>134960.7203</v>
       </c>
       <c r="G26" t="n">
-        <v>-1587530.980755311</v>
+        <v>-1780412.770919101</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.54</v>
+        <v>12.45</v>
       </c>
       <c r="C27" t="n">
-        <v>12.44</v>
+        <v>12.61</v>
       </c>
       <c r="D27" t="n">
-        <v>12.54</v>
+        <v>12.61</v>
       </c>
       <c r="E27" t="n">
-        <v>12.44</v>
+        <v>12.45</v>
       </c>
       <c r="F27" t="n">
-        <v>70558.1995</v>
+        <v>25835.6677</v>
       </c>
       <c r="G27" t="n">
-        <v>-1658089.180255312</v>
+        <v>-1806248.438619101</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.31</v>
+        <v>12.54</v>
       </c>
       <c r="C28" t="n">
-        <v>12.31</v>
+        <v>12.54</v>
       </c>
       <c r="D28" t="n">
-        <v>12.31</v>
+        <v>12.54</v>
       </c>
       <c r="E28" t="n">
-        <v>12.31</v>
+        <v>12.54</v>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>42154.418</v>
       </c>
       <c r="G28" t="n">
-        <v>-1658139.180255312</v>
+        <v>-1848402.856619101</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.39</v>
+        <v>12.64</v>
       </c>
       <c r="C29" t="n">
-        <v>12.39</v>
+        <v>12.64</v>
       </c>
       <c r="D29" t="n">
-        <v>12.39</v>
+        <v>12.64</v>
       </c>
       <c r="E29" t="n">
-        <v>12.39</v>
+        <v>12.64</v>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G29" t="n">
-        <v>-1658089.180255312</v>
+        <v>-1848362.856619101</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,34 +1439,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.4</v>
+        <v>12.53</v>
       </c>
       <c r="C30" t="n">
-        <v>12.28</v>
+        <v>12.53</v>
       </c>
       <c r="D30" t="n">
-        <v>12.4</v>
+        <v>12.53</v>
       </c>
       <c r="E30" t="n">
-        <v>12.28</v>
+        <v>12.53</v>
       </c>
       <c r="F30" t="n">
-        <v>292035.3983</v>
+        <v>56359.8696</v>
       </c>
       <c r="G30" t="n">
-        <v>-1950124.578555312</v>
+        <v>-1904722.726219101</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.28</v>
+        <v>12.42</v>
       </c>
       <c r="C31" t="n">
-        <v>12.28</v>
+        <v>12.4</v>
       </c>
       <c r="D31" t="n">
-        <v>12.28</v>
+        <v>12.42</v>
       </c>
       <c r="E31" t="n">
-        <v>12.28</v>
+        <v>12.4</v>
       </c>
       <c r="F31" t="n">
-        <v>40470.9269</v>
+        <v>19596.9182</v>
       </c>
       <c r="G31" t="n">
-        <v>-1950124.578555312</v>
+        <v>-1924319.644419101</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.07</v>
+        <v>12.51</v>
       </c>
       <c r="C32" t="n">
-        <v>12.26</v>
+        <v>12.51</v>
       </c>
       <c r="D32" t="n">
-        <v>12.26</v>
+        <v>12.51</v>
       </c>
       <c r="E32" t="n">
-        <v>12.07</v>
+        <v>12.51</v>
       </c>
       <c r="F32" t="n">
-        <v>154425.7514</v>
+        <v>3006</v>
       </c>
       <c r="G32" t="n">
-        <v>-2104550.329955311</v>
+        <v>-1921313.644419101</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.26</v>
+        <v>12.42</v>
       </c>
       <c r="C33" t="n">
-        <v>12.26</v>
+        <v>12.33</v>
       </c>
       <c r="D33" t="n">
-        <v>12.26</v>
+        <v>12.42</v>
       </c>
       <c r="E33" t="n">
-        <v>12.26</v>
+        <v>12.33</v>
       </c>
       <c r="F33" t="n">
-        <v>61000</v>
+        <v>26101.8488</v>
       </c>
       <c r="G33" t="n">
-        <v>-2104550.329955311</v>
+        <v>-1947415.493219101</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.22</v>
+        <v>12.5</v>
       </c>
       <c r="C34" t="n">
-        <v>12.32</v>
+        <v>12.5</v>
       </c>
       <c r="D34" t="n">
-        <v>12.32</v>
+        <v>12.5</v>
       </c>
       <c r="E34" t="n">
-        <v>12.22</v>
+        <v>12.5</v>
       </c>
       <c r="F34" t="n">
-        <v>74217.6409</v>
+        <v>41</v>
       </c>
       <c r="G34" t="n">
-        <v>-2030332.689055311</v>
+        <v>-1947374.493219101</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.32</v>
+        <v>12.5</v>
       </c>
       <c r="C35" t="n">
-        <v>12.32</v>
+        <v>12.5</v>
       </c>
       <c r="D35" t="n">
-        <v>12.32</v>
+        <v>12.5</v>
       </c>
       <c r="E35" t="n">
-        <v>12.32</v>
+        <v>12.5</v>
       </c>
       <c r="F35" t="n">
-        <v>3754.0731</v>
+        <v>4424</v>
       </c>
       <c r="G35" t="n">
-        <v>-2030332.689055311</v>
+        <v>-1947374.493219101</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.32</v>
+        <v>12.43</v>
       </c>
       <c r="C36" t="n">
-        <v>12.22</v>
+        <v>12.43</v>
       </c>
       <c r="D36" t="n">
-        <v>12.32</v>
+        <v>12.43</v>
       </c>
       <c r="E36" t="n">
-        <v>12.22</v>
+        <v>12.43</v>
       </c>
       <c r="F36" t="n">
-        <v>14456.0132</v>
+        <v>26236.1405</v>
       </c>
       <c r="G36" t="n">
-        <v>-2044788.702255311</v>
+        <v>-1973610.633719101</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.22</v>
+        <v>12.71</v>
       </c>
       <c r="C37" t="n">
-        <v>12.19</v>
+        <v>12.64</v>
       </c>
       <c r="D37" t="n">
-        <v>12.22</v>
+        <v>12.71</v>
       </c>
       <c r="E37" t="n">
-        <v>12.15</v>
+        <v>12.64</v>
       </c>
       <c r="F37" t="n">
-        <v>17887.084</v>
+        <v>9170.9432</v>
       </c>
       <c r="G37" t="n">
-        <v>-2062675.786255311</v>
+        <v>-1964439.690519101</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.2</v>
+        <v>12.64</v>
       </c>
       <c r="C38" t="n">
-        <v>12.2</v>
+        <v>12.74</v>
       </c>
       <c r="D38" t="n">
-        <v>12.2</v>
+        <v>12.74</v>
       </c>
       <c r="E38" t="n">
-        <v>12.2</v>
+        <v>12.64</v>
       </c>
       <c r="F38" t="n">
-        <v>42090.6188</v>
+        <v>21845.5180533752</v>
       </c>
       <c r="G38" t="n">
-        <v>-2020585.167455311</v>
+        <v>-1942594.172465726</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.21</v>
+        <v>12.63</v>
       </c>
       <c r="C39" t="n">
-        <v>12.24</v>
+        <v>12.63</v>
       </c>
       <c r="D39" t="n">
-        <v>12.24</v>
+        <v>12.63</v>
       </c>
       <c r="E39" t="n">
-        <v>12.21</v>
+        <v>12.63</v>
       </c>
       <c r="F39" t="n">
-        <v>62.916</v>
+        <v>18253.1343</v>
       </c>
       <c r="G39" t="n">
-        <v>-2020522.251455311</v>
+        <v>-1960847.306765726</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.26</v>
+        <v>12.63</v>
       </c>
       <c r="C40" t="n">
-        <v>12.32</v>
+        <v>12.63</v>
       </c>
       <c r="D40" t="n">
-        <v>12.32</v>
+        <v>12.63</v>
       </c>
       <c r="E40" t="n">
-        <v>12.26</v>
+        <v>12.63</v>
       </c>
       <c r="F40" t="n">
-        <v>19362.01088701299</v>
+        <v>142.9932</v>
       </c>
       <c r="G40" t="n">
-        <v>-2001160.240568298</v>
+        <v>-1960847.306765726</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.32</v>
+        <v>12.64</v>
       </c>
       <c r="C41" t="n">
-        <v>12.5</v>
+        <v>12.64</v>
       </c>
       <c r="D41" t="n">
-        <v>12.5</v>
+        <v>12.64</v>
       </c>
       <c r="E41" t="n">
-        <v>12.32</v>
+        <v>12.64</v>
       </c>
       <c r="F41" t="n">
-        <v>13475.65591298701</v>
+        <v>3449</v>
       </c>
       <c r="G41" t="n">
-        <v>-1987684.584655311</v>
+        <v>-1957398.306765726</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.5</v>
+        <v>12.61</v>
       </c>
       <c r="C42" t="n">
-        <v>12.5</v>
+        <v>12.61</v>
       </c>
       <c r="D42" t="n">
-        <v>12.5</v>
+        <v>12.61</v>
       </c>
       <c r="E42" t="n">
-        <v>12.5</v>
+        <v>12.61</v>
       </c>
       <c r="F42" t="n">
-        <v>17346.0855</v>
+        <v>28516.6536</v>
       </c>
       <c r="G42" t="n">
-        <v>-1987684.584655311</v>
+        <v>-1985914.960365726</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.31</v>
+        <v>12.75</v>
       </c>
       <c r="C43" t="n">
-        <v>12.32</v>
+        <v>12.75</v>
       </c>
       <c r="D43" t="n">
-        <v>12.32</v>
+        <v>12.75</v>
       </c>
       <c r="E43" t="n">
-        <v>12.31</v>
+        <v>12.75</v>
       </c>
       <c r="F43" t="n">
-        <v>16811.5438</v>
+        <v>39.3</v>
       </c>
       <c r="G43" t="n">
-        <v>-2004496.128455312</v>
+        <v>-1985875.660365726</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.32</v>
+        <v>12.75</v>
       </c>
       <c r="C44" t="n">
-        <v>12.51</v>
+        <v>12.83</v>
       </c>
       <c r="D44" t="n">
-        <v>12.51</v>
+        <v>12.83</v>
       </c>
       <c r="E44" t="n">
-        <v>12.32</v>
+        <v>12.75</v>
       </c>
       <c r="F44" t="n">
-        <v>58346.3118</v>
+        <v>16340.2153</v>
       </c>
       <c r="G44" t="n">
-        <v>-1946149.816655312</v>
+        <v>-1969535.445065726</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.51</v>
+        <v>12.73</v>
       </c>
       <c r="C45" t="n">
-        <v>12.33</v>
+        <v>12.73</v>
       </c>
       <c r="D45" t="n">
-        <v>12.51</v>
+        <v>12.73</v>
       </c>
       <c r="E45" t="n">
-        <v>12.33</v>
+        <v>12.73</v>
       </c>
       <c r="F45" t="n">
-        <v>8332.5242</v>
+        <v>508.4468</v>
       </c>
       <c r="G45" t="n">
-        <v>-1954482.340855312</v>
+        <v>-1970043.891865726</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,34 +2015,35 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.47</v>
+        <v>12.63</v>
       </c>
       <c r="C46" t="n">
-        <v>12.5</v>
+        <v>12.63</v>
       </c>
       <c r="D46" t="n">
-        <v>12.5</v>
+        <v>12.63</v>
       </c>
       <c r="E46" t="n">
-        <v>12.47</v>
+        <v>12.63</v>
       </c>
       <c r="F46" t="n">
-        <v>9244.912</v>
+        <v>3529</v>
       </c>
       <c r="G46" t="n">
-        <v>-1945237.428855312</v>
+        <v>-1973572.891865726</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.44</v>
+        <v>12.56</v>
       </c>
       <c r="C47" t="n">
-        <v>12.44</v>
+        <v>12.56</v>
       </c>
       <c r="D47" t="n">
-        <v>12.44</v>
+        <v>12.56</v>
       </c>
       <c r="E47" t="n">
-        <v>12.44</v>
+        <v>12.56</v>
       </c>
       <c r="F47" t="n">
-        <v>950</v>
+        <v>38281.3417</v>
       </c>
       <c r="G47" t="n">
-        <v>-1946187.428855312</v>
+        <v>-2011854.233565726</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,34 +2087,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.5</v>
+        <v>12.56</v>
       </c>
       <c r="C48" t="n">
         <v>12.5</v>
       </c>
       <c r="D48" t="n">
-        <v>12.5</v>
+        <v>12.56</v>
       </c>
       <c r="E48" t="n">
         <v>12.5</v>
       </c>
       <c r="F48" t="n">
-        <v>2764.0004</v>
+        <v>17939.3003</v>
       </c>
       <c r="G48" t="n">
-        <v>-1943423.428455312</v>
+        <v>-2029793.533865726</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.44</v>
+        <v>12.45</v>
       </c>
       <c r="C49" t="n">
-        <v>12.52</v>
+        <v>12.43</v>
       </c>
       <c r="D49" t="n">
-        <v>12.52</v>
+        <v>12.45</v>
       </c>
       <c r="E49" t="n">
-        <v>12.44</v>
+        <v>12.43</v>
       </c>
       <c r="F49" t="n">
-        <v>8441.794</v>
+        <v>45734.9763</v>
       </c>
       <c r="G49" t="n">
-        <v>-1934981.634455312</v>
+        <v>-2075528.510165726</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.54</v>
+        <v>12.4</v>
       </c>
       <c r="C50" t="n">
-        <v>12.54</v>
+        <v>12.4</v>
       </c>
       <c r="D50" t="n">
-        <v>12.54</v>
+        <v>12.4</v>
       </c>
       <c r="E50" t="n">
-        <v>12.54</v>
+        <v>12.4</v>
       </c>
       <c r="F50" t="n">
-        <v>67.4957</v>
+        <v>111514.9205</v>
       </c>
       <c r="G50" t="n">
-        <v>-1934914.138755311</v>
+        <v>-2187043.430665726</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.52</v>
+        <v>12.71</v>
       </c>
       <c r="C51" t="n">
-        <v>12.56</v>
+        <v>12.71</v>
       </c>
       <c r="D51" t="n">
-        <v>12.56</v>
+        <v>12.71</v>
       </c>
       <c r="E51" t="n">
-        <v>12.52</v>
+        <v>12.71</v>
       </c>
       <c r="F51" t="n">
-        <v>18549.2008</v>
+        <v>198.3509</v>
       </c>
       <c r="G51" t="n">
-        <v>-1916364.937955311</v>
+        <v>-2186845.079765726</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.57</v>
+        <v>12.4</v>
       </c>
       <c r="C52" t="n">
-        <v>12.58</v>
+        <v>12.36</v>
       </c>
       <c r="D52" t="n">
-        <v>12.58</v>
+        <v>12.4</v>
       </c>
       <c r="E52" t="n">
-        <v>12.57</v>
+        <v>12.36</v>
       </c>
       <c r="F52" t="n">
-        <v>1980.213</v>
+        <v>80923.2945</v>
       </c>
       <c r="G52" t="n">
-        <v>-1914384.724955312</v>
+        <v>-2267768.374265726</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.59</v>
+        <v>12.35</v>
       </c>
       <c r="C53" t="n">
-        <v>12.59</v>
+        <v>12.35</v>
       </c>
       <c r="D53" t="n">
-        <v>12.59</v>
+        <v>12.35</v>
       </c>
       <c r="E53" t="n">
-        <v>12.59</v>
+        <v>12.35</v>
       </c>
       <c r="F53" t="n">
-        <v>2031.8031</v>
+        <v>23357.7501</v>
       </c>
       <c r="G53" t="n">
-        <v>-1912352.921855312</v>
+        <v>-2291126.124365726</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.6</v>
+        <v>12.61</v>
       </c>
       <c r="C54" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="D54" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="E54" t="n">
         <v>12.61</v>
       </c>
-      <c r="D54" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="E54" t="n">
-        <v>12.6</v>
-      </c>
       <c r="F54" t="n">
-        <v>2301.3054</v>
+        <v>98507.2674</v>
       </c>
       <c r="G54" t="n">
-        <v>-1910051.616455312</v>
+        <v>-2192618.856965726</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.62</v>
+        <v>12.83</v>
       </c>
       <c r="C55" t="n">
-        <v>12.75</v>
+        <v>12.83</v>
       </c>
       <c r="D55" t="n">
-        <v>12.75</v>
+        <v>12.83</v>
       </c>
       <c r="E55" t="n">
-        <v>12.62</v>
+        <v>12.83</v>
       </c>
       <c r="F55" t="n">
-        <v>5462.551594117647</v>
+        <v>170765.3038</v>
       </c>
       <c r="G55" t="n">
-        <v>-1904589.064861194</v>
+        <v>-2192618.856965726</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.75</v>
+        <v>12.83</v>
       </c>
       <c r="C56" t="n">
-        <v>12.85</v>
+        <v>12.83</v>
       </c>
       <c r="D56" t="n">
-        <v>12.85</v>
+        <v>12.83</v>
       </c>
       <c r="E56" t="n">
-        <v>12.75</v>
+        <v>12.83</v>
       </c>
       <c r="F56" t="n">
-        <v>497.8425268940261</v>
+        <v>19095.3979</v>
       </c>
       <c r="G56" t="n">
-        <v>-1904091.2223343</v>
+        <v>-2192618.856965726</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.66</v>
+        <v>12.85</v>
       </c>
       <c r="C57" t="n">
-        <v>12.3</v>
+        <v>12.83</v>
       </c>
       <c r="D57" t="n">
-        <v>12.66</v>
+        <v>12.85</v>
       </c>
       <c r="E57" t="n">
-        <v>12.3</v>
+        <v>12.83</v>
       </c>
       <c r="F57" t="n">
-        <v>167628.6995</v>
+        <v>32656.8913</v>
       </c>
       <c r="G57" t="n">
-        <v>-2071719.9218343</v>
+        <v>-2192618.856965726</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,34 +2447,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.5</v>
+        <v>12.73</v>
       </c>
       <c r="C58" t="n">
-        <v>12.5</v>
+        <v>12.73</v>
       </c>
       <c r="D58" t="n">
-        <v>12.5</v>
+        <v>12.73</v>
       </c>
       <c r="E58" t="n">
-        <v>12.5</v>
+        <v>12.73</v>
       </c>
       <c r="F58" t="n">
-        <v>1530</v>
+        <v>3775</v>
       </c>
       <c r="G58" t="n">
-        <v>-2070189.9218343</v>
+        <v>-2196393.856965726</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,34 +2483,35 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.5</v>
+        <v>12.74</v>
       </c>
       <c r="C59" t="n">
-        <v>12.31</v>
+        <v>12.73</v>
       </c>
       <c r="D59" t="n">
-        <v>12.5</v>
+        <v>12.74</v>
       </c>
       <c r="E59" t="n">
-        <v>12.31</v>
+        <v>12.73</v>
       </c>
       <c r="F59" t="n">
-        <v>2867</v>
+        <v>9841.799499999999</v>
       </c>
       <c r="G59" t="n">
-        <v>-2073056.9218343</v>
+        <v>-2196393.856965726</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.49</v>
+        <v>12.73</v>
       </c>
       <c r="C60" t="n">
-        <v>12.32</v>
+        <v>12.73</v>
       </c>
       <c r="D60" t="n">
-        <v>12.49</v>
+        <v>12.73</v>
       </c>
       <c r="E60" t="n">
-        <v>12.31</v>
+        <v>12.73</v>
       </c>
       <c r="F60" t="n">
-        <v>48695.6244</v>
+        <v>34625.9605</v>
       </c>
       <c r="G60" t="n">
-        <v>-2024361.2974343</v>
+        <v>-2196393.856965726</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.55</v>
+        <v>12.63</v>
       </c>
       <c r="C61" t="n">
-        <v>12.55</v>
+        <v>12.63</v>
       </c>
       <c r="D61" t="n">
-        <v>12.55</v>
+        <v>12.63</v>
       </c>
       <c r="E61" t="n">
-        <v>12.55</v>
+        <v>12.63</v>
       </c>
       <c r="F61" t="n">
-        <v>32874.8745</v>
+        <v>6154.1253</v>
       </c>
       <c r="G61" t="n">
-        <v>-1991486.4229343</v>
+        <v>-2202547.982265726</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.45</v>
+        <v>12.61</v>
       </c>
       <c r="C62" t="n">
-        <v>12.83</v>
+        <v>12.51</v>
       </c>
       <c r="D62" t="n">
-        <v>12.83</v>
+        <v>12.61</v>
       </c>
       <c r="E62" t="n">
-        <v>12.45</v>
+        <v>12.51</v>
       </c>
       <c r="F62" t="n">
-        <v>179338.4237151988</v>
+        <v>3370.6526</v>
       </c>
       <c r="G62" t="n">
-        <v>-1812147.999219101</v>
+        <v>-2205918.634865726</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.69</v>
+        <v>12.52</v>
       </c>
       <c r="C63" t="n">
-        <v>12.69</v>
+        <v>12.41</v>
       </c>
       <c r="D63" t="n">
-        <v>12.69</v>
+        <v>12.52</v>
       </c>
       <c r="E63" t="n">
-        <v>12.69</v>
+        <v>12.41</v>
       </c>
       <c r="F63" t="n">
-        <v>40</v>
+        <v>274425.3091</v>
       </c>
       <c r="G63" t="n">
-        <v>-1812187.999219101</v>
+        <v>-2480343.943965726</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.6</v>
+        <v>12.41</v>
       </c>
       <c r="C64" t="n">
-        <v>12.42</v>
+        <v>12.41</v>
       </c>
       <c r="D64" t="n">
-        <v>12.6</v>
+        <v>12.41</v>
       </c>
       <c r="E64" t="n">
-        <v>12.42</v>
+        <v>12.41</v>
       </c>
       <c r="F64" t="n">
-        <v>45031.3926</v>
+        <v>19741.9248</v>
       </c>
       <c r="G64" t="n">
-        <v>-1857219.391819101</v>
+        <v>-2480343.943965726</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.42</v>
+        <v>12.41</v>
       </c>
       <c r="C65" t="n">
-        <v>12.42</v>
+        <v>12.41</v>
       </c>
       <c r="D65" t="n">
-        <v>12.42</v>
+        <v>12.41</v>
       </c>
       <c r="E65" t="n">
-        <v>12.42</v>
+        <v>12.41</v>
       </c>
       <c r="F65" t="n">
-        <v>8661.1618</v>
+        <v>46506.8269</v>
       </c>
       <c r="G65" t="n">
-        <v>-1857219.391819101</v>
+        <v>-2480343.943965726</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2685,10 +2754,10 @@
         <v>12.41</v>
       </c>
       <c r="F66" t="n">
-        <v>15823</v>
+        <v>1810.5647</v>
       </c>
       <c r="G66" t="n">
-        <v>-1873042.391819101</v>
+        <v>-2480343.943965726</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.32</v>
+        <v>12.41</v>
       </c>
       <c r="C67" t="n">
-        <v>12.32</v>
+        <v>12.3</v>
       </c>
       <c r="D67" t="n">
-        <v>12.32</v>
+        <v>12.41</v>
       </c>
       <c r="E67" t="n">
-        <v>12.32</v>
+        <v>12.3</v>
       </c>
       <c r="F67" t="n">
-        <v>42331.0994</v>
+        <v>140749.0019</v>
       </c>
       <c r="G67" t="n">
-        <v>-1915373.491219101</v>
+        <v>-2621092.945865726</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C68" t="n">
-        <v>12.85</v>
+        <v>12.4</v>
       </c>
       <c r="D68" t="n">
-        <v>12.85</v>
+        <v>12.4</v>
       </c>
       <c r="E68" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F68" t="n">
-        <v>134960.7203</v>
+        <v>41</v>
       </c>
       <c r="G68" t="n">
-        <v>-1780412.770919101</v>
+        <v>-2621051.945865726</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.45</v>
+        <v>12.55</v>
       </c>
       <c r="C69" t="n">
-        <v>12.61</v>
+        <v>12.55</v>
       </c>
       <c r="D69" t="n">
-        <v>12.61</v>
+        <v>12.55</v>
       </c>
       <c r="E69" t="n">
-        <v>12.45</v>
+        <v>12.55</v>
       </c>
       <c r="F69" t="n">
-        <v>25835.6677</v>
+        <v>40</v>
       </c>
       <c r="G69" t="n">
-        <v>-1806248.438619101</v>
+        <v>-2621011.945865726</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.54</v>
+        <v>12.53</v>
       </c>
       <c r="C70" t="n">
-        <v>12.54</v>
+        <v>12.53</v>
       </c>
       <c r="D70" t="n">
-        <v>12.54</v>
+        <v>12.53</v>
       </c>
       <c r="E70" t="n">
-        <v>12.54</v>
+        <v>12.53</v>
       </c>
       <c r="F70" t="n">
-        <v>42154.418</v>
+        <v>51.0961</v>
       </c>
       <c r="G70" t="n">
-        <v>-1848402.856619101</v>
+        <v>-2621063.041965726</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.64</v>
+        <v>12.4</v>
       </c>
       <c r="C71" t="n">
-        <v>12.64</v>
+        <v>12.4</v>
       </c>
       <c r="D71" t="n">
-        <v>12.64</v>
+        <v>12.4</v>
       </c>
       <c r="E71" t="n">
-        <v>12.64</v>
+        <v>12.4</v>
       </c>
       <c r="F71" t="n">
-        <v>40</v>
+        <v>638.7596</v>
       </c>
       <c r="G71" t="n">
-        <v>-1848362.856619101</v>
+        <v>-2621701.801565726</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.53</v>
+        <v>12.36</v>
       </c>
       <c r="C72" t="n">
-        <v>12.53</v>
+        <v>12.12</v>
       </c>
       <c r="D72" t="n">
-        <v>12.53</v>
+        <v>12.36</v>
       </c>
       <c r="E72" t="n">
-        <v>12.53</v>
+        <v>12.12</v>
       </c>
       <c r="F72" t="n">
-        <v>56359.8696</v>
+        <v>324511.0949</v>
       </c>
       <c r="G72" t="n">
-        <v>-1904722.726219101</v>
+        <v>-2946212.896465726</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.42</v>
+        <v>12.2</v>
       </c>
       <c r="C73" t="n">
-        <v>12.4</v>
+        <v>12.19</v>
       </c>
       <c r="D73" t="n">
-        <v>12.42</v>
+        <v>12.2</v>
       </c>
       <c r="E73" t="n">
-        <v>12.4</v>
+        <v>12.19</v>
       </c>
       <c r="F73" t="n">
-        <v>19596.9182</v>
+        <v>88887.79610000001</v>
       </c>
       <c r="G73" t="n">
-        <v>-1924319.644419101</v>
+        <v>-2857325.100365726</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.51</v>
+        <v>12.2</v>
       </c>
       <c r="C74" t="n">
-        <v>12.51</v>
+        <v>12.2</v>
       </c>
       <c r="D74" t="n">
-        <v>12.51</v>
+        <v>12.2</v>
       </c>
       <c r="E74" t="n">
-        <v>12.51</v>
+        <v>12.2</v>
       </c>
       <c r="F74" t="n">
-        <v>3006</v>
+        <v>128136.9431</v>
       </c>
       <c r="G74" t="n">
-        <v>-1921313.644419101</v>
+        <v>-2729188.157265726</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.42</v>
+        <v>12.22</v>
       </c>
       <c r="C75" t="n">
-        <v>12.33</v>
+        <v>12.4</v>
       </c>
       <c r="D75" t="n">
-        <v>12.42</v>
+        <v>12.4</v>
       </c>
       <c r="E75" t="n">
-        <v>12.33</v>
+        <v>12.22</v>
       </c>
       <c r="F75" t="n">
-        <v>26101.8488</v>
+        <v>169.9999</v>
       </c>
       <c r="G75" t="n">
-        <v>-1947415.493219101</v>
+        <v>-2729018.157365726</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C76" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D76" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E76" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F76" t="n">
-        <v>41</v>
+        <v>40.3226</v>
       </c>
       <c r="G76" t="n">
-        <v>-1947374.493219101</v>
+        <v>-2729018.157365726</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3061,19 +3141,19 @@
         <v>12.5</v>
       </c>
       <c r="C77" t="n">
-        <v>12.5</v>
+        <v>12.63</v>
       </c>
       <c r="D77" t="n">
-        <v>12.5</v>
+        <v>12.63</v>
       </c>
       <c r="E77" t="n">
         <v>12.5</v>
       </c>
       <c r="F77" t="n">
-        <v>4424</v>
+        <v>131123.027</v>
       </c>
       <c r="G77" t="n">
-        <v>-1947374.493219101</v>
+        <v>-2597895.130365727</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.43</v>
+        <v>12.63</v>
       </c>
       <c r="C78" t="n">
-        <v>12.43</v>
+        <v>12.63</v>
       </c>
       <c r="D78" t="n">
-        <v>12.43</v>
+        <v>12.63</v>
       </c>
       <c r="E78" t="n">
-        <v>12.43</v>
+        <v>12.63</v>
       </c>
       <c r="F78" t="n">
-        <v>26236.1405</v>
+        <v>184457.0749</v>
       </c>
       <c r="G78" t="n">
-        <v>-1973610.633719101</v>
+        <v>-2597895.130365727</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.71</v>
+        <v>12.78</v>
       </c>
       <c r="C79" t="n">
-        <v>12.64</v>
+        <v>12.78</v>
       </c>
       <c r="D79" t="n">
-        <v>12.71</v>
+        <v>12.78</v>
       </c>
       <c r="E79" t="n">
-        <v>12.64</v>
+        <v>12.78</v>
       </c>
       <c r="F79" t="n">
-        <v>9170.9432</v>
+        <v>46295.8588</v>
       </c>
       <c r="G79" t="n">
-        <v>-1964439.690519101</v>
+        <v>-2551599.271565726</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.64</v>
+        <v>12.78</v>
       </c>
       <c r="C80" t="n">
-        <v>12.74</v>
+        <v>12.81</v>
       </c>
       <c r="D80" t="n">
-        <v>12.74</v>
+        <v>12.82</v>
       </c>
       <c r="E80" t="n">
-        <v>12.64</v>
+        <v>12.78</v>
       </c>
       <c r="F80" t="n">
-        <v>21845.5180533752</v>
+        <v>221561.795</v>
       </c>
       <c r="G80" t="n">
-        <v>-1942594.172465726</v>
+        <v>-2330037.476565727</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.63</v>
+        <v>12.81</v>
       </c>
       <c r="C81" t="n">
-        <v>12.63</v>
+        <v>12.82</v>
       </c>
       <c r="D81" t="n">
-        <v>12.63</v>
+        <v>12.82</v>
       </c>
       <c r="E81" t="n">
-        <v>12.63</v>
+        <v>12.81</v>
       </c>
       <c r="F81" t="n">
-        <v>18253.1343</v>
+        <v>23829.6832</v>
       </c>
       <c r="G81" t="n">
-        <v>-1960847.306765726</v>
+        <v>-2306207.793365727</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.63</v>
+        <v>12.81</v>
       </c>
       <c r="C82" t="n">
-        <v>12.63</v>
+        <v>12.81</v>
       </c>
       <c r="D82" t="n">
-        <v>12.63</v>
+        <v>12.81</v>
       </c>
       <c r="E82" t="n">
-        <v>12.63</v>
+        <v>12.81</v>
       </c>
       <c r="F82" t="n">
-        <v>142.9932</v>
+        <v>8564.007</v>
       </c>
       <c r="G82" t="n">
-        <v>-1960847.306765726</v>
+        <v>-2314771.800365727</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.64</v>
+        <v>12.78</v>
       </c>
       <c r="C83" t="n">
-        <v>12.64</v>
+        <v>12.78</v>
       </c>
       <c r="D83" t="n">
-        <v>12.64</v>
+        <v>12.78</v>
       </c>
       <c r="E83" t="n">
-        <v>12.64</v>
+        <v>12.78</v>
       </c>
       <c r="F83" t="n">
-        <v>3449</v>
+        <v>27129</v>
       </c>
       <c r="G83" t="n">
-        <v>-1957398.306765726</v>
+        <v>-2341900.800365727</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.61</v>
+        <v>12.78</v>
       </c>
       <c r="C84" t="n">
-        <v>12.61</v>
+        <v>12.78</v>
       </c>
       <c r="D84" t="n">
-        <v>12.61</v>
+        <v>12.78</v>
       </c>
       <c r="E84" t="n">
-        <v>12.61</v>
+        <v>12.78</v>
       </c>
       <c r="F84" t="n">
-        <v>28516.6536</v>
+        <v>8.6876</v>
       </c>
       <c r="G84" t="n">
-        <v>-1985914.960365726</v>
+        <v>-2341900.800365727</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.75</v>
+        <v>12.46</v>
       </c>
       <c r="C85" t="n">
-        <v>12.75</v>
+        <v>12.46</v>
       </c>
       <c r="D85" t="n">
-        <v>12.75</v>
+        <v>12.46</v>
       </c>
       <c r="E85" t="n">
-        <v>12.75</v>
+        <v>12.46</v>
       </c>
       <c r="F85" t="n">
-        <v>39.3</v>
+        <v>20779</v>
       </c>
       <c r="G85" t="n">
-        <v>-1985875.660365726</v>
+        <v>-2362679.800365727</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.75</v>
+        <v>12.68</v>
       </c>
       <c r="C86" t="n">
-        <v>12.83</v>
+        <v>12.68</v>
       </c>
       <c r="D86" t="n">
-        <v>12.83</v>
+        <v>12.68</v>
       </c>
       <c r="E86" t="n">
-        <v>12.75</v>
+        <v>12.68</v>
       </c>
       <c r="F86" t="n">
-        <v>16340.2153</v>
+        <v>2125.8614</v>
       </c>
       <c r="G86" t="n">
-        <v>-1969535.445065726</v>
+        <v>-2360553.938965727</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.73</v>
+        <v>12.37</v>
       </c>
       <c r="C87" t="n">
-        <v>12.73</v>
+        <v>12.45</v>
       </c>
       <c r="D87" t="n">
-        <v>12.73</v>
+        <v>12.45</v>
       </c>
       <c r="E87" t="n">
-        <v>12.73</v>
+        <v>12.37</v>
       </c>
       <c r="F87" t="n">
-        <v>508.4468</v>
+        <v>40779.0097</v>
       </c>
       <c r="G87" t="n">
-        <v>-1970043.891865726</v>
+        <v>-2401332.948665727</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,63 +3527,69 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.63</v>
+        <v>12.45</v>
       </c>
       <c r="C88" t="n">
-        <v>12.63</v>
+        <v>12.45</v>
       </c>
       <c r="D88" t="n">
-        <v>12.63</v>
+        <v>12.45</v>
       </c>
       <c r="E88" t="n">
-        <v>12.63</v>
+        <v>12.45</v>
       </c>
       <c r="F88" t="n">
-        <v>3529</v>
+        <v>3780</v>
       </c>
       <c r="G88" t="n">
-        <v>-1973572.891865726</v>
+        <v>-2401332.948665727</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="K88" t="n">
+        <v>12.45</v>
+      </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.56</v>
+        <v>12.59</v>
       </c>
       <c r="C89" t="n">
-        <v>12.56</v>
+        <v>12.59</v>
       </c>
       <c r="D89" t="n">
-        <v>12.56</v>
+        <v>12.59</v>
       </c>
       <c r="E89" t="n">
-        <v>12.56</v>
+        <v>12.59</v>
       </c>
       <c r="F89" t="n">
-        <v>38281.3417</v>
+        <v>4435.9706</v>
       </c>
       <c r="G89" t="n">
-        <v>-2011854.233565726</v>
+        <v>-2396896.978065727</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,33 +3598,40 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="C90" t="n">
         <v>12.56</v>
       </c>
-      <c r="C90" t="n">
-        <v>12.5</v>
-      </c>
       <c r="D90" t="n">
-        <v>12.56</v>
+        <v>12.67</v>
       </c>
       <c r="E90" t="n">
-        <v>12.5</v>
+        <v>12.45</v>
       </c>
       <c r="F90" t="n">
-        <v>17939.3003</v>
+        <v>21484.0306</v>
       </c>
       <c r="G90" t="n">
-        <v>-2029793.533865726</v>
+        <v>-2418381.008665727</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,33 +3640,40 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.45</v>
+        <v>12.55</v>
       </c>
       <c r="C91" t="n">
-        <v>12.43</v>
+        <v>12.55</v>
       </c>
       <c r="D91" t="n">
-        <v>12.45</v>
+        <v>12.55</v>
       </c>
       <c r="E91" t="n">
-        <v>12.43</v>
+        <v>12.55</v>
       </c>
       <c r="F91" t="n">
-        <v>45734.9763</v>
+        <v>5034.6609</v>
       </c>
       <c r="G91" t="n">
-        <v>-2075528.510165726</v>
+        <v>-2423415.669565727</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,33 +3682,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.4</v>
+        <v>12.55</v>
       </c>
       <c r="C92" t="n">
-        <v>12.4</v>
+        <v>12.55</v>
       </c>
       <c r="D92" t="n">
-        <v>12.4</v>
+        <v>12.55</v>
       </c>
       <c r="E92" t="n">
-        <v>12.4</v>
+        <v>12.55</v>
       </c>
       <c r="F92" t="n">
-        <v>111514.9205</v>
+        <v>3145</v>
       </c>
       <c r="G92" t="n">
-        <v>-2187043.430665726</v>
+        <v>-2423415.669565727</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,33 +3724,40 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.71</v>
+        <v>12.66</v>
       </c>
       <c r="C93" t="n">
-        <v>12.71</v>
+        <v>12.55</v>
       </c>
       <c r="D93" t="n">
-        <v>12.71</v>
+        <v>12.67</v>
       </c>
       <c r="E93" t="n">
-        <v>12.71</v>
+        <v>12.55</v>
       </c>
       <c r="F93" t="n">
-        <v>198.3509</v>
+        <v>3039.2925</v>
       </c>
       <c r="G93" t="n">
-        <v>-2186845.079765726</v>
+        <v>-2423415.669565727</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,33 +3766,40 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.4</v>
+        <v>12.45</v>
       </c>
       <c r="C94" t="n">
-        <v>12.36</v>
+        <v>12.35</v>
       </c>
       <c r="D94" t="n">
-        <v>12.4</v>
+        <v>12.45</v>
       </c>
       <c r="E94" t="n">
-        <v>12.36</v>
+        <v>12.35</v>
       </c>
       <c r="F94" t="n">
-        <v>80923.2945</v>
+        <v>21164.3356</v>
       </c>
       <c r="G94" t="n">
-        <v>-2267768.374265726</v>
+        <v>-2444580.005165727</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,33 +3808,40 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.35</v>
+        <v>12.3</v>
       </c>
       <c r="C95" t="n">
-        <v>12.35</v>
+        <v>12.45</v>
       </c>
       <c r="D95" t="n">
-        <v>12.35</v>
+        <v>12.45</v>
       </c>
       <c r="E95" t="n">
-        <v>12.35</v>
+        <v>12.3</v>
       </c>
       <c r="F95" t="n">
-        <v>23357.7501</v>
+        <v>63981.6344</v>
       </c>
       <c r="G95" t="n">
-        <v>-2291126.124365726</v>
+        <v>-2380598.370765727</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,33 +3850,40 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.61</v>
+        <v>12.55</v>
       </c>
       <c r="C96" t="n">
-        <v>12.83</v>
+        <v>12.54</v>
       </c>
       <c r="D96" t="n">
-        <v>12.83</v>
+        <v>12.55</v>
       </c>
       <c r="E96" t="n">
-        <v>12.61</v>
+        <v>12.54</v>
       </c>
       <c r="F96" t="n">
-        <v>98507.2674</v>
+        <v>1348.1938</v>
       </c>
       <c r="G96" t="n">
-        <v>-2192618.856965726</v>
+        <v>-2379250.176965727</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,33 +3892,40 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.83</v>
+        <v>12.32</v>
       </c>
       <c r="C97" t="n">
-        <v>12.83</v>
+        <v>12.32</v>
       </c>
       <c r="D97" t="n">
-        <v>12.83</v>
+        <v>12.32</v>
       </c>
       <c r="E97" t="n">
-        <v>12.83</v>
+        <v>12.32</v>
       </c>
       <c r="F97" t="n">
-        <v>170765.3038</v>
+        <v>40006.9297</v>
       </c>
       <c r="G97" t="n">
-        <v>-2192618.856965726</v>
+        <v>-2419257.106665727</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,33 +3934,40 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.83</v>
+        <v>12.54</v>
       </c>
       <c r="C98" t="n">
-        <v>12.83</v>
+        <v>12.54</v>
       </c>
       <c r="D98" t="n">
-        <v>12.83</v>
+        <v>12.54</v>
       </c>
       <c r="E98" t="n">
-        <v>12.83</v>
+        <v>12.54</v>
       </c>
       <c r="F98" t="n">
-        <v>19095.3979</v>
+        <v>397.9189</v>
       </c>
       <c r="G98" t="n">
-        <v>-2192618.856965726</v>
+        <v>-2418859.187765727</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,33 +3976,40 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.85</v>
+        <v>12.49</v>
       </c>
       <c r="C99" t="n">
-        <v>12.83</v>
+        <v>12.49</v>
       </c>
       <c r="D99" t="n">
-        <v>12.85</v>
+        <v>12.49</v>
       </c>
       <c r="E99" t="n">
-        <v>12.83</v>
+        <v>12.49</v>
       </c>
       <c r="F99" t="n">
-        <v>32656.8913</v>
+        <v>20000</v>
       </c>
       <c r="G99" t="n">
-        <v>-2192618.856965726</v>
+        <v>-2438859.187765727</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,33 +4018,40 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.73</v>
+        <v>12.49</v>
       </c>
       <c r="C100" t="n">
-        <v>12.73</v>
+        <v>12.49</v>
       </c>
       <c r="D100" t="n">
-        <v>12.73</v>
+        <v>12.49</v>
       </c>
       <c r="E100" t="n">
-        <v>12.73</v>
+        <v>12.49</v>
       </c>
       <c r="F100" t="n">
-        <v>3775</v>
+        <v>941.6427</v>
       </c>
       <c r="G100" t="n">
-        <v>-2196393.856965726</v>
+        <v>-2438859.187765727</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,33 +4060,40 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.74</v>
+        <v>12.33</v>
       </c>
       <c r="C101" t="n">
-        <v>12.73</v>
+        <v>12.33</v>
       </c>
       <c r="D101" t="n">
-        <v>12.74</v>
+        <v>12.33</v>
       </c>
       <c r="E101" t="n">
-        <v>12.73</v>
+        <v>12.33</v>
       </c>
       <c r="F101" t="n">
-        <v>9841.799499999999</v>
+        <v>5807.7614</v>
       </c>
       <c r="G101" t="n">
-        <v>-2196393.856965726</v>
+        <v>-2444666.949165727</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,33 +4102,40 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.73</v>
+        <v>12.43</v>
       </c>
       <c r="C102" t="n">
-        <v>12.73</v>
+        <v>12.43</v>
       </c>
       <c r="D102" t="n">
-        <v>12.73</v>
+        <v>12.43</v>
       </c>
       <c r="E102" t="n">
-        <v>12.73</v>
+        <v>12.43</v>
       </c>
       <c r="F102" t="n">
-        <v>34625.9605</v>
+        <v>558.1106</v>
       </c>
       <c r="G102" t="n">
-        <v>-2196393.856965726</v>
+        <v>-2444108.838565728</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,33 +4144,40 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.63</v>
+        <v>12.31</v>
       </c>
       <c r="C103" t="n">
-        <v>12.63</v>
+        <v>12.3</v>
       </c>
       <c r="D103" t="n">
-        <v>12.63</v>
+        <v>12.31</v>
       </c>
       <c r="E103" t="n">
-        <v>12.63</v>
+        <v>12.3</v>
       </c>
       <c r="F103" t="n">
-        <v>6154.1253</v>
+        <v>9893.3799</v>
       </c>
       <c r="G103" t="n">
-        <v>-2202547.982265726</v>
+        <v>-2454002.218465728</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,33 +4186,40 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.61</v>
+        <v>12.42</v>
       </c>
       <c r="C104" t="n">
-        <v>12.51</v>
+        <v>12.42</v>
       </c>
       <c r="D104" t="n">
-        <v>12.61</v>
+        <v>12.42</v>
       </c>
       <c r="E104" t="n">
-        <v>12.51</v>
+        <v>12.42</v>
       </c>
       <c r="F104" t="n">
-        <v>3370.6526</v>
+        <v>502.8266</v>
       </c>
       <c r="G104" t="n">
-        <v>-2205918.634865726</v>
+        <v>-2453499.391865728</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,33 +4228,40 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.52</v>
+        <v>12.42</v>
       </c>
       <c r="C105" t="n">
-        <v>12.41</v>
+        <v>12.42</v>
       </c>
       <c r="D105" t="n">
-        <v>12.52</v>
+        <v>12.42</v>
       </c>
       <c r="E105" t="n">
-        <v>12.41</v>
+        <v>12.42</v>
       </c>
       <c r="F105" t="n">
-        <v>274425.3091</v>
+        <v>54365.3004</v>
       </c>
       <c r="G105" t="n">
-        <v>-2480343.943965726</v>
+        <v>-2453499.391865728</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,33 +4270,40 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.41</v>
+        <v>12.43</v>
       </c>
       <c r="C106" t="n">
-        <v>12.41</v>
+        <v>12.43</v>
       </c>
       <c r="D106" t="n">
-        <v>12.41</v>
+        <v>12.43</v>
       </c>
       <c r="E106" t="n">
-        <v>12.41</v>
+        <v>12.43</v>
       </c>
       <c r="F106" t="n">
-        <v>19741.9248</v>
+        <v>452.2901</v>
       </c>
       <c r="G106" t="n">
-        <v>-2480343.943965726</v>
+        <v>-2453047.101765728</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,33 +4312,40 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.41</v>
+        <v>12.31</v>
       </c>
       <c r="C107" t="n">
-        <v>12.41</v>
+        <v>12.43</v>
       </c>
       <c r="D107" t="n">
-        <v>12.41</v>
+        <v>12.43</v>
       </c>
       <c r="E107" t="n">
-        <v>12.41</v>
+        <v>12.31</v>
       </c>
       <c r="F107" t="n">
-        <v>46506.8269</v>
+        <v>3943.4794</v>
       </c>
       <c r="G107" t="n">
-        <v>-2480343.943965726</v>
+        <v>-2453047.101765728</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,33 +4354,40 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.41</v>
+        <v>12.5</v>
       </c>
       <c r="C108" t="n">
-        <v>12.41</v>
+        <v>12.5</v>
       </c>
       <c r="D108" t="n">
-        <v>12.41</v>
+        <v>12.51</v>
       </c>
       <c r="E108" t="n">
-        <v>12.41</v>
+        <v>12.5</v>
       </c>
       <c r="F108" t="n">
-        <v>1810.5647</v>
+        <v>59618.8741</v>
       </c>
       <c r="G108" t="n">
-        <v>-2480343.943965726</v>
+        <v>-2393428.227665728</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,33 +4396,40 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.41</v>
+        <v>12.31</v>
       </c>
       <c r="C109" t="n">
-        <v>12.3</v>
+        <v>12.31</v>
       </c>
       <c r="D109" t="n">
-        <v>12.41</v>
+        <v>12.31</v>
       </c>
       <c r="E109" t="n">
-        <v>12.3</v>
+        <v>12.31</v>
       </c>
       <c r="F109" t="n">
-        <v>140749.0019</v>
+        <v>1927.2921</v>
       </c>
       <c r="G109" t="n">
-        <v>-2621092.945865726</v>
+        <v>-2395355.519765728</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,33 +4438,40 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.4</v>
+        <v>12.49</v>
       </c>
       <c r="C110" t="n">
-        <v>12.4</v>
+        <v>12.49</v>
       </c>
       <c r="D110" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E110" t="n">
-        <v>12.4</v>
+        <v>12.49</v>
       </c>
       <c r="F110" t="n">
-        <v>41</v>
+        <v>692.626</v>
       </c>
       <c r="G110" t="n">
-        <v>-2621051.945865726</v>
+        <v>-2394662.893765728</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4237,33 +4480,40 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.55</v>
+        <v>12.5</v>
       </c>
       <c r="C111" t="n">
-        <v>12.55</v>
+        <v>12.5</v>
       </c>
       <c r="D111" t="n">
-        <v>12.55</v>
+        <v>12.5</v>
       </c>
       <c r="E111" t="n">
-        <v>12.55</v>
+        <v>12.5</v>
       </c>
       <c r="F111" t="n">
-        <v>40</v>
+        <v>44.8095</v>
       </c>
       <c r="G111" t="n">
-        <v>-2621011.945865726</v>
+        <v>-2394618.084265728</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -4272,37 +4522,42 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>12.4</v>
+        <v>12.49</v>
       </c>
       <c r="K111" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L111" t="inlineStr"/>
+        <v>12.45</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.53</v>
+        <v>12.43</v>
       </c>
       <c r="C112" t="n">
-        <v>12.53</v>
+        <v>12.31</v>
       </c>
       <c r="D112" t="n">
-        <v>12.53</v>
+        <v>12.43</v>
       </c>
       <c r="E112" t="n">
-        <v>12.53</v>
+        <v>12.31</v>
       </c>
       <c r="F112" t="n">
-        <v>51.0961</v>
+        <v>1416</v>
       </c>
       <c r="G112" t="n">
-        <v>-2621063.041965726</v>
+        <v>-2396034.084265728</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,38 +4567,39 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>12.4</v>
+        <v>12.45</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C113" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D113" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E113" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F113" t="n">
-        <v>638.7596</v>
+        <v>1064.356</v>
       </c>
       <c r="G113" t="n">
-        <v>-2621701.801565726</v>
+        <v>-2394969.728265728</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,38 +4609,39 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>12.4</v>
+        <v>12.45</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.36</v>
+        <v>12.5</v>
       </c>
       <c r="C114" t="n">
-        <v>12.12</v>
+        <v>12.5</v>
       </c>
       <c r="D114" t="n">
-        <v>12.36</v>
+        <v>12.5</v>
       </c>
       <c r="E114" t="n">
-        <v>12.12</v>
+        <v>12.5</v>
       </c>
       <c r="F114" t="n">
-        <v>324511.0949</v>
+        <v>23000</v>
       </c>
       <c r="G114" t="n">
-        <v>-2946212.896465726</v>
+        <v>-2394969.728265728</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4393,33 +4650,40 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.2</v>
+        <v>12.53</v>
       </c>
       <c r="C115" t="n">
-        <v>12.19</v>
+        <v>12.53</v>
       </c>
       <c r="D115" t="n">
-        <v>12.2</v>
+        <v>12.53</v>
       </c>
       <c r="E115" t="n">
-        <v>12.19</v>
+        <v>12.53</v>
       </c>
       <c r="F115" t="n">
-        <v>88887.79610000001</v>
+        <v>24419.3196</v>
       </c>
       <c r="G115" t="n">
-        <v>-2857325.100365726</v>
+        <v>-2370550.408665728</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4428,33 +4692,40 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.2</v>
+        <v>12.41</v>
       </c>
       <c r="C116" t="n">
-        <v>12.2</v>
+        <v>12.31</v>
       </c>
       <c r="D116" t="n">
-        <v>12.2</v>
+        <v>12.41</v>
       </c>
       <c r="E116" t="n">
-        <v>12.2</v>
+        <v>12.31</v>
       </c>
       <c r="F116" t="n">
-        <v>128136.9431</v>
+        <v>38473.2111</v>
       </c>
       <c r="G116" t="n">
-        <v>-2729188.157265726</v>
+        <v>-2409023.619765728</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4463,33 +4734,40 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12.22</v>
+        <v>12.32</v>
       </c>
       <c r="C117" t="n">
-        <v>12.4</v>
+        <v>12.32</v>
       </c>
       <c r="D117" t="n">
-        <v>12.4</v>
+        <v>12.32</v>
       </c>
       <c r="E117" t="n">
-        <v>12.22</v>
+        <v>12.32</v>
       </c>
       <c r="F117" t="n">
-        <v>169.9999</v>
+        <v>23220.044</v>
       </c>
       <c r="G117" t="n">
-        <v>-2729018.157365726</v>
+        <v>-2385803.575765728</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4498,72 +4776,82 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.4</v>
+        <v>12.32</v>
       </c>
       <c r="C118" t="n">
-        <v>12.4</v>
+        <v>12.32</v>
       </c>
       <c r="D118" t="n">
-        <v>12.4</v>
+        <v>12.32</v>
       </c>
       <c r="E118" t="n">
-        <v>12.4</v>
+        <v>12.32</v>
       </c>
       <c r="F118" t="n">
-        <v>40.3226</v>
+        <v>52.3211</v>
       </c>
       <c r="G118" t="n">
-        <v>-2729018.157365726</v>
+        <v>-2385803.575765728</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L118" t="inlineStr"/>
+        <v>12.45</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.5</v>
+        <v>12.32</v>
       </c>
       <c r="C119" t="n">
-        <v>12.63</v>
+        <v>12.32</v>
       </c>
       <c r="D119" t="n">
-        <v>12.63</v>
+        <v>12.32</v>
       </c>
       <c r="E119" t="n">
-        <v>12.5</v>
+        <v>12.32</v>
       </c>
       <c r="F119" t="n">
-        <v>131123.027</v>
+        <v>4786.1998</v>
       </c>
       <c r="G119" t="n">
-        <v>-2597895.130365727</v>
+        <v>-2385803.575765728</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
@@ -4572,41 +4860,42 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>12.4</v>
+        <v>12.32</v>
       </c>
       <c r="K119" t="n">
-        <v>12.4</v>
+        <v>12.45</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.63</v>
+        <v>12.36</v>
       </c>
       <c r="C120" t="n">
-        <v>12.63</v>
+        <v>12.36</v>
       </c>
       <c r="D120" t="n">
-        <v>12.63</v>
+        <v>12.36</v>
       </c>
       <c r="E120" t="n">
-        <v>12.63</v>
+        <v>12.36</v>
       </c>
       <c r="F120" t="n">
-        <v>184457.0749</v>
+        <v>9474</v>
       </c>
       <c r="G120" t="n">
-        <v>-2597895.130365727</v>
+        <v>-2376329.575765728</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -4615,41 +4904,42 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>12.63</v>
+        <v>12.32</v>
       </c>
       <c r="K120" t="n">
-        <v>12.4</v>
+        <v>12.45</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12.78</v>
+        <v>12.36</v>
       </c>
       <c r="C121" t="n">
-        <v>12.78</v>
+        <v>12.35</v>
       </c>
       <c r="D121" t="n">
-        <v>12.78</v>
+        <v>12.36</v>
       </c>
       <c r="E121" t="n">
-        <v>12.78</v>
+        <v>12.35</v>
       </c>
       <c r="F121" t="n">
-        <v>46295.8588</v>
+        <v>8044.2857</v>
       </c>
       <c r="G121" t="n">
-        <v>-2551599.271565726</v>
+        <v>-2384373.861465727</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4658,33 +4948,40 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12.78</v>
+        <v>12.37</v>
       </c>
       <c r="C122" t="n">
-        <v>12.81</v>
+        <v>12.37</v>
       </c>
       <c r="D122" t="n">
-        <v>12.82</v>
+        <v>12.37</v>
       </c>
       <c r="E122" t="n">
-        <v>12.78</v>
+        <v>12.37</v>
       </c>
       <c r="F122" t="n">
-        <v>221561.795</v>
+        <v>10560</v>
       </c>
       <c r="G122" t="n">
-        <v>-2330037.476565727</v>
+        <v>-2373813.861465727</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4693,68 +4990,84 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12.81</v>
+        <v>12.47</v>
       </c>
       <c r="C123" t="n">
-        <v>12.82</v>
+        <v>12.48</v>
       </c>
       <c r="D123" t="n">
-        <v>12.82</v>
+        <v>12.48</v>
       </c>
       <c r="E123" t="n">
-        <v>12.81</v>
+        <v>12.47</v>
       </c>
       <c r="F123" t="n">
-        <v>23829.6832</v>
+        <v>3152.3211</v>
       </c>
       <c r="G123" t="n">
-        <v>-2306207.793365727</v>
+        <v>-2370661.540365728</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="K123" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.81</v>
+        <v>12.51</v>
       </c>
       <c r="C124" t="n">
-        <v>12.81</v>
+        <v>12.51</v>
       </c>
       <c r="D124" t="n">
-        <v>12.81</v>
+        <v>12.51</v>
       </c>
       <c r="E124" t="n">
-        <v>12.81</v>
+        <v>12.51</v>
       </c>
       <c r="F124" t="n">
-        <v>8564.007</v>
+        <v>2912</v>
       </c>
       <c r="G124" t="n">
-        <v>-2314771.800365727</v>
+        <v>-2367749.540365728</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4763,68 +5076,84 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>12.78</v>
+        <v>12.51</v>
       </c>
       <c r="C125" t="n">
-        <v>12.78</v>
+        <v>12.51</v>
       </c>
       <c r="D125" t="n">
-        <v>12.78</v>
+        <v>12.51</v>
       </c>
       <c r="E125" t="n">
-        <v>12.78</v>
+        <v>12.51</v>
       </c>
       <c r="F125" t="n">
-        <v>27129</v>
+        <v>21043.9237</v>
       </c>
       <c r="G125" t="n">
-        <v>-2341900.800365727</v>
+        <v>-2367749.540365728</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="K125" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>12.78</v>
+        <v>12.52</v>
       </c>
       <c r="C126" t="n">
-        <v>12.78</v>
+        <v>12.52</v>
       </c>
       <c r="D126" t="n">
-        <v>12.78</v>
+        <v>12.52</v>
       </c>
       <c r="E126" t="n">
-        <v>12.78</v>
+        <v>12.52</v>
       </c>
       <c r="F126" t="n">
-        <v>8.6876</v>
+        <v>265.4996</v>
       </c>
       <c r="G126" t="n">
-        <v>-2341900.800365727</v>
+        <v>-2367484.040765727</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4833,68 +5162,84 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>12.46</v>
+        <v>12.51</v>
       </c>
       <c r="C127" t="n">
-        <v>12.46</v>
+        <v>12.51</v>
       </c>
       <c r="D127" t="n">
-        <v>12.46</v>
+        <v>12.51</v>
       </c>
       <c r="E127" t="n">
-        <v>12.46</v>
+        <v>12.51</v>
       </c>
       <c r="F127" t="n">
-        <v>20779</v>
+        <v>1078</v>
       </c>
       <c r="G127" t="n">
-        <v>-2362679.800365727</v>
+        <v>-2368562.040765727</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="K127" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>12.68</v>
+        <v>12.51</v>
       </c>
       <c r="C128" t="n">
-        <v>12.68</v>
+        <v>12.51</v>
       </c>
       <c r="D128" t="n">
-        <v>12.68</v>
+        <v>12.51</v>
       </c>
       <c r="E128" t="n">
-        <v>12.68</v>
+        <v>12.51</v>
       </c>
       <c r="F128" t="n">
-        <v>2125.8614</v>
+        <v>7873.7625</v>
       </c>
       <c r="G128" t="n">
-        <v>-2360553.938965727</v>
+        <v>-2368562.040765727</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4903,33 +5248,40 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="C129" t="n">
         <v>12.37</v>
       </c>
-      <c r="C129" t="n">
-        <v>12.45</v>
-      </c>
       <c r="D129" t="n">
-        <v>12.45</v>
+        <v>12.47</v>
       </c>
       <c r="E129" t="n">
         <v>12.37</v>
       </c>
       <c r="F129" t="n">
-        <v>40779.0097</v>
+        <v>91667.9332</v>
       </c>
       <c r="G129" t="n">
-        <v>-2401332.948665727</v>
+        <v>-2460229.973965727</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4938,33 +5290,40 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>12.45</v>
+        <v>12.3</v>
       </c>
       <c r="C130" t="n">
-        <v>12.45</v>
+        <v>12.3</v>
       </c>
       <c r="D130" t="n">
-        <v>12.45</v>
+        <v>12.3</v>
       </c>
       <c r="E130" t="n">
-        <v>12.45</v>
+        <v>12.3</v>
       </c>
       <c r="F130" t="n">
-        <v>3780</v>
+        <v>1000</v>
       </c>
       <c r="G130" t="n">
-        <v>-2401332.948665727</v>
+        <v>-2461229.973965727</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4973,33 +5332,40 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>12.59</v>
+        <v>12.37</v>
       </c>
       <c r="C131" t="n">
-        <v>12.59</v>
+        <v>12.37</v>
       </c>
       <c r="D131" t="n">
-        <v>12.59</v>
+        <v>12.37</v>
       </c>
       <c r="E131" t="n">
-        <v>12.59</v>
+        <v>12.37</v>
       </c>
       <c r="F131" t="n">
-        <v>4435.9706</v>
+        <v>241.9061</v>
       </c>
       <c r="G131" t="n">
-        <v>-2396896.978065727</v>
+        <v>-2460988.067865727</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5008,33 +5374,40 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>12.45</v>
+        <v>12.37</v>
       </c>
       <c r="C132" t="n">
-        <v>12.56</v>
+        <v>12.37</v>
       </c>
       <c r="D132" t="n">
-        <v>12.67</v>
+        <v>12.37</v>
       </c>
       <c r="E132" t="n">
-        <v>12.45</v>
+        <v>12.37</v>
       </c>
       <c r="F132" t="n">
-        <v>21484.0306</v>
+        <v>15820.5527</v>
       </c>
       <c r="G132" t="n">
-        <v>-2418381.008665727</v>
+        <v>-2460988.067865727</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5043,33 +5416,40 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>12.55</v>
+        <v>12.51</v>
       </c>
       <c r="C133" t="n">
-        <v>12.55</v>
+        <v>12.59</v>
       </c>
       <c r="D133" t="n">
-        <v>12.55</v>
+        <v>12.59</v>
       </c>
       <c r="E133" t="n">
-        <v>12.55</v>
+        <v>12.51</v>
       </c>
       <c r="F133" t="n">
-        <v>5034.6609</v>
+        <v>232.8093</v>
       </c>
       <c r="G133" t="n">
-        <v>-2423415.669565727</v>
+        <v>-2460755.258565728</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5078,33 +5458,40 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>12.55</v>
+        <v>12.51</v>
       </c>
       <c r="C134" t="n">
-        <v>12.55</v>
+        <v>12.51</v>
       </c>
       <c r="D134" t="n">
-        <v>12.55</v>
+        <v>12.51</v>
       </c>
       <c r="E134" t="n">
-        <v>12.55</v>
+        <v>12.51</v>
       </c>
       <c r="F134" t="n">
-        <v>3145</v>
+        <v>134.3939</v>
       </c>
       <c r="G134" t="n">
-        <v>-2423415.669565727</v>
+        <v>-2460889.652465728</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5113,33 +5500,40 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>12.66</v>
+        <v>12.38</v>
       </c>
       <c r="C135" t="n">
-        <v>12.55</v>
+        <v>12.38</v>
       </c>
       <c r="D135" t="n">
-        <v>12.67</v>
+        <v>12.38</v>
       </c>
       <c r="E135" t="n">
-        <v>12.55</v>
+        <v>12.38</v>
       </c>
       <c r="F135" t="n">
-        <v>3039.2925</v>
+        <v>69.8036</v>
       </c>
       <c r="G135" t="n">
-        <v>-2423415.669565727</v>
+        <v>-2460959.456065728</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5148,33 +5542,40 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>12.45</v>
+        <v>12.37</v>
       </c>
       <c r="C136" t="n">
-        <v>12.35</v>
+        <v>12.37</v>
       </c>
       <c r="D136" t="n">
-        <v>12.45</v>
+        <v>12.37</v>
       </c>
       <c r="E136" t="n">
-        <v>12.35</v>
+        <v>12.37</v>
       </c>
       <c r="F136" t="n">
-        <v>21164.3356</v>
+        <v>48690.7639</v>
       </c>
       <c r="G136" t="n">
-        <v>-2444580.005165727</v>
+        <v>-2509650.219965728</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5183,33 +5584,40 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>12.3</v>
+        <v>12.31</v>
       </c>
       <c r="C137" t="n">
-        <v>12.45</v>
+        <v>12.31</v>
       </c>
       <c r="D137" t="n">
-        <v>12.45</v>
+        <v>12.31</v>
       </c>
       <c r="E137" t="n">
-        <v>12.3</v>
+        <v>12.31</v>
       </c>
       <c r="F137" t="n">
-        <v>63981.6344</v>
+        <v>52.6891</v>
       </c>
       <c r="G137" t="n">
-        <v>-2380598.370765727</v>
+        <v>-2509702.909065728</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5218,33 +5626,40 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>12.55</v>
+        <v>12.31</v>
       </c>
       <c r="C138" t="n">
-        <v>12.54</v>
+        <v>12.31</v>
       </c>
       <c r="D138" t="n">
-        <v>12.55</v>
+        <v>12.31</v>
       </c>
       <c r="E138" t="n">
-        <v>12.54</v>
+        <v>12.31</v>
       </c>
       <c r="F138" t="n">
-        <v>1348.1938</v>
+        <v>30748.0305</v>
       </c>
       <c r="G138" t="n">
-        <v>-2379250.176965727</v>
+        <v>-2509702.909065728</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5253,33 +5668,40 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>12.32</v>
+        <v>12.31</v>
       </c>
       <c r="C139" t="n">
-        <v>12.32</v>
+        <v>12.29</v>
       </c>
       <c r="D139" t="n">
-        <v>12.32</v>
+        <v>12.31</v>
       </c>
       <c r="E139" t="n">
-        <v>12.32</v>
+        <v>12.29</v>
       </c>
       <c r="F139" t="n">
-        <v>40006.9297</v>
+        <v>78409.8692</v>
       </c>
       <c r="G139" t="n">
-        <v>-2419257.106665727</v>
+        <v>-2588112.778265728</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5288,33 +5710,40 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>12.54</v>
+        <v>12.25</v>
       </c>
       <c r="C140" t="n">
-        <v>12.54</v>
+        <v>12.25</v>
       </c>
       <c r="D140" t="n">
-        <v>12.54</v>
+        <v>12.25</v>
       </c>
       <c r="E140" t="n">
-        <v>12.54</v>
+        <v>12.25</v>
       </c>
       <c r="F140" t="n">
-        <v>397.9189</v>
+        <v>27359.2148</v>
       </c>
       <c r="G140" t="n">
-        <v>-2418859.187765727</v>
+        <v>-2615471.993065728</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5323,68 +5752,84 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>12.49</v>
+        <v>12.25</v>
       </c>
       <c r="C141" t="n">
-        <v>12.49</v>
+        <v>12.11</v>
       </c>
       <c r="D141" t="n">
-        <v>12.49</v>
+        <v>12.25</v>
       </c>
       <c r="E141" t="n">
-        <v>12.49</v>
+        <v>12.11</v>
       </c>
       <c r="F141" t="n">
-        <v>20000</v>
+        <v>219843.5411</v>
       </c>
       <c r="G141" t="n">
-        <v>-2438859.187765727</v>
+        <v>-2835315.534165728</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="K141" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>12.49</v>
+        <v>12.25</v>
       </c>
       <c r="C142" t="n">
-        <v>12.49</v>
+        <v>12.25</v>
       </c>
       <c r="D142" t="n">
-        <v>12.49</v>
+        <v>12.25</v>
       </c>
       <c r="E142" t="n">
-        <v>12.49</v>
+        <v>12.25</v>
       </c>
       <c r="F142" t="n">
-        <v>941.6427</v>
+        <v>159.9075</v>
       </c>
       <c r="G142" t="n">
-        <v>-2438859.187765727</v>
+        <v>-2835155.626665728</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5393,33 +5838,40 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>12.33</v>
+        <v>12.22</v>
       </c>
       <c r="C143" t="n">
-        <v>12.33</v>
+        <v>12.19</v>
       </c>
       <c r="D143" t="n">
-        <v>12.33</v>
+        <v>12.22</v>
       </c>
       <c r="E143" t="n">
-        <v>12.33</v>
+        <v>12.19</v>
       </c>
       <c r="F143" t="n">
-        <v>5807.7614</v>
+        <v>88232.5822</v>
       </c>
       <c r="G143" t="n">
-        <v>-2444666.949165727</v>
+        <v>-2923388.208865728</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5428,33 +5880,40 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>12.43</v>
+        <v>12.2</v>
       </c>
       <c r="C144" t="n">
-        <v>12.43</v>
+        <v>12.18</v>
       </c>
       <c r="D144" t="n">
-        <v>12.43</v>
+        <v>12.2</v>
       </c>
       <c r="E144" t="n">
-        <v>12.43</v>
+        <v>12.18</v>
       </c>
       <c r="F144" t="n">
-        <v>558.1106</v>
+        <v>26904.8946</v>
       </c>
       <c r="G144" t="n">
-        <v>-2444108.838565728</v>
+        <v>-2950293.103465728</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5463,138 +5922,172 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>12.31</v>
+        <v>12.16</v>
       </c>
       <c r="C145" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D145" t="n">
-        <v>12.31</v>
+        <v>12.16</v>
       </c>
       <c r="E145" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F145" t="n">
-        <v>9893.3799</v>
+        <v>100000</v>
       </c>
       <c r="G145" t="n">
-        <v>-2454002.218465728</v>
+        <v>-3050293.103465728</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="K145" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>12.42</v>
+        <v>12.17</v>
       </c>
       <c r="C146" t="n">
-        <v>12.42</v>
+        <v>12.17</v>
       </c>
       <c r="D146" t="n">
-        <v>12.42</v>
+        <v>12.17</v>
       </c>
       <c r="E146" t="n">
-        <v>12.42</v>
+        <v>12.17</v>
       </c>
       <c r="F146" t="n">
-        <v>502.8266</v>
+        <v>497296.0281</v>
       </c>
       <c r="G146" t="n">
-        <v>-2453499.391865728</v>
+        <v>-2552997.075365729</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>12.42</v>
+        <v>12.34</v>
       </c>
       <c r="C147" t="n">
-        <v>12.42</v>
+        <v>12.35</v>
       </c>
       <c r="D147" t="n">
-        <v>12.42</v>
+        <v>12.35</v>
       </c>
       <c r="E147" t="n">
-        <v>12.42</v>
+        <v>12.34</v>
       </c>
       <c r="F147" t="n">
-        <v>54365.3004</v>
+        <v>208.7387</v>
       </c>
       <c r="G147" t="n">
-        <v>-2453499.391865728</v>
+        <v>-2552788.336665729</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="K147" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>12.43</v>
+        <v>12.34</v>
       </c>
       <c r="C148" t="n">
-        <v>12.43</v>
+        <v>12.34</v>
       </c>
       <c r="D148" t="n">
-        <v>12.43</v>
+        <v>12.34</v>
       </c>
       <c r="E148" t="n">
-        <v>12.43</v>
+        <v>12.34</v>
       </c>
       <c r="F148" t="n">
-        <v>452.2901</v>
+        <v>63.6646</v>
       </c>
       <c r="G148" t="n">
-        <v>-2453047.101765728</v>
+        <v>-2552852.001265728</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5603,33 +6096,40 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>12.31</v>
+        <v>12.17</v>
       </c>
       <c r="C149" t="n">
-        <v>12.43</v>
+        <v>12.14</v>
       </c>
       <c r="D149" t="n">
-        <v>12.43</v>
+        <v>12.17</v>
       </c>
       <c r="E149" t="n">
-        <v>12.31</v>
+        <v>12.14</v>
       </c>
       <c r="F149" t="n">
-        <v>3943.4794</v>
+        <v>219843.5412</v>
       </c>
       <c r="G149" t="n">
-        <v>-2453047.101765728</v>
+        <v>-2772695.542465728</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5638,33 +6138,40 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>12.5</v>
+        <v>12.35</v>
       </c>
       <c r="C150" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D150" t="n">
-        <v>12.51</v>
+        <v>12.4</v>
       </c>
       <c r="E150" t="n">
-        <v>12.5</v>
+        <v>12.35</v>
       </c>
       <c r="F150" t="n">
-        <v>59618.8741</v>
+        <v>1000</v>
       </c>
       <c r="G150" t="n">
-        <v>-2393428.227665728</v>
+        <v>-2771695.542465728</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5673,33 +6180,40 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>12.31</v>
+        <v>12.3</v>
       </c>
       <c r="C151" t="n">
-        <v>12.31</v>
+        <v>12.3</v>
       </c>
       <c r="D151" t="n">
-        <v>12.31</v>
+        <v>12.3</v>
       </c>
       <c r="E151" t="n">
-        <v>12.31</v>
+        <v>12.3</v>
       </c>
       <c r="F151" t="n">
-        <v>1927.2921</v>
+        <v>21000</v>
       </c>
       <c r="G151" t="n">
-        <v>-2395355.519765728</v>
+        <v>-2792695.542465728</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5708,33 +6222,40 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>12.49</v>
+        <v>12.3</v>
       </c>
       <c r="C152" t="n">
-        <v>12.49</v>
+        <v>12.3</v>
       </c>
       <c r="D152" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E152" t="n">
-        <v>12.49</v>
+        <v>12.3</v>
       </c>
       <c r="F152" t="n">
-        <v>692.626</v>
+        <v>2869.7289</v>
       </c>
       <c r="G152" t="n">
-        <v>-2394662.893765728</v>
+        <v>-2792695.542465728</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5743,33 +6264,40 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>12.5</v>
+        <v>12.15</v>
       </c>
       <c r="C153" t="n">
-        <v>12.5</v>
+        <v>12.14</v>
       </c>
       <c r="D153" t="n">
-        <v>12.5</v>
+        <v>12.15</v>
       </c>
       <c r="E153" t="n">
-        <v>12.5</v>
+        <v>12.14</v>
       </c>
       <c r="F153" t="n">
-        <v>44.8095</v>
+        <v>37595.6954</v>
       </c>
       <c r="G153" t="n">
-        <v>-2394618.084265728</v>
+        <v>-2830291.237865728</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5778,68 +6306,84 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>12.43</v>
+        <v>12.29</v>
       </c>
       <c r="C154" t="n">
-        <v>12.31</v>
+        <v>12.29</v>
       </c>
       <c r="D154" t="n">
-        <v>12.43</v>
+        <v>12.29</v>
       </c>
       <c r="E154" t="n">
-        <v>12.31</v>
+        <v>12.29</v>
       </c>
       <c r="F154" t="n">
-        <v>1416</v>
+        <v>116.702</v>
       </c>
       <c r="G154" t="n">
-        <v>-2396034.084265728</v>
+        <v>-2830174.535865728</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="K154" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>12.5</v>
+        <v>12.29</v>
       </c>
       <c r="C155" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D155" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E155" t="n">
-        <v>12.5</v>
+        <v>12.29</v>
       </c>
       <c r="F155" t="n">
-        <v>1064.356</v>
+        <v>55962.9157</v>
       </c>
       <c r="G155" t="n">
-        <v>-2394969.728265728</v>
+        <v>-2774211.620165728</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5848,33 +6392,40 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C156" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D156" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E156" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F156" t="n">
-        <v>23000</v>
+        <v>16956</v>
       </c>
       <c r="G156" t="n">
-        <v>-2394969.728265728</v>
+        <v>-2757255.620165728</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5883,33 +6434,40 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>12.53</v>
+        <v>12.5</v>
       </c>
       <c r="C157" t="n">
-        <v>12.53</v>
+        <v>12.52</v>
       </c>
       <c r="D157" t="n">
-        <v>12.53</v>
+        <v>12.62</v>
       </c>
       <c r="E157" t="n">
-        <v>12.53</v>
+        <v>12.5</v>
       </c>
       <c r="F157" t="n">
-        <v>24419.3196</v>
+        <v>44613.6255</v>
       </c>
       <c r="G157" t="n">
-        <v>-2370550.408665728</v>
+        <v>-2712641.994665728</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5918,33 +6476,40 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>12.41</v>
+        <v>12.5</v>
       </c>
       <c r="C158" t="n">
-        <v>12.31</v>
+        <v>12.52</v>
       </c>
       <c r="D158" t="n">
-        <v>12.41</v>
+        <v>12.52</v>
       </c>
       <c r="E158" t="n">
-        <v>12.31</v>
+        <v>12.5</v>
       </c>
       <c r="F158" t="n">
-        <v>38473.2111</v>
+        <v>10100</v>
       </c>
       <c r="G158" t="n">
-        <v>-2409023.619765728</v>
+        <v>-2712641.994665728</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5953,33 +6518,40 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>12.32</v>
+        <v>12.5</v>
       </c>
       <c r="C159" t="n">
-        <v>12.32</v>
+        <v>12.5</v>
       </c>
       <c r="D159" t="n">
-        <v>12.32</v>
+        <v>12.5</v>
       </c>
       <c r="E159" t="n">
-        <v>12.32</v>
+        <v>12.5</v>
       </c>
       <c r="F159" t="n">
-        <v>23220.044</v>
+        <v>7578</v>
       </c>
       <c r="G159" t="n">
-        <v>-2385803.575765728</v>
+        <v>-2720219.994665728</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5988,68 +6560,84 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>12.32</v>
+        <v>12.5</v>
       </c>
       <c r="C160" t="n">
-        <v>12.32</v>
+        <v>12.5</v>
       </c>
       <c r="D160" t="n">
-        <v>12.32</v>
+        <v>12.5</v>
       </c>
       <c r="E160" t="n">
-        <v>12.32</v>
+        <v>12.5</v>
       </c>
       <c r="F160" t="n">
-        <v>52.3211</v>
+        <v>2422</v>
       </c>
       <c r="G160" t="n">
-        <v>-2385803.575765728</v>
+        <v>-2720219.994665728</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K160" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>12.32</v>
+        <v>12.51</v>
       </c>
       <c r="C161" t="n">
-        <v>12.32</v>
+        <v>12.51</v>
       </c>
       <c r="D161" t="n">
-        <v>12.32</v>
+        <v>12.51</v>
       </c>
       <c r="E161" t="n">
-        <v>12.32</v>
+        <v>12.51</v>
       </c>
       <c r="F161" t="n">
-        <v>4786.1998</v>
+        <v>31316</v>
       </c>
       <c r="G161" t="n">
-        <v>-2385803.575765728</v>
+        <v>-2688903.994665728</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6058,68 +6646,84 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>12.36</v>
+        <v>12.58</v>
       </c>
       <c r="C162" t="n">
-        <v>12.36</v>
+        <v>12.61</v>
       </c>
       <c r="D162" t="n">
-        <v>12.36</v>
+        <v>12.61</v>
       </c>
       <c r="E162" t="n">
-        <v>12.36</v>
+        <v>12.58</v>
       </c>
       <c r="F162" t="n">
-        <v>9474</v>
+        <v>38728.2531</v>
       </c>
       <c r="G162" t="n">
-        <v>-2376329.575765728</v>
+        <v>-2650175.741565729</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="K162" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>12.36</v>
+        <v>12.51</v>
       </c>
       <c r="C163" t="n">
-        <v>12.35</v>
+        <v>12.51</v>
       </c>
       <c r="D163" t="n">
-        <v>12.36</v>
+        <v>12.51</v>
       </c>
       <c r="E163" t="n">
-        <v>12.35</v>
+        <v>12.51</v>
       </c>
       <c r="F163" t="n">
-        <v>8044.2857</v>
+        <v>29065</v>
       </c>
       <c r="G163" t="n">
-        <v>-2384373.861465727</v>
+        <v>-2679240.741565729</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6128,348 +6732,436 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>12.37</v>
+        <v>12.53</v>
       </c>
       <c r="C164" t="n">
-        <v>12.37</v>
+        <v>12.53</v>
       </c>
       <c r="D164" t="n">
-        <v>12.37</v>
+        <v>12.53</v>
       </c>
       <c r="E164" t="n">
-        <v>12.37</v>
+        <v>12.53</v>
       </c>
       <c r="F164" t="n">
-        <v>10560</v>
+        <v>2583</v>
       </c>
       <c r="G164" t="n">
-        <v>-2373813.861465727</v>
+        <v>-2676657.741565729</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="K164" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>12.47</v>
+        <v>12.44</v>
       </c>
       <c r="C165" t="n">
-        <v>12.48</v>
+        <v>12.44</v>
       </c>
       <c r="D165" t="n">
-        <v>12.48</v>
+        <v>12.44</v>
       </c>
       <c r="E165" t="n">
-        <v>12.47</v>
+        <v>12.44</v>
       </c>
       <c r="F165" t="n">
-        <v>3152.3211</v>
+        <v>9583.4953</v>
       </c>
       <c r="G165" t="n">
-        <v>-2370661.540365728</v>
+        <v>-2686241.236865729</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="K165" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>12.51</v>
+        <v>12.44</v>
       </c>
       <c r="C166" t="n">
-        <v>12.51</v>
+        <v>12.44</v>
       </c>
       <c r="D166" t="n">
-        <v>12.51</v>
+        <v>12.44</v>
       </c>
       <c r="E166" t="n">
-        <v>12.51</v>
+        <v>12.44</v>
       </c>
       <c r="F166" t="n">
-        <v>2912</v>
+        <v>1771.0054</v>
       </c>
       <c r="G166" t="n">
-        <v>-2367749.540365728</v>
+        <v>-2686241.236865729</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="K166" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>12.51</v>
+        <v>12.53</v>
       </c>
       <c r="C167" t="n">
-        <v>12.51</v>
+        <v>12.57</v>
       </c>
       <c r="D167" t="n">
-        <v>12.51</v>
+        <v>12.62</v>
       </c>
       <c r="E167" t="n">
-        <v>12.51</v>
+        <v>12.53</v>
       </c>
       <c r="F167" t="n">
-        <v>21043.9237</v>
+        <v>62653.3827</v>
       </c>
       <c r="G167" t="n">
-        <v>-2367749.540365728</v>
+        <v>-2623587.854165729</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="K167" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>12.52</v>
+        <v>12.57</v>
       </c>
       <c r="C168" t="n">
-        <v>12.52</v>
+        <v>12.63</v>
       </c>
       <c r="D168" t="n">
-        <v>12.52</v>
+        <v>12.63</v>
       </c>
       <c r="E168" t="n">
-        <v>12.52</v>
+        <v>12.57</v>
       </c>
       <c r="F168" t="n">
-        <v>265.4996</v>
+        <v>11095.142</v>
       </c>
       <c r="G168" t="n">
-        <v>-2367484.040765727</v>
+        <v>-2612492.712165729</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="K168" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>12.51</v>
+        <v>12.57</v>
       </c>
       <c r="C169" t="n">
-        <v>12.51</v>
+        <v>12.57</v>
       </c>
       <c r="D169" t="n">
-        <v>12.51</v>
+        <v>12.57</v>
       </c>
       <c r="E169" t="n">
-        <v>12.51</v>
+        <v>12.57</v>
       </c>
       <c r="F169" t="n">
-        <v>1078</v>
+        <v>24399.7423</v>
       </c>
       <c r="G169" t="n">
-        <v>-2368562.040765727</v>
+        <v>-2636892.454465729</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="K169" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>12.51</v>
+        <v>12.5</v>
       </c>
       <c r="C170" t="n">
-        <v>12.51</v>
+        <v>12.5</v>
       </c>
       <c r="D170" t="n">
-        <v>12.51</v>
+        <v>12.5</v>
       </c>
       <c r="E170" t="n">
-        <v>12.51</v>
+        <v>12.5</v>
       </c>
       <c r="F170" t="n">
-        <v>7873.7625</v>
+        <v>645.408</v>
       </c>
       <c r="G170" t="n">
-        <v>-2368562.040765727</v>
+        <v>-2637537.862465729</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="K170" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>12.47</v>
+        <v>12.57</v>
       </c>
       <c r="C171" t="n">
-        <v>12.37</v>
+        <v>12.57</v>
       </c>
       <c r="D171" t="n">
-        <v>12.47</v>
+        <v>12.57</v>
       </c>
       <c r="E171" t="n">
-        <v>12.37</v>
+        <v>12.57</v>
       </c>
       <c r="F171" t="n">
-        <v>91667.9332</v>
+        <v>187.4583</v>
       </c>
       <c r="G171" t="n">
-        <v>-2460229.973965727</v>
+        <v>-2637350.404165728</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K171" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>12.3</v>
+        <v>12.57</v>
       </c>
       <c r="C172" t="n">
-        <v>12.3</v>
+        <v>12.57</v>
       </c>
       <c r="D172" t="n">
-        <v>12.3</v>
+        <v>12.57</v>
       </c>
       <c r="E172" t="n">
-        <v>12.3</v>
+        <v>12.57</v>
       </c>
       <c r="F172" t="n">
-        <v>1000</v>
+        <v>5412.7994</v>
       </c>
       <c r="G172" t="n">
-        <v>-2461229.973965727</v>
+        <v>-2637350.404165728</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="K172" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>12.37</v>
+        <v>12.63</v>
       </c>
       <c r="C173" t="n">
-        <v>12.37</v>
+        <v>12.63</v>
       </c>
       <c r="D173" t="n">
-        <v>12.37</v>
+        <v>12.63</v>
       </c>
       <c r="E173" t="n">
-        <v>12.37</v>
+        <v>12.63</v>
       </c>
       <c r="F173" t="n">
-        <v>241.9061</v>
+        <v>105.0979</v>
       </c>
       <c r="G173" t="n">
-        <v>-2460988.067865727</v>
+        <v>-2637245.306265729</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6478,33 +7170,40 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>12.37</v>
+        <v>12.64</v>
       </c>
       <c r="C174" t="n">
-        <v>12.37</v>
+        <v>12.64</v>
       </c>
       <c r="D174" t="n">
-        <v>12.37</v>
+        <v>12.64</v>
       </c>
       <c r="E174" t="n">
-        <v>12.37</v>
+        <v>12.64</v>
       </c>
       <c r="F174" t="n">
-        <v>15820.5527</v>
+        <v>78.81870000000001</v>
       </c>
       <c r="G174" t="n">
-        <v>-2460988.067865727</v>
+        <v>-2637166.487565728</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6513,33 +7212,40 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>12.51</v>
+        <v>12.57</v>
       </c>
       <c r="C175" t="n">
-        <v>12.59</v>
+        <v>12.57</v>
       </c>
       <c r="D175" t="n">
-        <v>12.59</v>
+        <v>12.57</v>
       </c>
       <c r="E175" t="n">
-        <v>12.51</v>
+        <v>12.57</v>
       </c>
       <c r="F175" t="n">
-        <v>232.8093</v>
+        <v>20000</v>
       </c>
       <c r="G175" t="n">
-        <v>-2460755.258565728</v>
+        <v>-2657166.487565728</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6548,33 +7254,40 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>12.51</v>
+        <v>12.57</v>
       </c>
       <c r="C176" t="n">
-        <v>12.51</v>
+        <v>12.62</v>
       </c>
       <c r="D176" t="n">
-        <v>12.51</v>
+        <v>12.62</v>
       </c>
       <c r="E176" t="n">
-        <v>12.51</v>
+        <v>12.57</v>
       </c>
       <c r="F176" t="n">
-        <v>134.3939</v>
+        <v>6412.1765</v>
       </c>
       <c r="G176" t="n">
-        <v>-2460889.652465728</v>
+        <v>-2650754.311065728</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6583,33 +7296,40 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>12.38</v>
+        <v>12.51</v>
       </c>
       <c r="C177" t="n">
-        <v>12.38</v>
+        <v>12.5</v>
       </c>
       <c r="D177" t="n">
-        <v>12.38</v>
+        <v>12.51</v>
       </c>
       <c r="E177" t="n">
-        <v>12.38</v>
+        <v>12.5</v>
       </c>
       <c r="F177" t="n">
-        <v>69.8036</v>
+        <v>34646.8019</v>
       </c>
       <c r="G177" t="n">
-        <v>-2460959.456065728</v>
+        <v>-2685401.112965728</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6618,1742 +7338,326 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>12.37</v>
+        <v>12.62</v>
       </c>
       <c r="C178" t="n">
-        <v>12.37</v>
+        <v>12.62</v>
       </c>
       <c r="D178" t="n">
-        <v>12.37</v>
+        <v>12.62</v>
       </c>
       <c r="E178" t="n">
-        <v>12.37</v>
+        <v>12.62</v>
       </c>
       <c r="F178" t="n">
-        <v>48690.7639</v>
+        <v>89.02070000000001</v>
       </c>
       <c r="G178" t="n">
-        <v>-2509650.219965728</v>
+        <v>-2685312.092265728</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K178" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>12.31</v>
+        <v>12.51</v>
       </c>
       <c r="C179" t="n">
-        <v>12.31</v>
+        <v>12.51</v>
       </c>
       <c r="D179" t="n">
-        <v>12.31</v>
+        <v>12.51</v>
       </c>
       <c r="E179" t="n">
-        <v>12.31</v>
+        <v>12.51</v>
       </c>
       <c r="F179" t="n">
-        <v>52.6891</v>
+        <v>10914</v>
       </c>
       <c r="G179" t="n">
-        <v>-2509702.909065728</v>
+        <v>-2696226.092265728</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="K179" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>12.31</v>
+        <v>12.5</v>
       </c>
       <c r="C180" t="n">
-        <v>12.31</v>
+        <v>12.51</v>
       </c>
       <c r="D180" t="n">
-        <v>12.31</v>
+        <v>12.51</v>
       </c>
       <c r="E180" t="n">
-        <v>12.31</v>
+        <v>12.5</v>
       </c>
       <c r="F180" t="n">
-        <v>30748.0305</v>
+        <v>7536.63</v>
       </c>
       <c r="G180" t="n">
-        <v>-2509702.909065728</v>
+        <v>-2696226.092265728</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="K180" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>12.31</v>
+        <v>12.51</v>
       </c>
       <c r="C181" t="n">
-        <v>12.29</v>
+        <v>12.51</v>
       </c>
       <c r="D181" t="n">
-        <v>12.31</v>
+        <v>12.51</v>
       </c>
       <c r="E181" t="n">
-        <v>12.29</v>
+        <v>12.51</v>
       </c>
       <c r="F181" t="n">
-        <v>78409.8692</v>
+        <v>3950.231774260591</v>
       </c>
       <c r="G181" t="n">
-        <v>-2588112.778265728</v>
+        <v>-2696226.092265728</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="K181" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>12.25</v>
+        <v>12.51</v>
       </c>
       <c r="C182" t="n">
-        <v>12.25</v>
+        <v>12.51</v>
       </c>
       <c r="D182" t="n">
-        <v>12.25</v>
+        <v>12.51</v>
       </c>
       <c r="E182" t="n">
-        <v>12.25</v>
+        <v>12.51</v>
       </c>
       <c r="F182" t="n">
-        <v>27359.2148</v>
+        <v>9568.121999999999</v>
       </c>
       <c r="G182" t="n">
-        <v>-2615471.993065728</v>
+        <v>-2696226.092265728</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="K182" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>12.25</v>
+        <v>12.51</v>
       </c>
       <c r="C183" t="n">
-        <v>12.11</v>
+        <v>12.51</v>
       </c>
       <c r="D183" t="n">
-        <v>12.25</v>
+        <v>12.51</v>
       </c>
       <c r="E183" t="n">
-        <v>12.11</v>
+        <v>12.51</v>
       </c>
       <c r="F183" t="n">
-        <v>219843.5411</v>
+        <v>3311.8299</v>
       </c>
       <c r="G183" t="n">
-        <v>-2835315.534165728</v>
+        <v>-2696226.092265728</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="K183" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>12.25</v>
+        <v>12.41</v>
       </c>
       <c r="C184" t="n">
-        <v>12.25</v>
+        <v>12.5</v>
       </c>
       <c r="D184" t="n">
-        <v>12.25</v>
+        <v>12.5</v>
       </c>
       <c r="E184" t="n">
-        <v>12.25</v>
+        <v>12.4</v>
       </c>
       <c r="F184" t="n">
-        <v>159.9075</v>
+        <v>9638.2886</v>
       </c>
       <c r="G184" t="n">
-        <v>-2835155.626665728</v>
+        <v>-2705864.380865728</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="K184" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="C185" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="D185" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="E185" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="F185" t="n">
-        <v>88232.5822</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-2923388.208865728</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C186" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="D186" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E186" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="F186" t="n">
-        <v>26904.8946</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-2950293.103465728</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="C187" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D187" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="E187" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F187" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-3050293.103465728</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="C188" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="D188" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="E188" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="F188" t="n">
-        <v>497296.0281</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-2552997.075365729</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="C189" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="D189" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="E189" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="F189" t="n">
-        <v>208.7387</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-2552788.336665729</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="C190" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="D190" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="E190" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="F190" t="n">
-        <v>63.6646</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-2552852.001265728</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="C191" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="D191" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="E191" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F191" t="n">
-        <v>219843.5412</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-2772695.542465728</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="C192" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D192" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E192" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="F192" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-2771695.542465728</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C193" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D193" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E193" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F193" t="n">
-        <v>21000</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-2792695.542465728</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C194" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D194" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E194" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F194" t="n">
-        <v>2869.7289</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-2792695.542465728</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="C195" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="D195" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E195" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F195" t="n">
-        <v>37595.6954</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-2830291.237865728</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="C196" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="D196" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="E196" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="F196" t="n">
-        <v>116.702</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-2830174.535865728</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="C197" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D197" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E197" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="F197" t="n">
-        <v>55962.9157</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-2774211.620165728</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C198" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D198" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E198" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F198" t="n">
-        <v>16956</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-2757255.620165728</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K198" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C199" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="D199" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="E199" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F199" t="n">
-        <v>44613.6255</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-2712641.994665728</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C200" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="D200" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="E200" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F200" t="n">
-        <v>10100</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-2712641.994665728</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C201" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D201" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E201" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F201" t="n">
-        <v>7578</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-2720219.994665728</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C202" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D202" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E202" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F202" t="n">
-        <v>2422</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-2720219.994665728</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C203" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D203" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E203" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F203" t="n">
-        <v>31316</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-2688903.994665728</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="C204" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="D204" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="E204" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="F204" t="n">
-        <v>38728.2531</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-2650175.741565729</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C205" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D205" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E205" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F205" t="n">
-        <v>29065</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-2679240.741565729</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="C206" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="D206" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="E206" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="F206" t="n">
-        <v>2583</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-2676657.741565729</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="C207" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="D207" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="E207" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="F207" t="n">
-        <v>9583.4953</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-2686241.236865729</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="C208" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="D208" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="E208" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="F208" t="n">
-        <v>1771.0054</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-2686241.236865729</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="C209" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="D209" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="E209" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="F209" t="n">
-        <v>62653.3827</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-2623587.854165729</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C210" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="D210" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="E210" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F210" t="n">
-        <v>11095.142</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-2612492.712165729</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C211" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="D211" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="E211" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F211" t="n">
-        <v>24399.7423</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-2636892.454465729</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C212" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D212" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E212" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F212" t="n">
-        <v>645.408</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-2637537.862465729</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C213" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="D213" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="E213" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F213" t="n">
-        <v>187.4583</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-2637350.404165728</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C214" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="D214" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="E214" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F214" t="n">
-        <v>5412.7994</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-2637350.404165728</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="C215" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="D215" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="E215" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="F215" t="n">
-        <v>105.0979</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-2637245.306265729</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="C216" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="D216" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="E216" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="F216" t="n">
-        <v>78.81870000000001</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-2637166.487565728</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C217" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="D217" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="E217" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F217" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-2657166.487565728</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C218" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="D218" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="E218" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F218" t="n">
-        <v>6412.1765</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-2650754.311065728</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C219" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D219" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E219" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F219" t="n">
-        <v>34646.8019</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-2685401.112965728</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="C220" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="D220" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="E220" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="F220" t="n">
-        <v>89.02070000000001</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-2685312.092265728</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C221" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D221" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E221" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F221" t="n">
-        <v>10914</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-2696226.092265728</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C222" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D222" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E222" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F222" t="n">
-        <v>7536.63</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-2696226.092265728</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C223" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D223" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E223" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F223" t="n">
-        <v>3950.231774260591</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-2696226.092265728</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C224" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D224" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E224" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F224" t="n">
-        <v>9568.121999999999</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-2696226.092265728</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C225" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D225" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E225" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F225" t="n">
-        <v>3311.8299</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-2696226.092265728</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="C226" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D226" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E226" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F226" t="n">
-        <v>9638.2886</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-2705864.380865728</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
+      <c r="N184" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-14 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-14 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N255"/>
+  <dimension ref="A1:M255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-905732.6694</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-905732.6694</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-947546.4749</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-1053667.4697</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-1067104.1346</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-1030710.4755</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-926810.4754999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-934575.0244</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-958052.6378</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-1058746.9055</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-939367.1406000002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-983524.8526000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-1092101.216141026</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-1207531.064255312</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-1161791.269055311</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-1134948.269055311</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-1134948.269055311</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5964,18 +5500,15 @@
         <v>-2341900.800365727</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8160,1604 +7513,1428 @@
         <v>-3050293.103465728</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
-        <v>12.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="C217" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="D217" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="E217" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="F217" t="n">
+        <v>497296.0281</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-2552997.075365729</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="C218" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="D218" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="E218" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="F218" t="n">
+        <v>208.7387</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-2552788.336665729</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="C219" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="D219" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="E219" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="F219" t="n">
+        <v>63.6646</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-2552852.001265728</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="C220" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="D220" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="E220" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F220" t="n">
+        <v>219843.5412</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-2772695.542465728</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C221" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D221" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E221" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-2771695.542465728</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C222" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D222" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E222" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F222" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-2792695.542465728</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C223" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D223" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E223" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F223" t="n">
+        <v>2869.7289</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-2792695.542465728</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C224" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="D224" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E224" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F224" t="n">
+        <v>37595.6954</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-2830291.237865728</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="C225" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="D225" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="E225" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="F225" t="n">
+        <v>116.702</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-2830174.535865728</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="C226" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D226" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E226" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="F226" t="n">
+        <v>55962.9157</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-2774211.620165728</v>
+      </c>
+      <c r="H226" t="n">
+        <v>2</v>
+      </c>
+      <c r="I226" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="C217" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="D217" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="E217" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="F217" t="n">
-        <v>497296.0281</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-2552997.075365729</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C227" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D227" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E227" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F227" t="n">
+        <v>16956</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-2757255.620165728</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="C218" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="D218" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="E218" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="F218" t="n">
-        <v>208.7387</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-2552788.336665729</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C228" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="D228" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="E228" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F228" t="n">
+        <v>44613.6255</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-2712641.994665728</v>
+      </c>
+      <c r="H228" t="n">
+        <v>2</v>
+      </c>
+      <c r="I228" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="C219" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="D219" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="E219" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="F219" t="n">
-        <v>63.6646</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-2552852.001265728</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C229" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="D229" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="E229" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F229" t="n">
+        <v>10100</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-2712641.994665728</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="C220" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="D220" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="E220" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F220" t="n">
-        <v>219843.5412</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-2772695.542465728</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C230" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D230" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E230" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F230" t="n">
+        <v>7578</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-2720219.994665728</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="C221" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D221" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E221" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="F221" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-2771695.542465728</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C231" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D231" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F231" t="n">
+        <v>2422</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-2720219.994665728</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C222" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D222" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E222" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F222" t="n">
-        <v>21000</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-2792695.542465728</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C232" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D232" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E232" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F232" t="n">
+        <v>31316</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-2688903.994665728</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C223" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D223" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E223" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F223" t="n">
-        <v>2869.7289</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-2792695.542465728</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="C233" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="D233" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="E233" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="F233" t="n">
+        <v>38728.2531</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-2650175.741565729</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="C224" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="D224" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E224" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F224" t="n">
-        <v>37595.6954</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-2830291.237865728</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C234" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D234" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E234" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F234" t="n">
+        <v>29065</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-2679240.741565729</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="C225" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="D225" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="E225" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="F225" t="n">
-        <v>116.702</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-2830174.535865728</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="C235" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="D235" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="E235" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2583</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-2676657.741565729</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="C226" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D226" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E226" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="F226" t="n">
-        <v>55962.9157</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-2774211.620165728</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="C236" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="D236" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="E236" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="F236" t="n">
+        <v>9583.4953</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-2686241.236865729</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C227" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D227" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E227" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F227" t="n">
-        <v>16956</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-2757255.620165728</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="C237" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="D237" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="E237" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1771.0054</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-2686241.236865729</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C228" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="D228" t="n">
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="C238" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="D238" t="n">
         <v>12.62</v>
       </c>
-      <c r="E228" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F228" t="n">
-        <v>44613.6255</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-2712641.994665728</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
+      <c r="E238" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="F238" t="n">
+        <v>62653.3827</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-2623587.854165729</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C229" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="D229" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="E229" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F229" t="n">
-        <v>10100</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-2712641.994665728</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="C239" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="D239" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="E239" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="F239" t="n">
+        <v>11095.142</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-2612492.712165729</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C230" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D230" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E230" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F230" t="n">
-        <v>7578</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-2720219.994665728</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="C240" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="D240" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="E240" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="F240" t="n">
+        <v>24399.7423</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-2636892.454465729</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
         <v>12.5</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C241" t="n">
         <v>12.5</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D241" t="n">
         <v>12.5</v>
       </c>
-      <c r="E231" t="n">
+      <c r="E241" t="n">
         <v>12.5</v>
       </c>
-      <c r="F231" t="n">
-        <v>2422</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-2720219.994665728</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
+      <c r="F241" t="n">
+        <v>645.408</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-2637537.862465729</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C232" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D232" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E232" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F232" t="n">
-        <v>31316</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-2688903.994665728</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="C242" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="D242" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="E242" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="F242" t="n">
+        <v>187.4583</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-2637350.404165728</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="C233" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="D233" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="E233" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="F233" t="n">
-        <v>38728.2531</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-2650175.741565729</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="C243" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="D243" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="E243" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="F243" t="n">
+        <v>5412.7994</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-2637350.404165728</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C234" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D234" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E234" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F234" t="n">
-        <v>29065</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-2679240.741565729</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="C244" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="D244" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="E244" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="F244" t="n">
+        <v>105.0979</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-2637245.306265729</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="C235" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="D235" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="E235" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="F235" t="n">
-        <v>2583</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-2676657.741565729</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="C245" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="D245" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="E245" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="F245" t="n">
+        <v>78.81870000000001</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-2637166.487565728</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="C236" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="D236" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="E236" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="F236" t="n">
-        <v>9583.4953</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-2686241.236865729</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="C246" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="D246" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="E246" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="F246" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-2657166.487565728</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="C237" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="D237" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="E237" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="F237" t="n">
-        <v>1771.0054</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-2686241.236865729</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="C247" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="D247" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="E247" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="F247" t="n">
+        <v>6412.1765</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-2650754.311065728</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="C238" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="D238" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="E238" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="F238" t="n">
-        <v>62653.3827</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-2623587.854165729</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C248" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D248" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E248" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F248" t="n">
+        <v>34646.8019</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-2685401.112965728</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C239" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="D239" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="E239" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F239" t="n">
-        <v>11095.142</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-2612492.712165729</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="C249" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="D249" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="E249" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="F249" t="n">
+        <v>89.02070000000001</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-2685312.092265728</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C240" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="D240" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="E240" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F240" t="n">
-        <v>24399.7423</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-2636892.454465729</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C250" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D250" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E250" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F250" t="n">
+        <v>10914</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-2696226.092265728</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
         <v>12.5</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C251" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D251" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E251" t="n">
         <v>12.5</v>
       </c>
-      <c r="D241" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E241" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F241" t="n">
-        <v>645.408</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-2637537.862465729</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
+      <c r="F251" t="n">
+        <v>7536.63</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-2696226.092265728</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C242" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="D242" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="E242" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F242" t="n">
-        <v>187.4583</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-2637350.404165728</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C252" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D252" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E252" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F252" t="n">
+        <v>3950.231774260591</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-2696226.092265728</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C243" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="D243" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="E243" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F243" t="n">
-        <v>5412.7994</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-2637350.404165728</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C253" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D253" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E253" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F253" t="n">
+        <v>9568.121999999999</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-2696226.092265728</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="C244" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="D244" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="E244" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="F244" t="n">
-        <v>105.0979</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-2637245.306265729</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C254" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D254" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E254" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F254" t="n">
+        <v>3311.8299</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-2696226.092265728</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="C245" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="D245" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="E245" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="F245" t="n">
-        <v>78.81870000000001</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-2637166.487565728</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="C255" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D255" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E255" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F255" t="n">
+        <v>9638.2886</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-2705864.380865728</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C246" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="D246" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="E246" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F246" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-2657166.487565728</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C247" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="D247" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="E247" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F247" t="n">
-        <v>6412.1765</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-2650754.311065728</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C248" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D248" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E248" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F248" t="n">
-        <v>34646.8019</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-2685401.112965728</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="C249" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="D249" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="E249" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="F249" t="n">
-        <v>89.02070000000001</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-2685312.092265728</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C250" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D250" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E250" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F250" t="n">
-        <v>10914</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-2696226.092265728</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C251" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D251" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E251" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F251" t="n">
-        <v>7536.63</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-2696226.092265728</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C252" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D252" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E252" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F252" t="n">
-        <v>3950.231774260591</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-2696226.092265728</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C253" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D253" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E253" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F253" t="n">
-        <v>9568.121999999999</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-2696226.092265728</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C254" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D254" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E254" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F254" t="n">
-        <v>3311.8299</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-2696226.092265728</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="C255" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D255" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E255" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F255" t="n">
-        <v>9638.2886</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-2705864.380865728</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-14 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-905732.6694</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-905732.6694</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-947546.4749</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1053667.4697</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1067104.1346</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1030710.4755</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1030710.4755</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-926810.4754999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-926810.4754999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-929874.4754999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-934575.0244</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-958052.6378</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-958052.6378</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-971575.7412</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1058746.9055</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-939367.1406000002</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-983524.8526000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1013910.9463</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1057607.507241026</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1032603.197041026</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1092101.216141026</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1207531.064255312</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1161791.269055311</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1134948.269055311</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1134948.269055311</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-2341900.800365727</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -7381,11 +7381,17 @@
         <v>-2835315.534165728</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>12.25</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7424,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7461,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7498,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7535,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +7572,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +7609,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7646,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +7683,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +7720,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +7757,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +7794,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +7831,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +7864,17 @@
         <v>-2830174.535865728</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>12.14</v>
+      </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,7 +7903,7 @@
         <v>-2774211.620165728</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>12.29</v>
@@ -7851,7 +7911,7 @@
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L226" t="n">
@@ -7882,9 +7942,11 @@
         <v>-2757255.620165728</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -7919,7 +7981,7 @@
         <v>-2712641.994665728</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>12.4</v>
@@ -8935,6 +8997,6 @@
       <c r="M255" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-14 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-905732.6694</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-905732.6694</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-947546.4749</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1053667.4697</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1067104.1346</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1030710.4755</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1030710.4755</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-926810.4754999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-934575.0244</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-958052.6378</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-958052.6378</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-971575.7412</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1058746.9055</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-983524.8526000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1013910.9463</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1057607.507241026</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1032603.197041026</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-1957398.306765726</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-1985914.960365726</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-1985875.660365726</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-1969535.445065726</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-1970043.891865726</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1973572.891865726</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-2011854.233565726</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-2029793.533865726</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-2075528.510165726</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-2187043.430665726</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-2192618.856965726</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-2196393.856965726</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-2196393.856965726</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-2196393.856965726</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-2330037.476565727</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-2306207.793365727</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-2314771.800365727</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-2341900.800365727</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-2341900.800365727</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-2362679.800365727</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-2360553.938965727</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -7494,9 +7494,11 @@
         <v>-2950293.103465728</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>12.19</v>
+      </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -7531,9 +7533,11 @@
         <v>-3050293.103465728</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>12.18</v>
+      </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -7568,9 +7572,11 @@
         <v>-2552997.075365729</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -7864,11 +7870,9 @@
         <v>-2830174.535865728</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>12.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -7903,11 +7907,9 @@
         <v>-2774211.620165728</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>12.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -7942,11 +7944,9 @@
         <v>-2757255.620165728</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -7981,11 +7981,9 @@
         <v>-2712641.994665728</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -8997,6 +8995,6 @@
       <c r="M255" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-14 BackTest ETZ.xlsx
@@ -451,7 +451,7 @@
         <v>-905732.6694</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-905732.6694</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-947546.4749</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1053667.4697</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-926810.4754999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-929874.4754999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-1957398.306765726</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-1985914.960365726</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-1985875.660365726</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-1969535.445065726</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-1970043.891865726</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1973572.891865726</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-2011854.233565726</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-2029793.533865726</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-2075528.510165726</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-2187043.430665726</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-2192618.856965726</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-2196393.856965726</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-2196393.856965726</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-2196393.856965726</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-2330037.476565727</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-2306207.793365727</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-2314771.800365727</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-2341900.800365727</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-2341900.800365727</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-2362679.800365727</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-2360553.938965727</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6688,10 +6688,14 @@
         <v>-2376329.575765728</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="J191" t="n">
+        <v>12.32</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
@@ -6724,8 +6728,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +6767,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7348,10 +7364,14 @@
         <v>-2615471.993065728</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="J211" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
@@ -7386,7 +7406,9 @@
       <c r="I212" t="n">
         <v>12.25</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -7420,10 +7442,14 @@
         <v>-2835155.626665728</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="J213" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7457,10 +7483,14 @@
         <v>-2923388.208865728</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="J214" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7499,7 +7529,9 @@
       <c r="I215" t="n">
         <v>12.19</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7538,7 +7570,9 @@
       <c r="I216" t="n">
         <v>12.18</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7577,7 +7611,9 @@
       <c r="I217" t="n">
         <v>12.1</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7614,7 +7650,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7651,7 +7689,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7688,7 +7728,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7725,7 +7767,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7762,7 +7806,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7799,7 +7845,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7836,7 +7884,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7870,10 +7920,14 @@
         <v>-2830174.535865728</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J225" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7907,10 +7961,14 @@
         <v>-2774211.620165728</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="J226" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7944,10 +8002,14 @@
         <v>-2757255.620165728</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J227" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7981,10 +8043,14 @@
         <v>-2712641.994665728</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J228" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8021,7 +8087,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8058,7 +8126,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8092,10 +8162,14 @@
         <v>-2720219.994665728</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J231" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8129,10 +8203,14 @@
         <v>-2688903.994665728</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J232" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8166,10 +8244,14 @@
         <v>-2650175.741565729</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="J233" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8206,7 +8288,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8243,7 +8327,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8280,7 +8366,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8314,10 +8402,14 @@
         <v>-2686241.236865729</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="J237" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8351,10 +8443,14 @@
         <v>-2623587.854165729</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="J238" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8391,7 +8487,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8428,7 +8526,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8462,10 +8562,14 @@
         <v>-2637537.862465729</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="J241" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8499,10 +8603,14 @@
         <v>-2637350.404165728</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J242" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8536,10 +8644,14 @@
         <v>-2637350.404165728</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="J243" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8573,10 +8685,14 @@
         <v>-2637245.306265729</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="J244" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8610,10 +8726,14 @@
         <v>-2637166.487565728</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="J245" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8647,10 +8767,14 @@
         <v>-2657166.487565728</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="J246" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8684,10 +8808,14 @@
         <v>-2650754.311065728</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="J247" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8721,10 +8849,14 @@
         <v>-2685401.112965728</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="J248" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8758,10 +8890,14 @@
         <v>-2685312.092265728</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J249" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8795,10 +8931,14 @@
         <v>-2696226.092265728</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="J250" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8832,10 +8972,14 @@
         <v>-2696226.092265728</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="J251" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8869,10 +9013,14 @@
         <v>-2696226.092265728</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="J252" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8906,10 +9054,14 @@
         <v>-2696226.092265728</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="J253" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8943,10 +9095,14 @@
         <v>-2696226.092265728</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="J254" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8980,10 +9136,14 @@
         <v>-2705864.380865728</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="J255" t="n">
+        <v>12.29</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-14 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-14 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M255"/>
+  <dimension ref="A1:L255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>336143.3064</v>
       </c>
       <c r="G2" t="n">
-        <v>-905732.6694</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>36233.2163</v>
       </c>
       <c r="G3" t="n">
-        <v>-905732.6694</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>41813.8055</v>
       </c>
       <c r="G4" t="n">
-        <v>-947546.4749</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>106120.9948</v>
       </c>
       <c r="G5" t="n">
-        <v>-1053667.4697</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>13436.6649</v>
       </c>
       <c r="G6" t="n">
-        <v>-1067104.1346</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>36393.6591</v>
       </c>
       <c r="G7" t="n">
-        <v>-1030710.4755</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>90.75749999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>-1030710.4755</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>103900</v>
       </c>
       <c r="G9" t="n">
-        <v>-926810.4754999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2974</v>
       </c>
       <c r="G10" t="n">
-        <v>-926810.4754999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>3064</v>
       </c>
       <c r="G11" t="n">
-        <v>-929874.4754999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>4700.5489</v>
       </c>
       <c r="G12" t="n">
-        <v>-934575.0244</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>23477.6134</v>
       </c>
       <c r="G13" t="n">
-        <v>-958052.6378</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>43458.3542</v>
       </c>
       <c r="G14" t="n">
-        <v>-958052.6378</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>13523.1034</v>
       </c>
       <c r="G15" t="n">
-        <v>-971575.7412</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>87171.1643</v>
       </c>
       <c r="G16" t="n">
-        <v>-1058746.9055</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>119379.7649</v>
       </c>
       <c r="G17" t="n">
-        <v>-939367.1406000002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>44157.712</v>
       </c>
       <c r="G18" t="n">
-        <v>-983524.8526000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>30386.0937</v>
       </c>
       <c r="G19" t="n">
-        <v>-1013910.9463</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>141000.0503</v>
       </c>
       <c r="G20" t="n">
-        <v>-1154910.9966</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>97166.4758</v>
       </c>
       <c r="G21" t="n">
-        <v>-1057744.5208</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>137.013558974359</v>
       </c>
       <c r="G22" t="n">
-        <v>-1057607.507241026</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>17882.5853</v>
       </c>
       <c r="G23" t="n">
-        <v>-1075490.092541026</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>97862.1064</v>
       </c>
       <c r="G24" t="n">
-        <v>-1075490.092541026</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>42886.8955</v>
       </c>
       <c r="G25" t="n">
-        <v>-1032603.197041026</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>59498.0191</v>
       </c>
       <c r="G26" t="n">
-        <v>-1092101.216141026</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>43826.897</v>
       </c>
       <c r="G27" t="n">
-        <v>-1092101.216141026</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>3929.035785714286</v>
       </c>
       <c r="G28" t="n">
-        <v>-1088172.180355312</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>29862.5319</v>
       </c>
       <c r="G29" t="n">
-        <v>-1088172.180355312</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>119358.8839</v>
       </c>
       <c r="G30" t="n">
-        <v>-1207531.064255312</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>31908.6196</v>
       </c>
       <c r="G31" t="n">
-        <v>-1175622.444655312</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>87.86069999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>-1175534.583955311</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>23128.6139</v>
       </c>
       <c r="G33" t="n">
-        <v>-1152405.970055311</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>37595.6954</v>
       </c>
       <c r="G34" t="n">
-        <v>-1114810.274655311</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>27292.0112</v>
       </c>
       <c r="G35" t="n">
-        <v>-1142102.285855311</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>8786.111999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>-1142102.285855311</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>11310.5921</v>
       </c>
       <c r="G37" t="n">
-        <v>-1142102.285855311</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>5000</v>
       </c>
       <c r="G38" t="n">
-        <v>-1142102.285855311</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>7549</v>
       </c>
       <c r="G39" t="n">
-        <v>-1149651.285855311</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>12178.9832</v>
       </c>
       <c r="G40" t="n">
-        <v>-1161830.269055311</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>20096.7041</v>
       </c>
       <c r="G41" t="n">
-        <v>-1161830.269055311</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>39</v>
       </c>
       <c r="G42" t="n">
-        <v>-1161791.269055311</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>29100</v>
       </c>
       <c r="G43" t="n">
-        <v>-1132691.269055311</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>2257</v>
       </c>
       <c r="G44" t="n">
-        <v>-1134948.269055311</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>81188.1741</v>
       </c>
       <c r="G45" t="n">
-        <v>-1134948.269055311</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>55270.7969</v>
       </c>
       <c r="G46" t="n">
-        <v>-1134948.269055311</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>6054</v>
       </c>
       <c r="G47" t="n">
-        <v>-1134948.269055311</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>38157.1824</v>
       </c>
       <c r="G48" t="n">
-        <v>-1173105.451455311</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>38675.2031</v>
       </c>
       <c r="G49" t="n">
-        <v>-1173105.451455311</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>39</v>
       </c>
       <c r="G50" t="n">
-        <v>-1173066.451455311</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>380692.5293</v>
       </c>
       <c r="G51" t="n">
-        <v>-1553758.980755311</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>40</v>
       </c>
       <c r="G52" t="n">
-        <v>-1553718.980755311</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>3852</v>
       </c>
       <c r="G53" t="n">
-        <v>-1557570.980755311</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>30000</v>
       </c>
       <c r="G54" t="n">
-        <v>-1587570.980755311</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>40</v>
       </c>
       <c r="G55" t="n">
-        <v>-1587530.980755311</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>70558.1995</v>
       </c>
       <c r="G56" t="n">
-        <v>-1658089.180255312</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>50</v>
       </c>
       <c r="G57" t="n">
-        <v>-1658139.180255312</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>50</v>
       </c>
       <c r="G58" t="n">
-        <v>-1658089.180255312</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>292035.3983</v>
       </c>
       <c r="G59" t="n">
-        <v>-1950124.578555312</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>40470.9269</v>
       </c>
       <c r="G60" t="n">
-        <v>-1950124.578555312</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>154425.7514</v>
       </c>
       <c r="G61" t="n">
-        <v>-2104550.329955311</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>61000</v>
       </c>
       <c r="G62" t="n">
-        <v>-2104550.329955311</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>74217.6409</v>
       </c>
       <c r="G63" t="n">
-        <v>-2030332.689055311</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>3754.0731</v>
       </c>
       <c r="G64" t="n">
-        <v>-2030332.689055311</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>14456.0132</v>
       </c>
       <c r="G65" t="n">
-        <v>-2044788.702255311</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>17887.084</v>
       </c>
       <c r="G66" t="n">
-        <v>-2062675.786255311</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>42090.6188</v>
       </c>
       <c r="G67" t="n">
-        <v>-2020585.167455311</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>62.916</v>
       </c>
       <c r="G68" t="n">
-        <v>-2020522.251455311</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,19 @@
         <v>19362.01088701299</v>
       </c>
       <c r="G69" t="n">
-        <v>-2001160.240568298</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>12.24</v>
+      </c>
+      <c r="I69" t="n">
+        <v>12.24</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2487,23 @@
         <v>13475.65591298701</v>
       </c>
       <c r="G70" t="n">
-        <v>-1987684.584655311</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>12.32</v>
+      </c>
+      <c r="I70" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2525,21 @@
         <v>17346.0855</v>
       </c>
       <c r="G71" t="n">
-        <v>-1987684.584655311</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2561,15 @@
         <v>16811.5438</v>
       </c>
       <c r="G72" t="n">
-        <v>-2004496.128455312</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2591,15 @@
         <v>58346.3118</v>
       </c>
       <c r="G73" t="n">
-        <v>-1946149.816655312</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2621,15 @@
         <v>8332.5242</v>
       </c>
       <c r="G74" t="n">
-        <v>-1954482.340855312</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2651,15 @@
         <v>9244.912</v>
       </c>
       <c r="G75" t="n">
-        <v>-1945237.428855312</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2681,15 @@
         <v>950</v>
       </c>
       <c r="G76" t="n">
-        <v>-1946187.428855312</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2711,15 @@
         <v>2764.0004</v>
       </c>
       <c r="G77" t="n">
-        <v>-1943423.428455312</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2741,15 @@
         <v>8441.794</v>
       </c>
       <c r="G78" t="n">
-        <v>-1934981.634455312</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2771,15 @@
         <v>67.4957</v>
       </c>
       <c r="G79" t="n">
-        <v>-1934914.138755311</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2801,15 @@
         <v>18549.2008</v>
       </c>
       <c r="G80" t="n">
-        <v>-1916364.937955311</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2831,15 @@
         <v>1980.213</v>
       </c>
       <c r="G81" t="n">
-        <v>-1914384.724955312</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2861,15 @@
         <v>2031.8031</v>
       </c>
       <c r="G82" t="n">
-        <v>-1912352.921855312</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2891,15 @@
         <v>2301.3054</v>
       </c>
       <c r="G83" t="n">
-        <v>-1910051.616455312</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2921,15 @@
         <v>5462.551594117647</v>
       </c>
       <c r="G84" t="n">
-        <v>-1904589.064861194</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2951,15 @@
         <v>497.8425268940261</v>
       </c>
       <c r="G85" t="n">
-        <v>-1904091.2223343</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2981,15 @@
         <v>167628.6995</v>
       </c>
       <c r="G86" t="n">
-        <v>-2071719.9218343</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3011,15 @@
         <v>1530</v>
       </c>
       <c r="G87" t="n">
-        <v>-2070189.9218343</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3041,15 @@
         <v>2867</v>
       </c>
       <c r="G88" t="n">
-        <v>-2073056.9218343</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3071,15 @@
         <v>48695.6244</v>
       </c>
       <c r="G89" t="n">
-        <v>-2024361.2974343</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3101,15 @@
         <v>32874.8745</v>
       </c>
       <c r="G90" t="n">
-        <v>-1991486.4229343</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3131,15 @@
         <v>179338.4237151988</v>
       </c>
       <c r="G91" t="n">
-        <v>-1812147.999219101</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3161,15 @@
         <v>40</v>
       </c>
       <c r="G92" t="n">
-        <v>-1812187.999219101</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3191,15 @@
         <v>45031.3926</v>
       </c>
       <c r="G93" t="n">
-        <v>-1857219.391819101</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3221,15 @@
         <v>8661.1618</v>
       </c>
       <c r="G94" t="n">
-        <v>-1857219.391819101</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3251,15 @@
         <v>15823</v>
       </c>
       <c r="G95" t="n">
-        <v>-1873042.391819101</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3281,15 @@
         <v>42331.0994</v>
       </c>
       <c r="G96" t="n">
-        <v>-1915373.491219101</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3311,15 @@
         <v>134960.7203</v>
       </c>
       <c r="G97" t="n">
-        <v>-1780412.770919101</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3341,15 @@
         <v>25835.6677</v>
       </c>
       <c r="G98" t="n">
-        <v>-1806248.438619101</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3371,15 @@
         <v>42154.418</v>
       </c>
       <c r="G99" t="n">
-        <v>-1848402.856619101</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3401,15 @@
         <v>40</v>
       </c>
       <c r="G100" t="n">
-        <v>-1848362.856619101</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3431,15 @@
         <v>56359.8696</v>
       </c>
       <c r="G101" t="n">
-        <v>-1904722.726219101</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3461,15 @@
         <v>19596.9182</v>
       </c>
       <c r="G102" t="n">
-        <v>-1924319.644419101</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3491,15 @@
         <v>3006</v>
       </c>
       <c r="G103" t="n">
-        <v>-1921313.644419101</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3521,15 @@
         <v>26101.8488</v>
       </c>
       <c r="G104" t="n">
-        <v>-1947415.493219101</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3551,15 @@
         <v>41</v>
       </c>
       <c r="G105" t="n">
-        <v>-1947374.493219101</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3581,15 @@
         <v>4424</v>
       </c>
       <c r="G106" t="n">
-        <v>-1947374.493219101</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3611,15 @@
         <v>26236.1405</v>
       </c>
       <c r="G107" t="n">
-        <v>-1973610.633719101</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3641,15 @@
         <v>9170.9432</v>
       </c>
       <c r="G108" t="n">
-        <v>-1964439.690519101</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3671,15 @@
         <v>21845.5180533752</v>
       </c>
       <c r="G109" t="n">
-        <v>-1942594.172465726</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3701,15 @@
         <v>18253.1343</v>
       </c>
       <c r="G110" t="n">
-        <v>-1960847.306765726</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3731,15 @@
         <v>142.9932</v>
       </c>
       <c r="G111" t="n">
-        <v>-1960847.306765726</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3761,15 @@
         <v>3449</v>
       </c>
       <c r="G112" t="n">
-        <v>-1957398.306765726</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3791,15 @@
         <v>28516.6536</v>
       </c>
       <c r="G113" t="n">
-        <v>-1985914.960365726</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3821,15 @@
         <v>39.3</v>
       </c>
       <c r="G114" t="n">
-        <v>-1985875.660365726</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3851,15 @@
         <v>16340.2153</v>
       </c>
       <c r="G115" t="n">
-        <v>-1969535.445065726</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3881,15 @@
         <v>508.4468</v>
       </c>
       <c r="G116" t="n">
-        <v>-1970043.891865726</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3911,15 @@
         <v>3529</v>
       </c>
       <c r="G117" t="n">
-        <v>-1973572.891865726</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3941,15 @@
         <v>38281.3417</v>
       </c>
       <c r="G118" t="n">
-        <v>-2011854.233565726</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3971,15 @@
         <v>17939.3003</v>
       </c>
       <c r="G119" t="n">
-        <v>-2029793.533865726</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4001,15 @@
         <v>45734.9763</v>
       </c>
       <c r="G120" t="n">
-        <v>-2075528.510165726</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4031,15 @@
         <v>111514.9205</v>
       </c>
       <c r="G121" t="n">
-        <v>-2187043.430665726</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4061,15 @@
         <v>198.3509</v>
       </c>
       <c r="G122" t="n">
-        <v>-2186845.079765726</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4091,15 @@
         <v>80923.2945</v>
       </c>
       <c r="G123" t="n">
-        <v>-2267768.374265726</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4121,15 @@
         <v>23357.7501</v>
       </c>
       <c r="G124" t="n">
-        <v>-2291126.124365726</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4151,15 @@
         <v>98507.2674</v>
       </c>
       <c r="G125" t="n">
-        <v>-2192618.856965726</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4181,15 @@
         <v>170765.3038</v>
       </c>
       <c r="G126" t="n">
-        <v>-2192618.856965726</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4211,15 @@
         <v>19095.3979</v>
       </c>
       <c r="G127" t="n">
-        <v>-2192618.856965726</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4241,15 @@
         <v>32656.8913</v>
       </c>
       <c r="G128" t="n">
-        <v>-2192618.856965726</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4271,15 @@
         <v>3775</v>
       </c>
       <c r="G129" t="n">
-        <v>-2196393.856965726</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4301,15 @@
         <v>9841.799499999999</v>
       </c>
       <c r="G130" t="n">
-        <v>-2196393.856965726</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4331,15 @@
         <v>34625.9605</v>
       </c>
       <c r="G131" t="n">
-        <v>-2196393.856965726</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4361,15 @@
         <v>6154.1253</v>
       </c>
       <c r="G132" t="n">
-        <v>-2202547.982265726</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4391,15 @@
         <v>3370.6526</v>
       </c>
       <c r="G133" t="n">
-        <v>-2205918.634865726</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4421,15 @@
         <v>274425.3091</v>
       </c>
       <c r="G134" t="n">
-        <v>-2480343.943965726</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4451,15 @@
         <v>19741.9248</v>
       </c>
       <c r="G135" t="n">
-        <v>-2480343.943965726</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4481,15 @@
         <v>46506.8269</v>
       </c>
       <c r="G136" t="n">
-        <v>-2480343.943965726</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4511,15 @@
         <v>1810.5647</v>
       </c>
       <c r="G137" t="n">
-        <v>-2480343.943965726</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4541,15 @@
         <v>140749.0019</v>
       </c>
       <c r="G138" t="n">
-        <v>-2621092.945865726</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4571,15 @@
         <v>41</v>
       </c>
       <c r="G139" t="n">
-        <v>-2621051.945865726</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4601,15 @@
         <v>40</v>
       </c>
       <c r="G140" t="n">
-        <v>-2621011.945865726</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4631,15 @@
         <v>51.0961</v>
       </c>
       <c r="G141" t="n">
-        <v>-2621063.041965726</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4661,15 @@
         <v>638.7596</v>
       </c>
       <c r="G142" t="n">
-        <v>-2621701.801565726</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4691,15 @@
         <v>324511.0949</v>
       </c>
       <c r="G143" t="n">
-        <v>-2946212.896465726</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4721,15 @@
         <v>88887.79610000001</v>
       </c>
       <c r="G144" t="n">
-        <v>-2857325.100365726</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4751,15 @@
         <v>128136.9431</v>
       </c>
       <c r="G145" t="n">
-        <v>-2729188.157265726</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4781,15 @@
         <v>169.9999</v>
       </c>
       <c r="G146" t="n">
-        <v>-2729018.157365726</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4811,15 @@
         <v>40.3226</v>
       </c>
       <c r="G147" t="n">
-        <v>-2729018.157365726</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4841,15 @@
         <v>131123.027</v>
       </c>
       <c r="G148" t="n">
-        <v>-2597895.130365727</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4871,15 @@
         <v>184457.0749</v>
       </c>
       <c r="G149" t="n">
-        <v>-2597895.130365727</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4901,15 @@
         <v>46295.8588</v>
       </c>
       <c r="G150" t="n">
-        <v>-2551599.271565726</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4931,15 @@
         <v>221561.795</v>
       </c>
       <c r="G151" t="n">
-        <v>-2330037.476565727</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4961,15 @@
         <v>23829.6832</v>
       </c>
       <c r="G152" t="n">
-        <v>-2306207.793365727</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4991,15 @@
         <v>8564.007</v>
       </c>
       <c r="G153" t="n">
-        <v>-2314771.800365727</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5021,15 @@
         <v>27129</v>
       </c>
       <c r="G154" t="n">
-        <v>-2341900.800365727</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5051,15 @@
         <v>8.6876</v>
       </c>
       <c r="G155" t="n">
-        <v>-2341900.800365727</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5081,15 @@
         <v>20779</v>
       </c>
       <c r="G156" t="n">
-        <v>-2362679.800365727</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5111,15 @@
         <v>2125.8614</v>
       </c>
       <c r="G157" t="n">
-        <v>-2360553.938965727</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5141,15 @@
         <v>40779.0097</v>
       </c>
       <c r="G158" t="n">
-        <v>-2401332.948665727</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5171,15 @@
         <v>3780</v>
       </c>
       <c r="G159" t="n">
-        <v>-2401332.948665727</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5201,15 @@
         <v>4435.9706</v>
       </c>
       <c r="G160" t="n">
-        <v>-2396896.978065727</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5231,15 @@
         <v>21484.0306</v>
       </c>
       <c r="G161" t="n">
-        <v>-2418381.008665727</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5261,15 @@
         <v>5034.6609</v>
       </c>
       <c r="G162" t="n">
-        <v>-2423415.669565727</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5291,15 @@
         <v>3145</v>
       </c>
       <c r="G163" t="n">
-        <v>-2423415.669565727</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5321,15 @@
         <v>3039.2925</v>
       </c>
       <c r="G164" t="n">
-        <v>-2423415.669565727</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5351,15 @@
         <v>21164.3356</v>
       </c>
       <c r="G165" t="n">
-        <v>-2444580.005165727</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5381,15 @@
         <v>63981.6344</v>
       </c>
       <c r="G166" t="n">
-        <v>-2380598.370765727</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5411,15 @@
         <v>1348.1938</v>
       </c>
       <c r="G167" t="n">
-        <v>-2379250.176965727</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5441,15 @@
         <v>40006.9297</v>
       </c>
       <c r="G168" t="n">
-        <v>-2419257.106665727</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5471,15 @@
         <v>397.9189</v>
       </c>
       <c r="G169" t="n">
-        <v>-2418859.187765727</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5501,15 @@
         <v>20000</v>
       </c>
       <c r="G170" t="n">
-        <v>-2438859.187765727</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5531,15 @@
         <v>941.6427</v>
       </c>
       <c r="G171" t="n">
-        <v>-2438859.187765727</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5561,15 @@
         <v>5807.7614</v>
       </c>
       <c r="G172" t="n">
-        <v>-2444666.949165727</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5591,15 @@
         <v>558.1106</v>
       </c>
       <c r="G173" t="n">
-        <v>-2444108.838565728</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5621,15 @@
         <v>9893.3799</v>
       </c>
       <c r="G174" t="n">
-        <v>-2454002.218465728</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5651,15 @@
         <v>502.8266</v>
       </c>
       <c r="G175" t="n">
-        <v>-2453499.391865728</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5681,15 @@
         <v>54365.3004</v>
       </c>
       <c r="G176" t="n">
-        <v>-2453499.391865728</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5711,15 @@
         <v>452.2901</v>
       </c>
       <c r="G177" t="n">
-        <v>-2453047.101765728</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5741,15 @@
         <v>3943.4794</v>
       </c>
       <c r="G178" t="n">
-        <v>-2453047.101765728</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5771,15 @@
         <v>59618.8741</v>
       </c>
       <c r="G179" t="n">
-        <v>-2393428.227665728</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5801,15 @@
         <v>1927.2921</v>
       </c>
       <c r="G180" t="n">
-        <v>-2395355.519765728</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5831,15 @@
         <v>692.626</v>
       </c>
       <c r="G181" t="n">
-        <v>-2394662.893765728</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5861,15 @@
         <v>44.8095</v>
       </c>
       <c r="G182" t="n">
-        <v>-2394618.084265728</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5891,15 @@
         <v>1416</v>
       </c>
       <c r="G183" t="n">
-        <v>-2396034.084265728</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5921,15 @@
         <v>1064.356</v>
       </c>
       <c r="G184" t="n">
-        <v>-2394969.728265728</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5951,15 @@
         <v>23000</v>
       </c>
       <c r="G185" t="n">
-        <v>-2394969.728265728</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5981,15 @@
         <v>24419.3196</v>
       </c>
       <c r="G186" t="n">
-        <v>-2370550.408665728</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6011,15 @@
         <v>38473.2111</v>
       </c>
       <c r="G187" t="n">
-        <v>-2409023.619765728</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6041,15 @@
         <v>23220.044</v>
       </c>
       <c r="G188" t="n">
-        <v>-2385803.575765728</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6071,15 @@
         <v>52.3211</v>
       </c>
       <c r="G189" t="n">
-        <v>-2385803.575765728</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6101,15 @@
         <v>4786.1998</v>
       </c>
       <c r="G190" t="n">
-        <v>-2385803.575765728</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,22 +6131,15 @@
         <v>9474</v>
       </c>
       <c r="G191" t="n">
-        <v>-2376329.575765728</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="J191" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6722,2437 +6161,2145 @@
         <v>8044.2857</v>
       </c>
       <c r="G192" t="n">
-        <v>-2384373.861465727</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="K192" t="inlineStr">
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="C193" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="D193" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="E193" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="F193" t="n">
+        <v>10560</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="C194" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="D194" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="E194" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="F194" t="n">
+        <v>3152.3211</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C195" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D195" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E195" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2912</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C196" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D196" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E196" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F196" t="n">
+        <v>21043.9237</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="C197" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="D197" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="E197" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="F197" t="n">
+        <v>265.4996</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C198" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D198" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E198" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1078</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C199" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D199" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E199" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F199" t="n">
+        <v>7873.7625</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="C200" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="D200" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="E200" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="F200" t="n">
+        <v>91667.9332</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C201" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D201" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E201" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="C202" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="D202" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="E202" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="F202" t="n">
+        <v>241.9061</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="C203" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="D203" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="E203" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="F203" t="n">
+        <v>15820.5527</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C204" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="D204" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="E204" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F204" t="n">
+        <v>232.8093</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C205" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D205" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E205" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F205" t="n">
+        <v>134.3939</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="C206" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="D206" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="E206" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="F206" t="n">
+        <v>69.8036</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="C207" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="D207" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="E207" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="F207" t="n">
+        <v>48690.7639</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="C208" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="D208" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="E208" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="F208" t="n">
+        <v>52.6891</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="C209" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="D209" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="E209" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="F209" t="n">
+        <v>30748.0305</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="C210" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="D210" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="E210" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="F210" t="n">
+        <v>78409.8692</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="C211" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="D211" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="E211" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="F211" t="n">
+        <v>27359.2148</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="C212" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="D212" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="E212" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="F212" t="n">
+        <v>219843.5411</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="C213" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="D213" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="E213" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="F213" t="n">
+        <v>159.9075</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="C214" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="D214" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="E214" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="F214" t="n">
+        <v>88232.5822</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C215" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="D215" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E215" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="F215" t="n">
+        <v>26904.8946</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="C216" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D216" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="E216" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F216" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="C217" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="D217" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="E217" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="F217" t="n">
+        <v>497296.0281</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1</v>
+      </c>
+      <c r="H217" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="C218" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="D218" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="E218" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="F218" t="n">
+        <v>208.7387</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1</v>
+      </c>
+      <c r="H218" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="I218" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J218" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="C193" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="D193" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="E193" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="F193" t="n">
-        <v>10560</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-2373813.861465727</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="K193" t="inlineStr">
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="C219" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="D219" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="E219" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="F219" t="n">
+        <v>63.6646</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
+      <c r="H219" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="I219" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J219" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="C194" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="D194" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="E194" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="F194" t="n">
-        <v>3152.3211</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-2370661.540365728</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C195" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D195" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E195" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F195" t="n">
-        <v>2912</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-2367749.540365728</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C196" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D196" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E196" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F196" t="n">
-        <v>21043.9237</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-2367749.540365728</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="C197" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="D197" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="E197" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="F197" t="n">
-        <v>265.4996</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-2367484.040765727</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C198" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D198" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E198" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F198" t="n">
-        <v>1078</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-2368562.040765727</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C199" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D199" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E199" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F199" t="n">
-        <v>7873.7625</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-2368562.040765727</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="C200" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="D200" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="E200" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="F200" t="n">
-        <v>91667.9332</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-2460229.973965727</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="C220" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="D220" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="E220" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F220" t="n">
+        <v>219843.5412</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C221" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D221" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E221" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
+      <c r="H221" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="I221" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
         <v>12.3</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C222" t="n">
         <v>12.3</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D222" t="n">
         <v>12.3</v>
       </c>
-      <c r="E201" t="n">
+      <c r="E222" t="n">
         <v>12.3</v>
       </c>
-      <c r="F201" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-2461229.973965727</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="C202" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="D202" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="E202" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="F202" t="n">
-        <v>241.9061</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-2460988.067865727</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="C203" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="D203" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="E203" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="F203" t="n">
-        <v>15820.5527</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-2460988.067865727</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C204" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="D204" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="E204" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F204" t="n">
-        <v>232.8093</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-2460755.258565728</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C205" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D205" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E205" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F205" t="n">
-        <v>134.3939</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-2460889.652465728</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="C206" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="D206" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="E206" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="F206" t="n">
-        <v>69.8036</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-2460959.456065728</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="C207" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="D207" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="E207" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="F207" t="n">
-        <v>48690.7639</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-2509650.219965728</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="C208" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="D208" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="E208" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="F208" t="n">
-        <v>52.6891</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-2509702.909065728</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="C209" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="D209" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="E209" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="F209" t="n">
-        <v>30748.0305</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-2509702.909065728</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="C210" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="D210" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="E210" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="F210" t="n">
-        <v>78409.8692</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-2588112.778265728</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="C211" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="D211" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="E211" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="F211" t="n">
-        <v>27359.2148</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-2615471.993065728</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="J211" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="C212" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="D212" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="E212" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="F212" t="n">
-        <v>219843.5411</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-2835315.534165728</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="J212" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K212" t="inlineStr">
+      <c r="F222" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+      <c r="H222" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="I222" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C223" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D223" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E223" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F223" t="n">
+        <v>2869.7289</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C224" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="D224" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E224" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F224" t="n">
+        <v>37595.6954</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="I224" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J224" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="C213" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="D213" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="E213" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="F213" t="n">
-        <v>159.9075</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-2835155.626665728</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="J213" t="n">
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
         <v>12.29</v>
       </c>
-      <c r="K213" t="inlineStr">
+      <c r="C225" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="D225" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="E225" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="F225" t="n">
+        <v>116.702</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="I225" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="C214" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="D214" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="E214" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="F214" t="n">
-        <v>88232.5822</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-2923388.208865728</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="J214" t="n">
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
         <v>12.29</v>
       </c>
-      <c r="K214" t="inlineStr">
+      <c r="C226" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D226" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E226" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="F226" t="n">
+        <v>55962.9157</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+      <c r="H226" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="I226" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C215" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="D215" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E215" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="F215" t="n">
-        <v>26904.8946</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-2950293.103465728</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="J215" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K215" t="inlineStr">
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C227" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D227" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E227" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F227" t="n">
+        <v>16956</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="I227" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="C216" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D216" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="E216" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F216" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-3050293.103465728</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="J216" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K216" t="inlineStr">
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C228" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="D228" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="E228" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F228" t="n">
+        <v>44613.6255</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H228" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="I228" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="C217" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="D217" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="E217" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="F217" t="n">
-        <v>497296.0281</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-2552997.075365729</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J217" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K217" t="inlineStr">
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C229" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="D229" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="E229" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F229" t="n">
+        <v>10100</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="C218" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="D218" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="E218" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="F218" t="n">
-        <v>208.7387</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-2552788.336665729</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K218" t="inlineStr">
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C230" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D230" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E230" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F230" t="n">
+        <v>7578</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="C219" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="D219" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="E219" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="F219" t="n">
-        <v>63.6646</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-2552852.001265728</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K219" t="inlineStr">
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C231" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D231" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F231" t="n">
+        <v>2422</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="C220" t="n">
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C232" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D232" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E232" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F232" t="n">
+        <v>31316</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="n">
         <v>12.14</v>
       </c>
-      <c r="D220" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="E220" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F220" t="n">
-        <v>219843.5412</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-2772695.542465728</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K220" t="inlineStr">
+      <c r="J232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="C221" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D221" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E221" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="F221" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-2771695.542465728</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K221" t="inlineStr">
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="C233" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="D233" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="E233" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="F233" t="n">
+        <v>38728.2531</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C222" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D222" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E222" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F222" t="n">
-        <v>21000</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-2792695.542465728</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K222" t="inlineStr">
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C234" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D234" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E234" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F234" t="n">
+        <v>29065</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C223" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D223" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E223" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F223" t="n">
-        <v>2869.7289</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-2792695.542465728</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K223" t="inlineStr">
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="C235" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="D235" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="E235" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2583</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="C224" t="n">
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="C236" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="D236" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="E236" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="F236" t="n">
+        <v>9583.4953</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="n">
         <v>12.14</v>
       </c>
-      <c r="D224" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E224" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F224" t="n">
-        <v>37595.6954</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-2830291.237865728</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K224" t="inlineStr">
+      <c r="J236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="C225" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="D225" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="E225" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="F225" t="n">
-        <v>116.702</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-2830174.535865728</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="C237" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="D237" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="E237" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1771.0054</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="n">
         <v>12.14</v>
       </c>
-      <c r="J225" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K225" t="inlineStr">
+      <c r="J237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="C226" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D226" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E226" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="F226" t="n">
-        <v>55962.9157</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-2774211.620165728</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="J226" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K226" t="inlineStr">
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="C238" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="D238" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="E238" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="F238" t="n">
+        <v>62653.3827</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C227" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D227" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E227" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F227" t="n">
-        <v>16956</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-2757255.620165728</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J227" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K227" t="inlineStr">
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="C239" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="D239" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="E239" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="F239" t="n">
+        <v>11095.142</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C228" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="D228" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="E228" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F228" t="n">
-        <v>44613.6255</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-2712641.994665728</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J228" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K228" t="inlineStr">
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="C240" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="D240" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="E240" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="F240" t="n">
+        <v>24399.7423</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
         <v>12.5</v>
       </c>
-      <c r="C229" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="D229" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="E229" t="n">
+      <c r="C241" t="n">
         <v>12.5</v>
       </c>
-      <c r="F229" t="n">
-        <v>10100</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-2712641.994665728</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K229" t="inlineStr">
+      <c r="D241" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E241" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F241" t="n">
+        <v>645.408</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C230" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D230" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E230" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F230" t="n">
-        <v>7578</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-2720219.994665728</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K230" t="inlineStr">
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="C242" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="D242" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="E242" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="F242" t="n">
+        <v>187.4583</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C231" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D231" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E231" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F231" t="n">
-        <v>2422</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-2720219.994665728</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J231" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K231" t="inlineStr">
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="C243" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="D243" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="E243" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="F243" t="n">
+        <v>5412.7994</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C232" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D232" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E232" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F232" t="n">
-        <v>31316</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-2688903.994665728</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J232" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K232" t="inlineStr">
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="C244" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="D244" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="E244" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="F244" t="n">
+        <v>105.0979</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="C233" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="D233" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="E233" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="F233" t="n">
-        <v>38728.2531</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-2650175.741565729</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="J233" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K233" t="inlineStr">
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="C245" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="D245" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="E245" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="F245" t="n">
+        <v>78.81870000000001</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C234" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D234" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E234" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F234" t="n">
-        <v>29065</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-2679240.741565729</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K234" t="inlineStr">
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="C246" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="D246" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="E246" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="F246" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="C235" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="D235" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="E235" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="F235" t="n">
-        <v>2583</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-2676657.741565729</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K235" t="inlineStr">
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="C247" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="D247" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="E247" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="F247" t="n">
+        <v>6412.1765</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="C236" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="D236" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="E236" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="F236" t="n">
-        <v>9583.4953</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-2686241.236865729</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K236" t="inlineStr">
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C248" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D248" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E248" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F248" t="n">
+        <v>34646.8019</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="C237" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="D237" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="E237" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="F237" t="n">
-        <v>1771.0054</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-2686241.236865729</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="J237" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K237" t="inlineStr">
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="C249" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="D249" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="E249" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="F249" t="n">
+        <v>89.02070000000001</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="C238" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="D238" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="E238" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="F238" t="n">
-        <v>62653.3827</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-2623587.854165729</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="J238" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K238" t="inlineStr">
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C250" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D250" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E250" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F250" t="n">
+        <v>10914</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C239" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="D239" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="E239" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F239" t="n">
-        <v>11095.142</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-2612492.712165729</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K239" t="inlineStr">
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C251" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D251" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E251" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F251" t="n">
+        <v>7536.63</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C240" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="D240" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="E240" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F240" t="n">
-        <v>24399.7423</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-2636892.454465729</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K240" t="inlineStr">
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C252" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D252" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E252" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F252" t="n">
+        <v>3950.231774260591</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C241" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D241" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E241" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F241" t="n">
-        <v>645.408</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-2637537.862465729</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="J241" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K241" t="inlineStr">
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C253" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D253" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E253" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F253" t="n">
+        <v>9568.121999999999</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C242" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="D242" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="E242" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F242" t="n">
-        <v>187.4583</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-2637350.404165728</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J242" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K242" t="inlineStr">
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C254" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D254" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E254" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F254" t="n">
+        <v>3311.8299</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C243" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="D243" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="E243" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F243" t="n">
-        <v>5412.7994</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-2637350.404165728</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="J243" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K243" t="inlineStr">
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="C255" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D255" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E255" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F255" t="n">
+        <v>9638.2886</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="C244" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="D244" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="E244" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="F244" t="n">
-        <v>105.0979</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-2637245.306265729</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="J244" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="C245" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="D245" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="E245" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="F245" t="n">
-        <v>78.81870000000001</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-2637166.487565728</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="J245" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C246" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="D246" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="E246" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F246" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-2657166.487565728</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="J246" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C247" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="D247" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="E247" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F247" t="n">
-        <v>6412.1765</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-2650754.311065728</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="J247" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C248" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D248" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E248" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F248" t="n">
-        <v>34646.8019</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-2685401.112965728</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="J248" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="C249" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="D249" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="E249" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="F249" t="n">
-        <v>89.02070000000001</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-2685312.092265728</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J249" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C250" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D250" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E250" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F250" t="n">
-        <v>10914</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-2696226.092265728</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="J250" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C251" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D251" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E251" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F251" t="n">
-        <v>7536.63</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-2696226.092265728</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="J251" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C252" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D252" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E252" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F252" t="n">
-        <v>3950.231774260591</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-2696226.092265728</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="J252" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C253" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D253" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E253" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F253" t="n">
-        <v>9568.121999999999</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-2696226.092265728</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="J253" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C254" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D254" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E254" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F254" t="n">
-        <v>3311.8299</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-2696226.092265728</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="J254" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="C255" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D255" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E255" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F255" t="n">
-        <v>9638.2886</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-2705864.380865728</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="J255" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
